--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="471">
   <si>
     <t>[sku]</t>
   </si>
@@ -1422,13 +1422,28 @@
   </si>
   <si>
     <t>TID_POWERUP_LOVEATTRACTION_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>coin_throw</t>
+  </si>
+  <si>
+    <t>coin_reward</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_DESC_SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,6 +1572,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1814,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,6 +2258,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2858,8 +2894,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L113" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L114" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L114"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3155,10 +3191,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,39 +5498,37 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="118" t="s">
+      <c r="A66" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="148" t="s">
+        <v>466</v>
+      </c>
+      <c r="C66" s="149" t="s">
+        <v>467</v>
+      </c>
+      <c r="D66" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="119">
-        <v>150</v>
-      </c>
-      <c r="F66" s="119"/>
-      <c r="G66" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="J66" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="K66" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="L66" s="120">
-        <v>1</v>
+      <c r="E66" s="151"/>
+      <c r="F66" s="151"/>
+      <c r="G66" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" s="152">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="107" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C67" s="118" t="s">
         <v>50</v>
@@ -5511,7 +5545,7 @@
         <v>101</v>
       </c>
       <c r="E67" s="119">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="108" t="s">
@@ -5538,16 +5572,16 @@
         <v>3</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C68" s="118" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D68" s="118" t="s">
         <v>101</v>
       </c>
       <c r="E68" s="119">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="108" t="s">
@@ -5557,13 +5591,13 @@
         <v>44</v>
       </c>
       <c r="I68" s="121" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J68" s="122" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K68" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L68" s="120">
         <v>1</v>
@@ -5573,8 +5607,8 @@
       <c r="A69" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="123" t="s">
-        <v>173</v>
+      <c r="B69" s="107" t="s">
+        <v>154</v>
       </c>
       <c r="C69" s="118" t="s">
         <v>16</v>
@@ -5583,7 +5617,7 @@
         <v>101</v>
       </c>
       <c r="E69" s="119">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="108" t="s">
@@ -5610,32 +5644,32 @@
         <v>3</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C70" s="118" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D70" s="118" t="s">
         <v>101</v>
       </c>
       <c r="E70" s="119">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="108" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H70" s="120" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I70" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J70" s="122" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K70" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L70" s="120">
         <v>1</v>
@@ -5646,7 +5680,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C71" s="118" t="s">
         <v>58</v>
@@ -5655,7 +5689,7 @@
         <v>101</v>
       </c>
       <c r="E71" s="119">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="108" t="s">
@@ -5682,15 +5716,17 @@
         <v>3</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="118" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72" s="119"/>
+        <v>101</v>
+      </c>
+      <c r="E72" s="119">
+        <v>30</v>
+      </c>
       <c r="F72" s="119"/>
       <c r="G72" s="108" t="s">
         <v>138</v>
@@ -5699,13 +5735,13 @@
         <v>33</v>
       </c>
       <c r="I72" s="121" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J72" s="122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K72" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L72" s="120">
         <v>1</v>
@@ -5715,18 +5751,16 @@
       <c r="A73" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="107" t="s">
-        <v>146</v>
+      <c r="B73" s="123" t="s">
+        <v>177</v>
       </c>
       <c r="C73" s="118" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="119">
-        <v>25</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E73" s="119"/>
       <c r="F73" s="119"/>
       <c r="G73" s="108" t="s">
         <v>138</v>
@@ -5735,13 +5769,13 @@
         <v>33</v>
       </c>
       <c r="I73" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J73" s="122" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K73" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L73" s="120">
         <v>1</v>
@@ -5751,8 +5785,8 @@
       <c r="A74" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="123" t="s">
-        <v>182</v>
+      <c r="B74" s="107" t="s">
+        <v>146</v>
       </c>
       <c r="C74" s="118" t="s">
         <v>32</v>
@@ -5761,7 +5795,7 @@
         <v>101</v>
       </c>
       <c r="E74" s="119">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="108" t="s">
@@ -5788,34 +5822,32 @@
         <v>3</v>
       </c>
       <c r="B75" s="123" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C75" s="118" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D75" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="119">
-        <v>100</v>
-      </c>
+      <c r="E75" s="119">
+        <v>15</v>
+      </c>
+      <c r="F75" s="119"/>
       <c r="G75" s="108" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H75" s="120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I75" s="121" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J75" s="122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K75" s="122" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="L75" s="120">
         <v>1</v>
@@ -5826,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C76" s="118" t="s">
         <v>53</v>
@@ -5835,10 +5867,10 @@
         <v>101</v>
       </c>
       <c r="E76" s="119" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F76" s="119">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G76" s="108" t="s">
         <v>143</v>
@@ -5847,13 +5879,13 @@
         <v>29</v>
       </c>
       <c r="I76" s="121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J76" s="122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K76" s="122" t="s">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="L76" s="120">
         <v>1</v>
@@ -5864,7 +5896,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C77" s="118" t="s">
         <v>53</v>
@@ -5876,7 +5908,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="119">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G77" s="108" t="s">
         <v>143</v>
@@ -5898,72 +5930,74 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="126" t="s">
+      <c r="A78" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="E78" s="127">
-        <v>50</v>
-      </c>
-      <c r="F78" s="127"/>
+      <c r="E78" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="119">
+        <v>35</v>
+      </c>
       <c r="G78" s="108" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I78" s="121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J78" s="122" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K78" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L78" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="118" t="s">
+      <c r="A79" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="119">
-        <v>25</v>
-      </c>
-      <c r="F79" s="119"/>
+      <c r="E79" s="127">
+        <v>50</v>
+      </c>
+      <c r="F79" s="127"/>
       <c r="G79" s="108" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H79" s="120" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I79" s="121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J79" s="122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K79" s="122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L79" s="120">
         <v>1</v>
@@ -5974,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C80" s="118" t="s">
         <v>51</v>
@@ -5983,7 +6017,7 @@
         <v>101</v>
       </c>
       <c r="E80" s="119">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="108" t="s">
@@ -6006,77 +6040,75 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="129" t="s">
+      <c r="A81" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="119">
+        <v>15</v>
+      </c>
+      <c r="F81" s="119"/>
+      <c r="G81" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="J81" s="122" t="s">
+        <v>192</v>
+      </c>
+      <c r="K81" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="L81" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="130" t="s">
+      <c r="C82" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="130" t="s">
+      <c r="D82" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="131">
+      <c r="E82" s="131">
         <v>20</v>
       </c>
-      <c r="F81" s="131"/>
-      <c r="G81" s="132" t="s">
+      <c r="F82" s="131"/>
+      <c r="G82" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="H81" s="133" t="s">
+      <c r="H82" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="121" t="s">
+      <c r="I82" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="J81" s="122" t="s">
+      <c r="J82" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="K81" s="122" t="s">
+      <c r="K82" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="L81" s="133">
+      <c r="L82" s="133">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="F82" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I82" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="J82" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="K82" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="L82" s="113">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C83" s="111" t="s">
         <v>97</v>
@@ -6093,12 +6125,12 @@
         <v>101</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F83" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="G83" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" s="46" t="s">
         <v>144</v>
       </c>
       <c r="H83" s="113" t="s">
@@ -6108,10 +6140,10 @@
         <v>197</v>
       </c>
       <c r="J83" s="115" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K83" s="115" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L83" s="113">
         <v>2</v>
@@ -6122,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C84" s="111" t="s">
         <v>97</v>
@@ -6131,10 +6163,10 @@
         <v>101</v>
       </c>
       <c r="E84" s="112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" s="112" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="G84" s="113" t="s">
         <v>144</v>
@@ -6143,13 +6175,13 @@
         <v>35</v>
       </c>
       <c r="I84" s="114" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J84" s="115" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K84" s="115" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L84" s="113">
         <v>2</v>
@@ -6160,19 +6192,19 @@
         <v>3</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="C85" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="110" t="s">
+      <c r="D85" s="111" t="s">
         <v>101</v>
       </c>
       <c r="E85" s="112" t="s">
         <v>177</v>
       </c>
       <c r="F85" s="112" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G85" s="113" t="s">
         <v>144</v>
@@ -6181,13 +6213,13 @@
         <v>35</v>
       </c>
       <c r="I85" s="114" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J85" s="115" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K85" s="115" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L85" s="113">
         <v>2</v>
@@ -6198,19 +6230,19 @@
         <v>3</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C86" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="111" t="s">
+      <c r="D86" s="110" t="s">
         <v>101</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G86" s="113" t="s">
         <v>144</v>
@@ -6219,13 +6251,13 @@
         <v>35</v>
       </c>
       <c r="I86" s="114" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J86" s="115" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K86" s="115" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L86" s="113">
         <v>2</v>
@@ -6236,7 +6268,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="C87" s="111" t="s">
         <v>97</v>
@@ -6245,10 +6277,10 @@
         <v>101</v>
       </c>
       <c r="E87" s="112" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F87" s="112" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G87" s="113" t="s">
         <v>144</v>
@@ -6257,13 +6289,13 @@
         <v>35</v>
       </c>
       <c r="I87" s="114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J87" s="115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K87" s="115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L87" s="113">
         <v>2</v>
@@ -6274,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="C88" s="111" t="s">
         <v>97</v>
@@ -6283,10 +6315,10 @@
         <v>101</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G88" s="113" t="s">
         <v>144</v>
@@ -6295,13 +6327,13 @@
         <v>35</v>
       </c>
       <c r="I88" s="114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J88" s="115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K88" s="115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L88" s="113">
         <v>2</v>
@@ -6312,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="C89" s="111" t="s">
         <v>97</v>
@@ -6321,10 +6353,10 @@
         <v>101</v>
       </c>
       <c r="E89" s="112" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F89" s="112" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G89" s="113" t="s">
         <v>144</v>
@@ -6333,13 +6365,13 @@
         <v>35</v>
       </c>
       <c r="I89" s="114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J89" s="115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K89" s="115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L89" s="113">
         <v>2</v>
@@ -6349,8 +6381,8 @@
       <c r="A90" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>157</v>
+      <c r="B90" s="109" t="s">
+        <v>156</v>
       </c>
       <c r="C90" s="111" t="s">
         <v>97</v>
@@ -6359,10 +6391,10 @@
         <v>101</v>
       </c>
       <c r="E90" s="112" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F90" s="112" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G90" s="113" t="s">
         <v>144</v>
@@ -6371,13 +6403,13 @@
         <v>35</v>
       </c>
       <c r="I90" s="114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J90" s="115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K90" s="115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L90" s="113">
         <v>2</v>
@@ -6388,7 +6420,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>97</v>
@@ -6396,8 +6428,8 @@
       <c r="D91" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="23" t="s">
-        <v>170</v>
+      <c r="E91" s="112" t="s">
+        <v>145</v>
       </c>
       <c r="F91" s="112" t="s">
         <v>146</v>
@@ -6425,17 +6457,17 @@
       <c r="A92" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="109" t="s">
-        <v>153</v>
+      <c r="B92" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="110" t="s">
+      <c r="D92" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="E92" s="112" t="s">
-        <v>152</v>
+      <c r="E92" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="F92" s="112" t="s">
         <v>146</v>
@@ -6447,13 +6479,13 @@
         <v>35</v>
       </c>
       <c r="I92" s="114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J92" s="115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K92" s="115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L92" s="113">
         <v>2</v>
@@ -6464,19 +6496,19 @@
         <v>3</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="111" t="s">
+      <c r="D93" s="110" t="s">
         <v>101</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G93" s="113" t="s">
         <v>144</v>
@@ -6485,13 +6517,13 @@
         <v>35</v>
       </c>
       <c r="I93" s="114" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J93" s="115" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K93" s="115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L93" s="113">
         <v>2</v>
@@ -6502,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C94" s="111" t="s">
         <v>97</v>
@@ -6514,7 +6546,7 @@
         <v>149</v>
       </c>
       <c r="F94" s="112" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="G94" s="113" t="s">
         <v>144</v>
@@ -6526,10 +6558,10 @@
         <v>231</v>
       </c>
       <c r="J94" s="115" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K94" s="115" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L94" s="113">
         <v>2</v>
@@ -6540,7 +6572,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C95" s="111" t="s">
         <v>97</v>
@@ -6549,10 +6581,10 @@
         <v>101</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F95" s="112" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="G95" s="113" t="s">
         <v>144</v>
@@ -6561,13 +6593,13 @@
         <v>35</v>
       </c>
       <c r="I95" s="114" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J95" s="115" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K95" s="115" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L95" s="113">
         <v>2</v>
@@ -6578,7 +6610,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="109" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C96" s="111" t="s">
         <v>97</v>
@@ -6587,7 +6619,7 @@
         <v>101</v>
       </c>
       <c r="E96" s="112" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F96" s="112" t="s">
         <v>160</v>
@@ -6602,10 +6634,10 @@
         <v>238</v>
       </c>
       <c r="J96" s="115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K96" s="115" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L96" s="113">
         <v>2</v>
@@ -6616,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C97" s="111" t="s">
         <v>97</v>
@@ -6625,10 +6657,10 @@
         <v>101</v>
       </c>
       <c r="E97" s="112" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="F97" s="112" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G97" s="113" t="s">
         <v>144</v>
@@ -6637,13 +6669,13 @@
         <v>35</v>
       </c>
       <c r="I97" s="114" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J97" s="115" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K97" s="115" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L97" s="113">
         <v>2</v>
@@ -6654,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C98" s="111" t="s">
         <v>97</v>
@@ -6663,10 +6695,10 @@
         <v>101</v>
       </c>
       <c r="E98" s="112" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="F98" s="112" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G98" s="113" t="s">
         <v>144</v>
@@ -6678,10 +6710,10 @@
         <v>245</v>
       </c>
       <c r="J98" s="115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K98" s="115" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L98" s="113">
         <v>2</v>
@@ -6692,7 +6724,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C99" s="111" t="s">
         <v>97</v>
@@ -6701,10 +6733,10 @@
         <v>101</v>
       </c>
       <c r="E99" s="112" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="F99" s="112" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G99" s="113" t="s">
         <v>144</v>
@@ -6713,13 +6745,13 @@
         <v>35</v>
       </c>
       <c r="I99" s="114" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J99" s="115" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K99" s="115" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L99" s="113">
         <v>2</v>
@@ -6730,7 +6762,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="109" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C100" s="111" t="s">
         <v>97</v>
@@ -6739,10 +6771,10 @@
         <v>101</v>
       </c>
       <c r="E100" s="112" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="F100" s="112" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="G100" s="113" t="s">
         <v>144</v>
@@ -6754,10 +6786,10 @@
         <v>252</v>
       </c>
       <c r="J100" s="115" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K100" s="115" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
@@ -6768,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="109" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C101" s="111" t="s">
         <v>97</v>
@@ -6777,10 +6809,10 @@
         <v>101</v>
       </c>
       <c r="E101" s="112" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F101" s="112" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="G101" s="113" t="s">
         <v>144</v>
@@ -6789,13 +6821,13 @@
         <v>35</v>
       </c>
       <c r="I101" s="114" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J101" s="115" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K101" s="115" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
@@ -6806,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="109" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C102" s="111" t="s">
         <v>97</v>
@@ -6818,7 +6850,7 @@
         <v>149</v>
       </c>
       <c r="F102" s="112" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="G102" s="113" t="s">
         <v>144</v>
@@ -6830,89 +6862,89 @@
         <v>259</v>
       </c>
       <c r="J102" s="115" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K102" s="115" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" s="112" t="s">
+        <v>188</v>
+      </c>
+      <c r="G103" s="113" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="J103" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="K103" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="L103" s="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="C103" s="140" t="s">
+      <c r="C104" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D103" s="140" t="s">
+      <c r="D104" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="E103" s="141" t="s">
+      <c r="E104" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="F103" s="141" t="s">
+      <c r="F104" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="G103" s="142" t="s">
+      <c r="G104" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="H103" s="142" t="s">
+      <c r="H104" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="I103" s="47" t="s">
+      <c r="I104" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="J103" s="20" t="s">
+      <c r="J104" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K104" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="L103" s="142">
+      <c r="L104" s="142">
         <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="134" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="130" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="F104" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="G104" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="H104" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I104" s="135" t="s">
-        <v>265</v>
-      </c>
-      <c r="J104" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="K104" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="L104" s="133">
-        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6920,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C105" s="130" t="s">
         <v>97</v>
@@ -6929,25 +6961,25 @@
         <v>101</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F105" s="131" t="s">
-        <v>160</v>
-      </c>
-      <c r="G105" s="133" t="s">
+        <v>147</v>
+      </c>
+      <c r="G105" s="132" t="s">
         <v>144</v>
       </c>
       <c r="H105" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I105" s="135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J105" s="122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K105" s="122" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L105" s="133">
         <v>3</v>
@@ -6958,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="130" t="s">
         <v>97</v>
@@ -6967,10 +6999,10 @@
         <v>101</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G106" s="133" t="s">
         <v>144</v>
@@ -6979,13 +7011,13 @@
         <v>35</v>
       </c>
       <c r="I106" s="135" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J106" s="122" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K106" s="122" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -6996,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="130" t="s">
         <v>97</v>
@@ -7005,10 +7037,10 @@
         <v>101</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="G107" s="133" t="s">
         <v>144</v>
@@ -7017,13 +7049,13 @@
         <v>35</v>
       </c>
       <c r="I107" s="135" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J107" s="122" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K107" s="122" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7034,7 +7066,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="130" t="s">
         <v>97</v>
@@ -7043,10 +7075,10 @@
         <v>101</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="G108" s="133" t="s">
         <v>144</v>
@@ -7055,13 +7087,13 @@
         <v>35</v>
       </c>
       <c r="I108" s="135" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J108" s="122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K108" s="122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7072,7 +7104,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="130" t="s">
         <v>97</v>
@@ -7081,10 +7113,10 @@
         <v>101</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G109" s="133" t="s">
         <v>144</v>
@@ -7093,13 +7125,13 @@
         <v>35</v>
       </c>
       <c r="I109" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="J109" s="136" t="s">
-        <v>281</v>
-      </c>
-      <c r="K109" s="136" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="J109" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="K109" s="122" t="s">
+        <v>279</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7109,8 +7141,8 @@
       <c r="A110" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="129" t="s">
-        <v>148</v>
+      <c r="B110" s="134" t="s">
+        <v>165</v>
       </c>
       <c r="C110" s="130" t="s">
         <v>97</v>
@@ -7118,11 +7150,11 @@
       <c r="D110" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="137" t="s">
-        <v>312</v>
-      </c>
-      <c r="F110" s="137" t="s">
-        <v>147</v>
+      <c r="E110" s="131" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" s="131" t="s">
+        <v>182</v>
       </c>
       <c r="G110" s="133" t="s">
         <v>144</v>
@@ -7130,14 +7162,14 @@
       <c r="H110" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I110" s="138" t="s">
-        <v>283</v>
-      </c>
-      <c r="J110" s="139" t="s">
-        <v>284</v>
-      </c>
-      <c r="K110" s="139" t="s">
-        <v>285</v>
+      <c r="I110" s="135" t="s">
+        <v>280</v>
+      </c>
+      <c r="J110" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="K110" s="136" t="s">
+        <v>282</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7147,8 +7179,8 @@
       <c r="A111" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="134" t="s">
-        <v>297</v>
+      <c r="B111" s="129" t="s">
+        <v>148</v>
       </c>
       <c r="C111" s="130" t="s">
         <v>97</v>
@@ -7156,11 +7188,11 @@
       <c r="D111" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="131" t="s">
-        <v>298</v>
-      </c>
-      <c r="F111" s="131" t="s">
-        <v>158</v>
+      <c r="E111" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="F111" s="137" t="s">
+        <v>147</v>
       </c>
       <c r="G111" s="133" t="s">
         <v>144</v>
@@ -7168,14 +7200,14 @@
       <c r="H111" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I111" s="135" t="s">
-        <v>299</v>
-      </c>
-      <c r="J111" s="122" t="s">
-        <v>300</v>
-      </c>
-      <c r="K111" s="122" t="s">
-        <v>301</v>
+      <c r="I111" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="J111" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="K111" s="139" t="s">
+        <v>285</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7186,7 +7218,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="134" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C112" s="130" t="s">
         <v>97</v>
@@ -7195,10 +7227,10 @@
         <v>101</v>
       </c>
       <c r="E112" s="131" t="s">
-        <v>157</v>
+        <v>298</v>
       </c>
       <c r="F112" s="131" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G112" s="133" t="s">
         <v>144</v>
@@ -7207,100 +7239,138 @@
         <v>35</v>
       </c>
       <c r="I112" s="135" t="s">
+        <v>299</v>
+      </c>
+      <c r="J112" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="K112" s="122" t="s">
+        <v>301</v>
+      </c>
+      <c r="L112" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="134" t="s">
+        <v>302</v>
+      </c>
+      <c r="C113" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="H113" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="J112" s="136" t="s">
+      <c r="J113" s="136" t="s">
         <v>304</v>
       </c>
-      <c r="K112" s="136" t="s">
+      <c r="K113" s="136" t="s">
         <v>305</v>
       </c>
-      <c r="L112" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="143" t="s">
+      <c r="L113" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="C113" s="126" t="s">
+      <c r="C114" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="126" t="s">
+      <c r="D114" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="E113" s="144" t="s">
+      <c r="E114" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="F113" s="144" t="s">
+      <c r="F114" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="G113" s="120" t="s">
+      <c r="G114" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H113" s="120" t="s">
+      <c r="H114" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="I113" s="145" t="s">
+      <c r="I114" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="J113" s="145" t="s">
+      <c r="J114" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="K113" s="145" t="s">
+      <c r="K114" s="145" t="s">
         <v>309</v>
       </c>
-      <c r="L113" s="120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="L114" s="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="117" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="118" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C118" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D118" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="51" t="s">
+      <c r="E118" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="4" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C119" s="3">
         <v>11</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D119" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E119" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,9 +323,6 @@
     <t>transform_gold</t>
   </si>
   <si>
-    <t>tranformGold</t>
-  </si>
-  <si>
     <t>hp_down_drain_down</t>
   </si>
   <si>
@@ -1422,6 +1419,9 @@
   </si>
   <si>
     <t>TID_POWERUP_LOVEATTRACTION_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>transformGold</t>
   </si>
 </sst>
 </file>
@@ -3157,8 +3157,8 @@
   </sheetPr>
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" s="101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>25</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3246,26 +3246,26 @@
         <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>313</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>314</v>
       </c>
       <c r="L4" s="18">
         <v>0</v>
@@ -3282,26 +3282,26 @@
         <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="17">
         <v>5</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -3318,26 +3318,26 @@
         <v>45</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>319</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -3354,26 +3354,26 @@
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="17">
         <v>10</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
@@ -3384,32 +3384,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="17">
         <v>50</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -3426,26 +3426,26 @@
         <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -3462,26 +3462,26 @@
         <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="L10" s="18">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>53</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>54</v>
@@ -3507,19 +3507,19 @@
         <v>10</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="L11" s="18">
         <v>0</v>
@@ -3536,7 +3536,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>28</v>
@@ -3545,19 +3545,19 @@
         <v>10</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>31</v>
@@ -3583,19 +3583,19 @@
         <v>10</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -3612,26 +3612,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="27">
         <v>5</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>337</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>338</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -3648,26 +3648,26 @@
         <v>18</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="17">
         <v>-50</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>341</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3684,26 +3684,26 @@
         <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="17">
         <v>20</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
@@ -3714,32 +3714,32 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="17">
         <v>-10</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3756,26 +3756,26 @@
         <v>58</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="23">
         <v>10</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
@@ -3792,28 +3792,28 @@
         <v>65</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="41" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>351</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>352</v>
       </c>
       <c r="L19" s="41">
         <v>0</v>
@@ -3830,28 +3830,28 @@
         <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="39">
         <v>30</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="29" t="s">
         <v>354</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>355</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>68</v>
@@ -3877,19 +3877,19 @@
         <v>30</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="L21" s="18">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>70</v>
@@ -3915,19 +3915,19 @@
         <v>30</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="29" t="s">
         <v>360</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>361</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3944,26 +3944,26 @@
         <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="17">
         <v>100</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="28" t="s">
         <v>33</v>
       </c>
       <c r="I23" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="29" t="s">
         <v>363</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -3980,28 +3980,28 @@
         <v>82</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="17">
         <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="29" t="s">
         <v>366</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>367</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
@@ -4018,26 +4018,26 @@
         <v>18</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="56">
         <v>-50</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I25" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="K25" s="60" t="s">
         <v>369</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>370</v>
       </c>
       <c r="L25" s="57">
         <v>0</v>
@@ -4054,26 +4054,26 @@
         <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="56">
         <v>-30</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I26" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="K26" s="60" t="s">
         <v>372</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>373</v>
       </c>
       <c r="L26" s="57">
         <v>0</v>
@@ -4084,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="55" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="56" t="s">
         <v>95</v>
@@ -4099,19 +4099,19 @@
         <v>96</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="57" t="s">
         <v>29</v>
       </c>
       <c r="I27" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="J27" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="K27" s="60" t="s">
         <v>375</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>376</v>
       </c>
       <c r="L27" s="57">
         <v>0</v>
@@ -4122,34 +4122,34 @@
         <v>3</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="G28" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H28" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="29" t="s">
         <v>378</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>379</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>28</v>
@@ -4175,19 +4175,19 @@
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="K29" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>31</v>
@@ -4213,19 +4213,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="K30" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4242,24 +4242,24 @@
         <v>7</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>386</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>387</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4276,26 +4276,26 @@
         <v>36</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>390</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4312,26 +4312,26 @@
         <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="17">
         <v>11</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I33" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="K33" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>393</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4348,26 +4348,26 @@
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="17">
         <v>12</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I34" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="K34" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="17">
         <v>1</v>
@@ -4393,19 +4393,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>39</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>399</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
@@ -4422,26 +4422,26 @@
         <v>42</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="17">
         <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>402</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4458,26 +4458,26 @@
         <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="17">
         <v>1</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="28" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -4494,26 +4494,26 @@
         <v>48</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="K38" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>408</v>
       </c>
       <c r="L38" s="18">
         <v>0</v>
@@ -4530,26 +4530,26 @@
         <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I39" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="29" t="s">
         <v>410</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>411</v>
       </c>
       <c r="L39" s="28">
         <v>0</v>
@@ -4566,26 +4566,26 @@
         <v>55</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="30">
         <v>1</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H40" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="J40" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="K40" s="33" t="s">
         <v>413</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>414</v>
       </c>
       <c r="L40" s="28">
         <v>0</v>
@@ -4602,26 +4602,26 @@
         <v>56</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="17">
         <v>1</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>417</v>
       </c>
       <c r="L41" s="18">
         <v>0</v>
@@ -4638,26 +4638,26 @@
         <v>59</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="30">
         <v>100</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I42" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="J42" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="K42" s="33" t="s">
         <v>419</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>420</v>
       </c>
       <c r="L42" s="28">
         <v>0</v>
@@ -4674,26 +4674,26 @@
         <v>60</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="30">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H43" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I43" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="K43" s="33" t="s">
         <v>422</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>423</v>
       </c>
       <c r="L43" s="28">
         <v>0</v>
@@ -4710,26 +4710,26 @@
         <v>61</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="17">
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>35</v>
       </c>
       <c r="I44" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="K44" s="29" t="s">
         <v>425</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>426</v>
       </c>
       <c r="L44" s="18">
         <v>0</v>
@@ -4746,26 +4746,26 @@
         <v>62</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="17" t="s">
         <v>63</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I45" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>429</v>
       </c>
       <c r="L45" s="18">
         <v>0</v>
@@ -4782,24 +4782,24 @@
         <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I46" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="29" t="s">
         <v>431</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>432</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
@@ -4816,24 +4816,24 @@
         <v>73</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I47" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="29" t="s">
         <v>434</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>435</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
@@ -4850,24 +4850,24 @@
         <v>74</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I48" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="29" t="s">
         <v>437</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>438</v>
       </c>
       <c r="L48" s="28">
         <v>0</v>
@@ -4884,24 +4884,24 @@
         <v>76</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H49" s="46" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="K49" s="49" t="s">
         <v>440</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>441</v>
       </c>
       <c r="L49" s="46">
         <v>0</v>
@@ -4918,24 +4918,24 @@
         <v>78</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H50" s="46" t="s">
         <v>35</v>
       </c>
       <c r="I50" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="K50" s="49" t="s">
         <v>443</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>444</v>
       </c>
       <c r="L50" s="46">
         <v>0</v>
@@ -4952,24 +4952,24 @@
         <v>78</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H51" s="46" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" s="48" t="s">
         <v>445</v>
       </c>
-      <c r="J51" s="48" t="s">
+      <c r="K51" s="49" t="s">
         <v>446</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>447</v>
       </c>
       <c r="L51" s="46">
         <v>0</v>
@@ -4986,24 +4986,24 @@
         <v>78</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H52" s="28" t="s">
         <v>35</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="K52" s="29" t="s">
         <v>449</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>450</v>
       </c>
       <c r="L52" s="28">
         <v>0</v>
@@ -5020,7 +5020,7 @@
         <v>83</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -5054,7 +5054,7 @@
         <v>86</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="17">
         <v>1</v>
@@ -5063,19 +5063,19 @@
         <v>1</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H54" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="K54" s="29" t="s">
         <v>452</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="L54" s="28">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>87</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -5101,19 +5101,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>39</v>
       </c>
       <c r="I55" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="K55" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>456</v>
       </c>
       <c r="L55" s="28">
         <v>0</v>
@@ -5126,28 +5126,30 @@
       <c r="B56" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="55" t="s">
-        <v>99</v>
+      <c r="C56" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="56"/>
+        <v>101</v>
+      </c>
+      <c r="E56" s="56">
+        <v>5</v>
+      </c>
       <c r="F56" s="56"/>
       <c r="G56" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H56" s="57" t="s">
         <v>35</v>
       </c>
       <c r="I56" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" s="59" t="s">
         <v>457</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="K56" s="60" t="s">
         <v>458</v>
-      </c>
-      <c r="K56" s="60" t="s">
-        <v>459</v>
       </c>
       <c r="L56" s="57">
         <v>0</v>
@@ -5158,30 +5160,30 @@
         <v>3</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H57" s="68" t="s">
         <v>35</v>
       </c>
       <c r="I57" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="K57" s="71" t="s">
         <v>107</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>108</v>
       </c>
       <c r="L57" s="68">
         <v>0</v>
@@ -5192,30 +5194,30 @@
         <v>3</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
       <c r="G58" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H58" s="68" t="s">
         <v>35</v>
       </c>
       <c r="I58" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="K58" s="71" t="s">
         <v>110</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>111</v>
       </c>
       <c r="L58" s="68">
         <v>0</v>
@@ -5226,30 +5228,30 @@
         <v>3</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H59" s="75" t="s">
         <v>35</v>
       </c>
       <c r="I59" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="J59" s="77" t="s">
+      <c r="K59" s="78" t="s">
         <v>113</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>114</v>
       </c>
       <c r="L59" s="75">
         <v>0</v>
@@ -5260,30 +5262,30 @@
         <v>3</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E60" s="83"/>
       <c r="F60" s="83"/>
       <c r="G60" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H60" s="84" t="s">
         <v>35</v>
       </c>
       <c r="I60" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="J60" s="86" t="s">
+      <c r="K60" s="86" t="s">
         <v>117</v>
-      </c>
-      <c r="K60" s="86" t="s">
-        <v>118</v>
       </c>
       <c r="L60" s="84">
         <v>0</v>
@@ -5294,30 +5296,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
       <c r="G61" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H61" s="91" t="s">
         <v>35</v>
       </c>
       <c r="I61" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="J61" s="92" t="s">
+      <c r="K61" s="92" t="s">
         <v>124</v>
-      </c>
-      <c r="K61" s="92" t="s">
-        <v>125</v>
       </c>
       <c r="L61" s="91">
         <v>0</v>
@@ -5328,30 +5330,30 @@
         <v>3</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
       <c r="G62" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H62" s="91" t="s">
         <v>35</v>
       </c>
       <c r="I62" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="J62" s="92" t="s">
+      <c r="K62" s="92" t="s">
         <v>127</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>128</v>
       </c>
       <c r="L62" s="91">
         <v>0</v>
@@ -5362,30 +5364,30 @@
         <v>3</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" s="93"/>
       <c r="F63" s="93"/>
       <c r="G63" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H63" s="91" t="s">
         <v>35</v>
       </c>
       <c r="I63" s="92" t="s">
+        <v>459</v>
+      </c>
+      <c r="J63" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="J63" s="94" t="s">
+      <c r="K63" s="95" t="s">
         <v>461</v>
-      </c>
-      <c r="K63" s="95" t="s">
-        <v>462</v>
       </c>
       <c r="L63" s="91">
         <v>0</v>
@@ -5396,30 +5398,30 @@
         <v>3</v>
       </c>
       <c r="B64" s="88" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="89" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="96"/>
       <c r="F64" s="96"/>
       <c r="G64" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H64" s="91" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="97" t="s">
+        <v>462</v>
+      </c>
+      <c r="J64" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="J64" s="98" t="s">
+      <c r="K64" s="99" t="s">
         <v>464</v>
-      </c>
-      <c r="K64" s="99" t="s">
-        <v>465</v>
       </c>
       <c r="L64" s="91">
         <v>0</v>
@@ -5430,32 +5432,32 @@
         <v>3</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="104">
         <v>1</v>
       </c>
       <c r="F65" s="104"/>
       <c r="G65" s="105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H65" s="105" t="s">
         <v>35</v>
       </c>
       <c r="I65" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="J65" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="J65" s="106" t="s">
+      <c r="K65" s="106" t="s">
         <v>130</v>
-      </c>
-      <c r="K65" s="106" t="s">
-        <v>131</v>
       </c>
       <c r="L65" s="105">
         <v>0</v>
@@ -5466,32 +5468,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="118" t="s">
         <v>50</v>
       </c>
       <c r="D66" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E66" s="119">
         <v>150</v>
       </c>
       <c r="F66" s="119"/>
       <c r="G66" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" s="120" t="s">
         <v>44</v>
       </c>
       <c r="I66" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="J66" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="J66" s="122" t="s">
-        <v>169</v>
-      </c>
       <c r="K66" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L66" s="120">
         <v>1</v>
@@ -5502,32 +5504,32 @@
         <v>3</v>
       </c>
       <c r="B67" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="118" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67" s="119">
         <v>70</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H67" s="120" t="s">
         <v>44</v>
       </c>
       <c r="I67" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="J67" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="J67" s="122" t="s">
-        <v>169</v>
-      </c>
       <c r="K67" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L67" s="120">
         <v>1</v>
@@ -5538,32 +5540,32 @@
         <v>3</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="118" t="s">
         <v>16</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E68" s="119">
         <v>100</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" s="120" t="s">
         <v>44</v>
       </c>
       <c r="I68" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="J68" s="122" t="s">
-        <v>172</v>
-      </c>
       <c r="K68" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L68" s="120">
         <v>1</v>
@@ -5574,32 +5576,32 @@
         <v>3</v>
       </c>
       <c r="B69" s="123" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" s="118" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" s="119">
         <v>75</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H69" s="120" t="s">
         <v>44</v>
       </c>
       <c r="I69" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" s="122" t="s">
         <v>171</v>
       </c>
-      <c r="J69" s="122" t="s">
-        <v>172</v>
-      </c>
       <c r="K69" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L69" s="120">
         <v>1</v>
@@ -5610,32 +5612,32 @@
         <v>3</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" s="118" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E70" s="119">
         <v>50</v>
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H70" s="120" t="s">
         <v>33</v>
       </c>
       <c r="I70" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="J70" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J70" s="122" t="s">
-        <v>175</v>
-      </c>
       <c r="K70" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L70" s="120">
         <v>1</v>
@@ -5646,32 +5648,32 @@
         <v>3</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="118" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="119">
         <v>30</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H71" s="120" t="s">
         <v>33</v>
       </c>
       <c r="I71" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="J71" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="J71" s="122" t="s">
-        <v>175</v>
-      </c>
       <c r="K71" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L71" s="120">
         <v>1</v>
@@ -5682,30 +5684,30 @@
         <v>3</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="118" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="119"/>
       <c r="F72" s="119"/>
       <c r="G72" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" s="120" t="s">
         <v>33</v>
       </c>
       <c r="I72" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="122" t="s">
-        <v>179</v>
-      </c>
       <c r="K72" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L72" s="120">
         <v>1</v>
@@ -5716,32 +5718,32 @@
         <v>3</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" s="119">
         <v>25</v>
       </c>
       <c r="F73" s="119"/>
       <c r="G73" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H73" s="120" t="s">
         <v>33</v>
       </c>
       <c r="I73" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="J73" s="122" t="s">
-        <v>181</v>
-      </c>
       <c r="K73" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L73" s="120">
         <v>1</v>
@@ -5752,32 +5754,32 @@
         <v>3</v>
       </c>
       <c r="B74" s="123" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C74" s="118" t="s">
         <v>32</v>
       </c>
       <c r="D74" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" s="119">
         <v>15</v>
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74" s="120" t="s">
         <v>33</v>
       </c>
       <c r="I74" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="J74" s="122" t="s">
-        <v>181</v>
-      </c>
       <c r="K74" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L74" s="120">
         <v>1</v>
@@ -5788,13 +5790,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="118" t="s">
         <v>53</v>
       </c>
       <c r="D75" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="119" t="s">
         <v>31</v>
@@ -5803,19 +5805,19 @@
         <v>100</v>
       </c>
       <c r="G75" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H75" s="120" t="s">
         <v>29</v>
       </c>
       <c r="I75" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="J75" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="J75" s="122" t="s">
+      <c r="K75" s="122" t="s">
         <v>184</v>
-      </c>
-      <c r="K75" s="122" t="s">
-        <v>185</v>
       </c>
       <c r="L75" s="120">
         <v>1</v>
@@ -5826,13 +5828,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="118" t="s">
         <v>53</v>
       </c>
       <c r="D76" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="119" t="s">
         <v>28</v>
@@ -5841,19 +5843,19 @@
         <v>50</v>
       </c>
       <c r="G76" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H76" s="120" t="s">
         <v>29</v>
       </c>
       <c r="I76" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="J76" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="J76" s="122" t="s">
-        <v>187</v>
-      </c>
       <c r="K76" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L76" s="120">
         <v>1</v>
@@ -5864,13 +5866,13 @@
         <v>3</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C77" s="118" t="s">
         <v>53</v>
       </c>
       <c r="D77" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" s="119" t="s">
         <v>28</v>
@@ -5879,19 +5881,19 @@
         <v>35</v>
       </c>
       <c r="G77" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H77" s="120" t="s">
         <v>29</v>
       </c>
       <c r="I77" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="J77" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="J77" s="122" t="s">
-        <v>187</v>
-      </c>
       <c r="K77" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L77" s="120">
         <v>1</v>
@@ -5902,32 +5904,32 @@
         <v>3</v>
       </c>
       <c r="B78" s="125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="126" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" s="127">
         <v>50</v>
       </c>
       <c r="F78" s="127"/>
       <c r="G78" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H78" s="120" t="s">
         <v>5</v>
       </c>
       <c r="I78" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="J78" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="J78" s="122" t="s">
-        <v>190</v>
-      </c>
       <c r="K78" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L78" s="120">
         <v>1</v>
@@ -5938,32 +5940,32 @@
         <v>3</v>
       </c>
       <c r="B79" s="123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="118" t="s">
         <v>51</v>
       </c>
       <c r="D79" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" s="119">
         <v>25</v>
       </c>
       <c r="F79" s="119"/>
       <c r="G79" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H79" s="120" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="J79" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J79" s="122" t="s">
-        <v>192</v>
-      </c>
       <c r="K79" s="122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L79" s="120">
         <v>1</v>
@@ -5974,32 +5976,32 @@
         <v>3</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C80" s="118" t="s">
         <v>51</v>
       </c>
       <c r="D80" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E80" s="119">
         <v>15</v>
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80" s="120" t="s">
         <v>46</v>
       </c>
       <c r="I80" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80" s="122" t="s">
         <v>191</v>
       </c>
-      <c r="J80" s="122" t="s">
-        <v>192</v>
-      </c>
       <c r="K80" s="122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L80" s="120">
         <v>1</v>
@@ -6010,32 +6012,32 @@
         <v>3</v>
       </c>
       <c r="B81" s="129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="130" t="s">
         <v>34</v>
       </c>
       <c r="D81" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E81" s="131">
         <v>20</v>
       </c>
       <c r="F81" s="131"/>
       <c r="G81" s="132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H81" s="133" t="s">
         <v>5</v>
       </c>
       <c r="I81" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="J81" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="J81" s="122" t="s">
-        <v>195</v>
-      </c>
       <c r="K81" s="122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L81" s="133">
         <v>1</v>
@@ -6046,34 +6048,34 @@
         <v>3</v>
       </c>
       <c r="B82" s="109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E82" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F82" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G82" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H82" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I82" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="J82" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="J82" s="115" t="s">
+      <c r="K82" s="115" t="s">
         <v>198</v>
-      </c>
-      <c r="K82" s="115" t="s">
-        <v>199</v>
       </c>
       <c r="L82" s="113">
         <v>2</v>
@@ -6084,34 +6086,34 @@
         <v>3</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D83" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F83" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G83" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H83" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I83" s="114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J83" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="K83" s="115" t="s">
         <v>201</v>
-      </c>
-      <c r="K83" s="115" t="s">
-        <v>202</v>
       </c>
       <c r="L83" s="113">
         <v>2</v>
@@ -6122,34 +6124,34 @@
         <v>3</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D84" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E84" s="112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F84" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G84" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H84" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I84" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="J84" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="J84" s="115" t="s">
+      <c r="K84" s="115" t="s">
         <v>205</v>
-      </c>
-      <c r="K84" s="115" t="s">
-        <v>206</v>
       </c>
       <c r="L84" s="113">
         <v>2</v>
@@ -6160,34 +6162,34 @@
         <v>3</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D85" s="110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E85" s="112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F85" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G85" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H85" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I85" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="J85" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="J85" s="115" t="s">
+      <c r="K85" s="115" t="s">
         <v>208</v>
-      </c>
-      <c r="K85" s="115" t="s">
-        <v>209</v>
       </c>
       <c r="L85" s="113">
         <v>2</v>
@@ -6198,34 +6200,34 @@
         <v>3</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C86" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D86" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G86" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H86" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I86" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="J86" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="J86" s="115" t="s">
+      <c r="K86" s="115" t="s">
         <v>212</v>
-      </c>
-      <c r="K86" s="115" t="s">
-        <v>213</v>
       </c>
       <c r="L86" s="113">
         <v>2</v>
@@ -6236,34 +6238,34 @@
         <v>3</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D87" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E87" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F87" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G87" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H87" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I87" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="J87" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="J87" s="115" t="s">
+      <c r="K87" s="115" t="s">
         <v>215</v>
-      </c>
-      <c r="K87" s="115" t="s">
-        <v>216</v>
       </c>
       <c r="L87" s="113">
         <v>2</v>
@@ -6274,34 +6276,34 @@
         <v>3</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H88" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I88" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="J88" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="J88" s="115" t="s">
+      <c r="K88" s="115" t="s">
         <v>219</v>
-      </c>
-      <c r="K88" s="115" t="s">
-        <v>220</v>
       </c>
       <c r="L88" s="113">
         <v>2</v>
@@ -6312,34 +6314,34 @@
         <v>3</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D89" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E89" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="F89" s="112" t="s">
-        <v>155</v>
-      </c>
       <c r="G89" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H89" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I89" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="J89" s="115" t="s">
         <v>221</v>
       </c>
-      <c r="J89" s="115" t="s">
+      <c r="K89" s="115" t="s">
         <v>222</v>
-      </c>
-      <c r="K89" s="115" t="s">
-        <v>223</v>
       </c>
       <c r="L89" s="113">
         <v>2</v>
@@ -6350,34 +6352,34 @@
         <v>3</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E90" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="F90" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="F90" s="112" t="s">
-        <v>146</v>
-      </c>
       <c r="G90" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H90" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I90" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J90" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="J90" s="115" t="s">
+      <c r="K90" s="115" t="s">
         <v>225</v>
-      </c>
-      <c r="K90" s="115" t="s">
-        <v>226</v>
       </c>
       <c r="L90" s="113">
         <v>2</v>
@@ -6388,34 +6390,34 @@
         <v>3</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F91" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G91" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H91" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I91" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="J91" s="115" t="s">
         <v>224</v>
       </c>
-      <c r="J91" s="115" t="s">
+      <c r="K91" s="115" t="s">
         <v>225</v>
-      </c>
-      <c r="K91" s="115" t="s">
-        <v>226</v>
       </c>
       <c r="L91" s="113">
         <v>2</v>
@@ -6426,34 +6428,34 @@
         <v>3</v>
       </c>
       <c r="B92" s="109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92" s="112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G92" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H92" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I92" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="J92" s="115" t="s">
         <v>227</v>
       </c>
-      <c r="J92" s="115" t="s">
+      <c r="K92" s="115" t="s">
         <v>228</v>
-      </c>
-      <c r="K92" s="115" t="s">
-        <v>229</v>
       </c>
       <c r="L92" s="113">
         <v>2</v>
@@ -6464,34 +6466,34 @@
         <v>3</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D93" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G93" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H93" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I93" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93" s="115" t="s">
         <v>231</v>
       </c>
-      <c r="J93" s="115" t="s">
+      <c r="K93" s="115" t="s">
         <v>232</v>
-      </c>
-      <c r="K93" s="115" t="s">
-        <v>233</v>
       </c>
       <c r="L93" s="113">
         <v>2</v>
@@ -6502,34 +6504,34 @@
         <v>3</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E94" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F94" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G94" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H94" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I94" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J94" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="K94" s="115" t="s">
         <v>235</v>
-      </c>
-      <c r="K94" s="115" t="s">
-        <v>236</v>
       </c>
       <c r="L94" s="113">
         <v>2</v>
@@ -6540,34 +6542,34 @@
         <v>3</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C95" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F95" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G95" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H95" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I95" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="J95" s="115" t="s">
         <v>238</v>
       </c>
-      <c r="J95" s="115" t="s">
+      <c r="K95" s="115" t="s">
         <v>239</v>
-      </c>
-      <c r="K95" s="115" t="s">
-        <v>240</v>
       </c>
       <c r="L95" s="113">
         <v>2</v>
@@ -6578,34 +6580,34 @@
         <v>3</v>
       </c>
       <c r="B96" s="109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C96" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F96" s="112" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G96" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H96" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I96" s="114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J96" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="K96" s="115" t="s">
         <v>242</v>
-      </c>
-      <c r="K96" s="115" t="s">
-        <v>243</v>
       </c>
       <c r="L96" s="113">
         <v>2</v>
@@ -6616,34 +6618,34 @@
         <v>3</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D97" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F97" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H97" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I97" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="J97" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="J97" s="115" t="s">
+      <c r="K97" s="115" t="s">
         <v>246</v>
-      </c>
-      <c r="K97" s="115" t="s">
-        <v>247</v>
       </c>
       <c r="L97" s="113">
         <v>2</v>
@@ -6654,34 +6656,34 @@
         <v>3</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C98" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E98" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F98" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G98" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H98" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I98" s="114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J98" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="K98" s="115" t="s">
         <v>249</v>
-      </c>
-      <c r="K98" s="115" t="s">
-        <v>250</v>
       </c>
       <c r="L98" s="113">
         <v>2</v>
@@ -6692,34 +6694,34 @@
         <v>3</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C99" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D99" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F99" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G99" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H99" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I99" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="J99" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="J99" s="115" t="s">
+      <c r="K99" s="115" t="s">
         <v>253</v>
-      </c>
-      <c r="K99" s="115" t="s">
-        <v>254</v>
       </c>
       <c r="L99" s="113">
         <v>2</v>
@@ -6730,34 +6732,34 @@
         <v>3</v>
       </c>
       <c r="B100" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C100" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D100" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" s="112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F100" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G100" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H100" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I100" s="114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J100" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="K100" s="115" t="s">
         <v>256</v>
-      </c>
-      <c r="K100" s="115" t="s">
-        <v>257</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
@@ -6768,34 +6770,34 @@
         <v>3</v>
       </c>
       <c r="B101" s="109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C101" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D101" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G101" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H101" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I101" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="J101" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="J101" s="115" t="s">
+      <c r="K101" s="115" t="s">
         <v>260</v>
-      </c>
-      <c r="K101" s="115" t="s">
-        <v>261</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
@@ -6806,34 +6808,34 @@
         <v>3</v>
       </c>
       <c r="B102" s="109" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C102" s="111" t="s">
         <v>97</v>
       </c>
       <c r="D102" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" s="112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F102" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G102" s="113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H102" s="113" t="s">
         <v>35</v>
       </c>
       <c r="I102" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J102" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="K102" s="115" t="s">
         <v>263</v>
-      </c>
-      <c r="K102" s="115" t="s">
-        <v>264</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
@@ -6844,34 +6846,34 @@
         <v>3</v>
       </c>
       <c r="B103" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="140" t="s">
         <v>97</v>
       </c>
       <c r="D103" s="140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="141" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F103" s="141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G103" s="142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H103" s="142" t="s">
         <v>35</v>
       </c>
       <c r="I103" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J103" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="K103" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="K103" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="L103" s="142">
         <v>2</v>
@@ -6882,34 +6884,34 @@
         <v>3</v>
       </c>
       <c r="B104" s="134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C104" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D104" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104" s="131" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F104" s="131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104" s="132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H104" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I104" s="135" t="s">
+        <v>264</v>
+      </c>
+      <c r="J104" s="122" t="s">
         <v>265</v>
       </c>
-      <c r="J104" s="122" t="s">
+      <c r="K104" s="122" t="s">
         <v>266</v>
-      </c>
-      <c r="K104" s="122" t="s">
-        <v>267</v>
       </c>
       <c r="L104" s="133">
         <v>3</v>
@@ -6920,34 +6922,34 @@
         <v>3</v>
       </c>
       <c r="B105" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C105" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D105" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F105" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G105" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H105" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I105" s="135" t="s">
+        <v>267</v>
+      </c>
+      <c r="J105" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="J105" s="122" t="s">
+      <c r="K105" s="122" t="s">
         <v>269</v>
-      </c>
-      <c r="K105" s="122" t="s">
-        <v>270</v>
       </c>
       <c r="L105" s="133">
         <v>3</v>
@@ -6958,34 +6960,34 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C106" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D106" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G106" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H106" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I106" s="135" t="s">
+        <v>270</v>
+      </c>
+      <c r="J106" s="122" t="s">
         <v>271</v>
       </c>
-      <c r="J106" s="122" t="s">
+      <c r="K106" s="122" t="s">
         <v>272</v>
-      </c>
-      <c r="K106" s="122" t="s">
-        <v>273</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -6996,34 +6998,34 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C107" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D107" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G107" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H107" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I107" s="135" t="s">
+        <v>273</v>
+      </c>
+      <c r="J107" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="J107" s="122" t="s">
+      <c r="K107" s="122" t="s">
         <v>275</v>
-      </c>
-      <c r="K107" s="122" t="s">
-        <v>276</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7034,34 +7036,34 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C108" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D108" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G108" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H108" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I108" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="J108" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="J108" s="122" t="s">
+      <c r="K108" s="122" t="s">
         <v>278</v>
-      </c>
-      <c r="K108" s="122" t="s">
-        <v>279</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7072,34 +7074,34 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C109" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D109" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G109" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H109" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I109" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="J109" s="136" t="s">
         <v>280</v>
       </c>
-      <c r="J109" s="136" t="s">
+      <c r="K109" s="136" t="s">
         <v>281</v>
-      </c>
-      <c r="K109" s="136" t="s">
-        <v>282</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7110,34 +7112,34 @@
         <v>3</v>
       </c>
       <c r="B110" s="129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D110" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" s="137" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F110" s="137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G110" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H110" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I110" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="J110" s="139" t="s">
         <v>283</v>
       </c>
-      <c r="J110" s="139" t="s">
+      <c r="K110" s="139" t="s">
         <v>284</v>
-      </c>
-      <c r="K110" s="139" t="s">
-        <v>285</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7148,34 +7150,34 @@
         <v>3</v>
       </c>
       <c r="B111" s="134" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C111" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D111" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E111" s="131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F111" s="131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G111" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H111" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I111" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="J111" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="J111" s="122" t="s">
+      <c r="K111" s="122" t="s">
         <v>300</v>
-      </c>
-      <c r="K111" s="122" t="s">
-        <v>301</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7186,34 +7188,34 @@
         <v>3</v>
       </c>
       <c r="B112" s="134" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C112" s="130" t="s">
         <v>97</v>
       </c>
       <c r="D112" s="130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E112" s="131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F112" s="131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G112" s="133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H112" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I112" s="135" t="s">
+        <v>302</v>
+      </c>
+      <c r="J112" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="J112" s="136" t="s">
+      <c r="K112" s="136" t="s">
         <v>304</v>
-      </c>
-      <c r="K112" s="136" t="s">
-        <v>305</v>
       </c>
       <c r="L112" s="133">
         <v>3</v>
@@ -7224,34 +7226,34 @@
         <v>3</v>
       </c>
       <c r="B113" s="143" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C113" s="126" t="s">
         <v>97</v>
       </c>
       <c r="D113" s="126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E113" s="144" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F113" s="144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G113" s="120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H113" s="120" t="s">
         <v>35</v>
       </c>
       <c r="I113" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="J113" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="J113" s="145" t="s">
+      <c r="K113" s="145" t="s">
         <v>308</v>
-      </c>
-      <c r="K113" s="145" t="s">
-        <v>309</v>
       </c>
       <c r="L113" s="120">
         <v>3</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -3158,7 +3158,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5133,7 @@
         <v>101</v>
       </c>
       <c r="E56" s="56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="28" t="s">

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -1835,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2264,9 +2264,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3193,8 +3190,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,11 +5504,13 @@
       <c r="C66" s="149" t="s">
         <v>467</v>
       </c>
-      <c r="D66" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="151"/>
-      <c r="F66" s="151"/>
+      <c r="D66" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="150">
+        <v>5</v>
+      </c>
+      <c r="F66" s="150"/>
       <c r="G66" s="18" t="s">
         <v>139</v>
       </c>
@@ -5527,7 +5526,7 @@
       <c r="K66" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="L66" s="152">
+      <c r="L66" s="151">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="471">
   <si>
     <t>[sku]</t>
   </si>
@@ -1422,13 +1422,28 @@
   </si>
   <si>
     <t>transformGold</t>
+  </si>
+  <si>
+    <t>coin_throw</t>
+  </si>
+  <si>
+    <t>coin_reward</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_COIN_THROW_DESC_SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1557,6 +1572,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1814,7 +1835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,6 +2258,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2858,8 +2891,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L113" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L114" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L114"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3155,10 +3188,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,39 +5497,39 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="119">
-        <v>150</v>
-      </c>
-      <c r="F66" s="119"/>
-      <c r="G66" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I66" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="J66" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="K66" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="L66" s="120">
-        <v>1</v>
+      <c r="A66" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="148" t="s">
+        <v>466</v>
+      </c>
+      <c r="C66" s="149" t="s">
+        <v>467</v>
+      </c>
+      <c r="D66" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="150">
+        <v>5</v>
+      </c>
+      <c r="F66" s="150"/>
+      <c r="G66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="92" t="s">
+        <v>468</v>
+      </c>
+      <c r="J66" s="92" t="s">
+        <v>469</v>
+      </c>
+      <c r="K66" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="L66" s="151">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5504,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="107" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C67" s="118" t="s">
         <v>50</v>
@@ -5513,7 +5546,7 @@
         <v>100</v>
       </c>
       <c r="E67" s="119">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="108" t="s">
@@ -5540,16 +5573,16 @@
         <v>3</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C68" s="118" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D68" s="118" t="s">
         <v>100</v>
       </c>
       <c r="E68" s="119">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="108" t="s">
@@ -5559,13 +5592,13 @@
         <v>44</v>
       </c>
       <c r="I68" s="121" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J68" s="122" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K68" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L68" s="120">
         <v>1</v>
@@ -5575,8 +5608,8 @@
       <c r="A69" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="123" t="s">
-        <v>172</v>
+      <c r="B69" s="107" t="s">
+        <v>153</v>
       </c>
       <c r="C69" s="118" t="s">
         <v>16</v>
@@ -5585,7 +5618,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="119">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="108" t="s">
@@ -5612,32 +5645,32 @@
         <v>3</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C70" s="118" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D70" s="118" t="s">
         <v>100</v>
       </c>
       <c r="E70" s="119">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="108" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H70" s="120" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I70" s="121" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J70" s="122" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K70" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L70" s="120">
         <v>1</v>
@@ -5648,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C71" s="118" t="s">
         <v>58</v>
@@ -5657,7 +5690,7 @@
         <v>100</v>
       </c>
       <c r="E71" s="119">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="108" t="s">
@@ -5684,15 +5717,17 @@
         <v>3</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" s="118" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="119"/>
+        <v>100</v>
+      </c>
+      <c r="E72" s="119">
+        <v>30</v>
+      </c>
       <c r="F72" s="119"/>
       <c r="G72" s="108" t="s">
         <v>137</v>
@@ -5701,13 +5736,13 @@
         <v>33</v>
       </c>
       <c r="I72" s="121" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J72" s="122" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K72" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L72" s="120">
         <v>1</v>
@@ -5717,18 +5752,16 @@
       <c r="A73" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="107" t="s">
-        <v>145</v>
+      <c r="B73" s="123" t="s">
+        <v>176</v>
       </c>
       <c r="C73" s="118" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E73" s="119">
-        <v>25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E73" s="119"/>
       <c r="F73" s="119"/>
       <c r="G73" s="108" t="s">
         <v>137</v>
@@ -5737,13 +5770,13 @@
         <v>33</v>
       </c>
       <c r="I73" s="121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J73" s="122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K73" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L73" s="120">
         <v>1</v>
@@ -5753,8 +5786,8 @@
       <c r="A74" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="123" t="s">
-        <v>181</v>
+      <c r="B74" s="107" t="s">
+        <v>145</v>
       </c>
       <c r="C74" s="118" t="s">
         <v>32</v>
@@ -5763,7 +5796,7 @@
         <v>100</v>
       </c>
       <c r="E74" s="119">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="108" t="s">
@@ -5790,34 +5823,32 @@
         <v>3</v>
       </c>
       <c r="B75" s="123" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C75" s="118" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D75" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="119">
-        <v>100</v>
-      </c>
+      <c r="E75" s="119">
+        <v>15</v>
+      </c>
+      <c r="F75" s="119"/>
       <c r="G75" s="108" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H75" s="120" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I75" s="121" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J75" s="122" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K75" s="122" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="L75" s="120">
         <v>1</v>
@@ -5828,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C76" s="118" t="s">
         <v>53</v>
@@ -5837,10 +5868,10 @@
         <v>100</v>
       </c>
       <c r="E76" s="119" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F76" s="119">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G76" s="108" t="s">
         <v>142</v>
@@ -5849,13 +5880,13 @@
         <v>29</v>
       </c>
       <c r="I76" s="121" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J76" s="122" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K76" s="122" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="L76" s="120">
         <v>1</v>
@@ -5866,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C77" s="118" t="s">
         <v>53</v>
@@ -5878,7 +5909,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="119">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G77" s="108" t="s">
         <v>142</v>
@@ -5900,72 +5931,74 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="127">
-        <v>50</v>
-      </c>
-      <c r="F78" s="127"/>
+      <c r="A78" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="119">
+        <v>35</v>
+      </c>
       <c r="G78" s="108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I78" s="121" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J78" s="122" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K78" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L78" s="120">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="C79" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="D79" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="119">
-        <v>25</v>
-      </c>
-      <c r="F79" s="119"/>
+      <c r="A79" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="127">
+        <v>50</v>
+      </c>
+      <c r="F79" s="127"/>
       <c r="G79" s="108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H79" s="120" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I79" s="121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J79" s="122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K79" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L79" s="120">
         <v>1</v>
@@ -5976,7 +6009,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C80" s="118" t="s">
         <v>51</v>
@@ -5985,7 +6018,7 @@
         <v>100</v>
       </c>
       <c r="E80" s="119">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="108" t="s">
@@ -6008,77 +6041,75 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="129" t="s">
+      <c r="A81" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="119">
+        <v>15</v>
+      </c>
+      <c r="F81" s="119"/>
+      <c r="G81" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="J81" s="122" t="s">
+        <v>191</v>
+      </c>
+      <c r="K81" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="L81" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="130" t="s">
+      <c r="C82" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D81" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="131">
+      <c r="D82" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="131">
         <v>20</v>
       </c>
-      <c r="F81" s="131"/>
-      <c r="G81" s="132" t="s">
+      <c r="F82" s="131"/>
+      <c r="G82" s="132" t="s">
         <v>138</v>
       </c>
-      <c r="H81" s="133" t="s">
+      <c r="H82" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="121" t="s">
+      <c r="I82" s="121" t="s">
         <v>193</v>
       </c>
-      <c r="J81" s="122" t="s">
+      <c r="J82" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="K81" s="122" t="s">
+      <c r="K82" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="L81" s="133">
+      <c r="L82" s="133">
         <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F82" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G82" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H82" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I82" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="J82" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="K82" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="L82" s="113">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6086,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C83" s="111" t="s">
         <v>97</v>
@@ -6095,12 +6126,12 @@
         <v>100</v>
       </c>
       <c r="E83" s="112" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F83" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G83" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="46" t="s">
         <v>143</v>
       </c>
       <c r="H83" s="113" t="s">
@@ -6110,10 +6141,10 @@
         <v>196</v>
       </c>
       <c r="J83" s="115" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K83" s="115" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L83" s="113">
         <v>2</v>
@@ -6124,7 +6155,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" s="111" t="s">
         <v>97</v>
@@ -6133,10 +6164,10 @@
         <v>100</v>
       </c>
       <c r="E84" s="112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" s="112" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G84" s="113" t="s">
         <v>143</v>
@@ -6145,13 +6176,13 @@
         <v>35</v>
       </c>
       <c r="I84" s="114" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J84" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K84" s="115" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L84" s="113">
         <v>2</v>
@@ -6162,19 +6193,19 @@
         <v>3</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C85" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="110" t="s">
+      <c r="D85" s="111" t="s">
         <v>100</v>
       </c>
       <c r="E85" s="112" t="s">
         <v>176</v>
       </c>
       <c r="F85" s="112" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G85" s="113" t="s">
         <v>143</v>
@@ -6183,13 +6214,13 @@
         <v>35</v>
       </c>
       <c r="I85" s="114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J85" s="115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K85" s="115" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L85" s="113">
         <v>2</v>
@@ -6200,19 +6231,19 @@
         <v>3</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="C86" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="111" t="s">
+      <c r="D86" s="110" t="s">
         <v>100</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G86" s="113" t="s">
         <v>143</v>
@@ -6221,13 +6252,13 @@
         <v>35</v>
       </c>
       <c r="I86" s="114" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J86" s="115" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K86" s="115" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L86" s="113">
         <v>2</v>
@@ -6238,7 +6269,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="C87" s="111" t="s">
         <v>97</v>
@@ -6247,10 +6278,10 @@
         <v>100</v>
       </c>
       <c r="E87" s="112" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F87" s="112" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G87" s="113" t="s">
         <v>143</v>
@@ -6259,13 +6290,13 @@
         <v>35</v>
       </c>
       <c r="I87" s="114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J87" s="115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K87" s="115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L87" s="113">
         <v>2</v>
@@ -6276,7 +6307,7 @@
         <v>3</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="C88" s="111" t="s">
         <v>97</v>
@@ -6285,10 +6316,10 @@
         <v>100</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G88" s="113" t="s">
         <v>143</v>
@@ -6297,13 +6328,13 @@
         <v>35</v>
       </c>
       <c r="I88" s="114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J88" s="115" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K88" s="115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L88" s="113">
         <v>2</v>
@@ -6314,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="109" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C89" s="111" t="s">
         <v>97</v>
@@ -6323,10 +6354,10 @@
         <v>100</v>
       </c>
       <c r="E89" s="112" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F89" s="112" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G89" s="113" t="s">
         <v>143</v>
@@ -6335,13 +6366,13 @@
         <v>35</v>
       </c>
       <c r="I89" s="114" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J89" s="115" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K89" s="115" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L89" s="113">
         <v>2</v>
@@ -6351,8 +6382,8 @@
       <c r="A90" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>156</v>
+      <c r="B90" s="109" t="s">
+        <v>155</v>
       </c>
       <c r="C90" s="111" t="s">
         <v>97</v>
@@ -6361,10 +6392,10 @@
         <v>100</v>
       </c>
       <c r="E90" s="112" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F90" s="112" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G90" s="113" t="s">
         <v>143</v>
@@ -6373,13 +6404,13 @@
         <v>35</v>
       </c>
       <c r="I90" s="114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J90" s="115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K90" s="115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L90" s="113">
         <v>2</v>
@@ -6390,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="C91" s="111" t="s">
         <v>97</v>
@@ -6398,8 +6429,8 @@
       <c r="D91" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="E91" s="23" t="s">
-        <v>169</v>
+      <c r="E91" s="112" t="s">
+        <v>144</v>
       </c>
       <c r="F91" s="112" t="s">
         <v>145</v>
@@ -6427,17 +6458,17 @@
       <c r="A92" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="109" t="s">
-        <v>152</v>
+      <c r="B92" s="21" t="s">
+        <v>311</v>
       </c>
       <c r="C92" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="112" t="s">
-        <v>151</v>
+      <c r="D92" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="F92" s="112" t="s">
         <v>145</v>
@@ -6449,13 +6480,13 @@
         <v>35</v>
       </c>
       <c r="I92" s="114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J92" s="115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K92" s="115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L92" s="113">
         <v>2</v>
@@ -6466,19 +6497,19 @@
         <v>3</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="C93" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="111" t="s">
+      <c r="D93" s="110" t="s">
         <v>100</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G93" s="113" t="s">
         <v>143</v>
@@ -6487,13 +6518,13 @@
         <v>35</v>
       </c>
       <c r="I93" s="114" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J93" s="115" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K93" s="115" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L93" s="113">
         <v>2</v>
@@ -6504,7 +6535,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="109" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C94" s="111" t="s">
         <v>97</v>
@@ -6516,7 +6547,7 @@
         <v>148</v>
       </c>
       <c r="F94" s="112" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G94" s="113" t="s">
         <v>143</v>
@@ -6528,10 +6559,10 @@
         <v>230</v>
       </c>
       <c r="J94" s="115" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K94" s="115" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L94" s="113">
         <v>2</v>
@@ -6542,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C95" s="111" t="s">
         <v>97</v>
@@ -6551,10 +6582,10 @@
         <v>100</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F95" s="112" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G95" s="113" t="s">
         <v>143</v>
@@ -6563,13 +6594,13 @@
         <v>35</v>
       </c>
       <c r="I95" s="114" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J95" s="115" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K95" s="115" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L95" s="113">
         <v>2</v>
@@ -6580,7 +6611,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="109" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C96" s="111" t="s">
         <v>97</v>
@@ -6589,7 +6620,7 @@
         <v>100</v>
       </c>
       <c r="E96" s="112" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F96" s="112" t="s">
         <v>159</v>
@@ -6604,10 +6635,10 @@
         <v>237</v>
       </c>
       <c r="J96" s="115" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K96" s="115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L96" s="113">
         <v>2</v>
@@ -6618,7 +6649,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="109" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C97" s="111" t="s">
         <v>97</v>
@@ -6627,10 +6658,10 @@
         <v>100</v>
       </c>
       <c r="E97" s="112" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F97" s="112" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G97" s="113" t="s">
         <v>143</v>
@@ -6639,13 +6670,13 @@
         <v>35</v>
       </c>
       <c r="I97" s="114" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J97" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K97" s="115" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L97" s="113">
         <v>2</v>
@@ -6656,7 +6687,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="109" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C98" s="111" t="s">
         <v>97</v>
@@ -6665,10 +6696,10 @@
         <v>100</v>
       </c>
       <c r="E98" s="112" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="F98" s="112" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="G98" s="113" t="s">
         <v>143</v>
@@ -6680,10 +6711,10 @@
         <v>244</v>
       </c>
       <c r="J98" s="115" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K98" s="115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L98" s="113">
         <v>2</v>
@@ -6694,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="109" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C99" s="111" t="s">
         <v>97</v>
@@ -6703,10 +6734,10 @@
         <v>100</v>
       </c>
       <c r="E99" s="112" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="F99" s="112" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G99" s="113" t="s">
         <v>143</v>
@@ -6715,13 +6746,13 @@
         <v>35</v>
       </c>
       <c r="I99" s="114" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J99" s="115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K99" s="115" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L99" s="113">
         <v>2</v>
@@ -6732,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="109" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C100" s="111" t="s">
         <v>97</v>
@@ -6741,10 +6772,10 @@
         <v>100</v>
       </c>
       <c r="E100" s="112" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F100" s="112" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="G100" s="113" t="s">
         <v>143</v>
@@ -6756,10 +6787,10 @@
         <v>251</v>
       </c>
       <c r="J100" s="115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K100" s="115" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
@@ -6770,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="109" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C101" s="111" t="s">
         <v>97</v>
@@ -6779,10 +6810,10 @@
         <v>100</v>
       </c>
       <c r="E101" s="112" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F101" s="112" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="G101" s="113" t="s">
         <v>143</v>
@@ -6791,13 +6822,13 @@
         <v>35</v>
       </c>
       <c r="I101" s="114" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J101" s="115" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K101" s="115" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
@@ -6808,7 +6839,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="109" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C102" s="111" t="s">
         <v>97</v>
@@ -6820,7 +6851,7 @@
         <v>148</v>
       </c>
       <c r="F102" s="112" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="G102" s="113" t="s">
         <v>143</v>
@@ -6832,89 +6863,89 @@
         <v>258</v>
       </c>
       <c r="J102" s="115" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K102" s="115" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="109" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="112" t="s">
+        <v>187</v>
+      </c>
+      <c r="G103" s="113" t="s">
+        <v>143</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="J103" s="115" t="s">
+        <v>262</v>
+      </c>
+      <c r="K103" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="L103" s="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="109" t="s">
         <v>297</v>
       </c>
-      <c r="C103" s="140" t="s">
+      <c r="C104" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D103" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="141" t="s">
+      <c r="D104" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="E104" s="141" t="s">
         <v>151</v>
       </c>
-      <c r="F103" s="141" t="s">
+      <c r="F104" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="G103" s="142" t="s">
+      <c r="G104" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="H103" s="142" t="s">
+      <c r="H104" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="I103" s="47" t="s">
+      <c r="I104" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="J103" s="20" t="s">
+      <c r="J104" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K104" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="L103" s="142">
+      <c r="L104" s="142">
         <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="131" t="s">
-        <v>247</v>
-      </c>
-      <c r="F104" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G104" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="H104" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I104" s="135" t="s">
-        <v>264</v>
-      </c>
-      <c r="J104" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="K104" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="L104" s="133">
-        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6922,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C105" s="130" t="s">
         <v>97</v>
@@ -6931,25 +6962,25 @@
         <v>100</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F105" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G105" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="G105" s="132" t="s">
         <v>143</v>
       </c>
       <c r="H105" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I105" s="135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J105" s="122" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K105" s="122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L105" s="133">
         <v>3</v>
@@ -6960,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C106" s="130" t="s">
         <v>97</v>
@@ -6969,10 +7000,10 @@
         <v>100</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G106" s="133" t="s">
         <v>143</v>
@@ -6981,13 +7012,13 @@
         <v>35</v>
       </c>
       <c r="I106" s="135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J106" s="122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K106" s="122" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -6998,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C107" s="130" t="s">
         <v>97</v>
@@ -7007,10 +7038,10 @@
         <v>100</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G107" s="133" t="s">
         <v>143</v>
@@ -7019,13 +7050,13 @@
         <v>35</v>
       </c>
       <c r="I107" s="135" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J107" s="122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K107" s="122" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7036,7 +7067,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" s="130" t="s">
         <v>97</v>
@@ -7045,10 +7076,10 @@
         <v>100</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G108" s="133" t="s">
         <v>143</v>
@@ -7057,13 +7088,13 @@
         <v>35</v>
       </c>
       <c r="I108" s="135" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J108" s="122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K108" s="122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7074,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C109" s="130" t="s">
         <v>97</v>
@@ -7083,10 +7114,10 @@
         <v>100</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G109" s="133" t="s">
         <v>143</v>
@@ -7095,13 +7126,13 @@
         <v>35</v>
       </c>
       <c r="I109" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="J109" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="K109" s="136" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="J109" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="K109" s="122" t="s">
+        <v>278</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7111,8 +7142,8 @@
       <c r="A110" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B110" s="129" t="s">
-        <v>147</v>
+      <c r="B110" s="134" t="s">
+        <v>164</v>
       </c>
       <c r="C110" s="130" t="s">
         <v>97</v>
@@ -7120,11 +7151,11 @@
       <c r="D110" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E110" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="F110" s="137" t="s">
-        <v>146</v>
+      <c r="E110" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="131" t="s">
+        <v>181</v>
       </c>
       <c r="G110" s="133" t="s">
         <v>143</v>
@@ -7132,14 +7163,14 @@
       <c r="H110" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I110" s="138" t="s">
-        <v>282</v>
-      </c>
-      <c r="J110" s="139" t="s">
-        <v>283</v>
-      </c>
-      <c r="K110" s="139" t="s">
-        <v>284</v>
+      <c r="I110" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="J110" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="K110" s="136" t="s">
+        <v>281</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7149,8 +7180,8 @@
       <c r="A111" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="134" t="s">
-        <v>296</v>
+      <c r="B111" s="129" t="s">
+        <v>147</v>
       </c>
       <c r="C111" s="130" t="s">
         <v>97</v>
@@ -7158,11 +7189,11 @@
       <c r="D111" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="F111" s="131" t="s">
-        <v>157</v>
+      <c r="E111" s="137" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="137" t="s">
+        <v>146</v>
       </c>
       <c r="G111" s="133" t="s">
         <v>143</v>
@@ -7170,14 +7201,14 @@
       <c r="H111" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I111" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="J111" s="122" t="s">
-        <v>299</v>
-      </c>
-      <c r="K111" s="122" t="s">
-        <v>300</v>
+      <c r="I111" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="J111" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="K111" s="139" t="s">
+        <v>284</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7188,7 +7219,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="134" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C112" s="130" t="s">
         <v>97</v>
@@ -7197,10 +7228,10 @@
         <v>100</v>
       </c>
       <c r="E112" s="131" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="F112" s="131" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G112" s="133" t="s">
         <v>143</v>
@@ -7209,100 +7240,138 @@
         <v>35</v>
       </c>
       <c r="I112" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="J112" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="K112" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="L112" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C113" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="H113" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="135" t="s">
         <v>302</v>
       </c>
-      <c r="J112" s="136" t="s">
+      <c r="J113" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="K112" s="136" t="s">
+      <c r="K113" s="136" t="s">
         <v>304</v>
       </c>
-      <c r="L112" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="143" t="s">
+      <c r="L113" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="143" t="s">
         <v>305</v>
       </c>
-      <c r="C113" s="126" t="s">
+      <c r="C114" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D113" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="144" t="s">
+      <c r="D114" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F113" s="144" t="s">
+      <c r="F114" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="G113" s="120" t="s">
+      <c r="G114" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="H113" s="120" t="s">
+      <c r="H114" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="I113" s="145" t="s">
+      <c r="I114" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="J113" s="145" t="s">
+      <c r="J114" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="K113" s="145" t="s">
+      <c r="K114" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="L113" s="120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="L114" s="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="117" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="118" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C118" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D118" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="51" t="s">
+      <c r="E118" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="4" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C119" s="3">
         <v>11</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D119" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E119" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1578,6 +1578,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1835,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2258,12 +2259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3190,8 +3185,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="104"/>
-      <c r="G65" s="105" t="s">
+      <c r="G65" s="91" t="s">
         <v>143</v>
       </c>
       <c r="H65" s="105" t="s">
@@ -5500,21 +5495,21 @@
       <c r="A66" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="148" t="s">
+      <c r="B66" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="C66" s="149" t="s">
+      <c r="C66" s="22" t="s">
         <v>467</v>
       </c>
       <c r="D66" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="150">
+      <c r="E66" s="148">
         <v>5</v>
       </c>
-      <c r="F66" s="150"/>
+      <c r="F66" s="148"/>
       <c r="G66" s="18" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>5</v>
@@ -5528,7 +5523,7 @@
       <c r="K66" s="92" t="s">
         <v>470</v>
       </c>
-      <c r="L66" s="151">
+      <c r="L66" s="149">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="473">
   <si>
     <t>[sku]</t>
   </si>
@@ -1437,6 +1437,12 @@
   </si>
   <si>
     <t>TID_POWERUP_COIN_THROW_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_hp</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_hp_free_revive</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2265,6 +2271,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2886,8 +2901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L114" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L116" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L116"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3183,10 +3198,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6944,41 +6959,41 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" s="130" t="s">
+      <c r="A105" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C105" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D105" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="131" t="s">
-        <v>247</v>
-      </c>
-      <c r="F105" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G105" s="132" t="s">
+      <c r="D105" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F105" s="141" t="s">
+        <v>154</v>
+      </c>
+      <c r="G105" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="H105" s="133" t="s">
+      <c r="H105" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="I105" s="135" t="s">
-        <v>264</v>
-      </c>
-      <c r="J105" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="K105" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="L105" s="133">
-        <v>3</v>
+      <c r="I105" s="150" t="s">
+        <v>282</v>
+      </c>
+      <c r="J105" s="151" t="s">
+        <v>309</v>
+      </c>
+      <c r="K105" s="151" t="s">
+        <v>310</v>
+      </c>
+      <c r="L105" s="142">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6986,7 +7001,7 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C106" s="130" t="s">
         <v>97</v>
@@ -6995,25 +7010,25 @@
         <v>100</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G106" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="132" t="s">
         <v>143</v>
       </c>
       <c r="H106" s="133" t="s">
         <v>35</v>
       </c>
       <c r="I106" s="135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J106" s="122" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K106" s="122" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -7024,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" s="130" t="s">
         <v>97</v>
@@ -7033,10 +7048,10 @@
         <v>100</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G107" s="133" t="s">
         <v>143</v>
@@ -7045,13 +7060,13 @@
         <v>35</v>
       </c>
       <c r="I107" s="135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J107" s="122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K107" s="122" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7062,7 +7077,7 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" s="130" t="s">
         <v>97</v>
@@ -7071,10 +7086,10 @@
         <v>100</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="G108" s="133" t="s">
         <v>143</v>
@@ -7083,13 +7098,13 @@
         <v>35</v>
       </c>
       <c r="I108" s="135" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J108" s="122" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K108" s="122" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7100,7 +7115,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" s="130" t="s">
         <v>97</v>
@@ -7109,10 +7124,10 @@
         <v>100</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G109" s="133" t="s">
         <v>143</v>
@@ -7121,13 +7136,13 @@
         <v>35</v>
       </c>
       <c r="I109" s="135" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J109" s="122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K109" s="122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7138,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="130" t="s">
         <v>97</v>
@@ -7147,10 +7162,10 @@
         <v>100</v>
       </c>
       <c r="E110" s="131" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F110" s="131" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G110" s="133" t="s">
         <v>143</v>
@@ -7159,13 +7174,13 @@
         <v>35</v>
       </c>
       <c r="I110" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="J110" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="K110" s="136" t="s">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="J110" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="K110" s="122" t="s">
+        <v>278</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7175,8 +7190,8 @@
       <c r="A111" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="129" t="s">
-        <v>147</v>
+      <c r="B111" s="134" t="s">
+        <v>164</v>
       </c>
       <c r="C111" s="130" t="s">
         <v>97</v>
@@ -7184,11 +7199,11 @@
       <c r="D111" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E111" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="F111" s="137" t="s">
-        <v>146</v>
+      <c r="E111" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="131" t="s">
+        <v>181</v>
       </c>
       <c r="G111" s="133" t="s">
         <v>143</v>
@@ -7196,14 +7211,14 @@
       <c r="H111" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I111" s="138" t="s">
-        <v>282</v>
-      </c>
-      <c r="J111" s="139" t="s">
-        <v>283</v>
-      </c>
-      <c r="K111" s="139" t="s">
-        <v>284</v>
+      <c r="I111" s="135" t="s">
+        <v>279</v>
+      </c>
+      <c r="J111" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="K111" s="136" t="s">
+        <v>281</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7213,8 +7228,8 @@
       <c r="A112" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="134" t="s">
-        <v>296</v>
+      <c r="B112" s="129" t="s">
+        <v>147</v>
       </c>
       <c r="C112" s="130" t="s">
         <v>97</v>
@@ -7222,11 +7237,11 @@
       <c r="D112" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="E112" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="F112" s="131" t="s">
-        <v>157</v>
+      <c r="E112" s="137" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="137" t="s">
+        <v>146</v>
       </c>
       <c r="G112" s="133" t="s">
         <v>143</v>
@@ -7234,14 +7249,14 @@
       <c r="H112" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I112" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="J112" s="122" t="s">
-        <v>299</v>
-      </c>
-      <c r="K112" s="122" t="s">
-        <v>300</v>
+      <c r="I112" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="J112" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="K112" s="139" t="s">
+        <v>284</v>
       </c>
       <c r="L112" s="133">
         <v>3</v>
@@ -7252,7 +7267,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="134" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C113" s="130" t="s">
         <v>97</v>
@@ -7261,10 +7276,10 @@
         <v>100</v>
       </c>
       <c r="E113" s="131" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="F113" s="131" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G113" s="133" t="s">
         <v>143</v>
@@ -7273,100 +7288,176 @@
         <v>35</v>
       </c>
       <c r="I113" s="135" t="s">
+        <v>298</v>
+      </c>
+      <c r="J113" s="122" t="s">
+        <v>299</v>
+      </c>
+      <c r="K113" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="L113" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="134" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="G114" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="H114" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="135" t="s">
         <v>302</v>
       </c>
-      <c r="J113" s="136" t="s">
+      <c r="J114" s="136" t="s">
         <v>303</v>
       </c>
-      <c r="K113" s="136" t="s">
+      <c r="K114" s="136" t="s">
         <v>304</v>
       </c>
-      <c r="L113" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="143" t="s">
+      <c r="L114" s="133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="143" t="s">
         <v>305</v>
       </c>
-      <c r="C114" s="126" t="s">
+      <c r="C115" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D114" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="144" t="s">
+      <c r="D115" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="F114" s="144" t="s">
+      <c r="F115" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="G114" s="120" t="s">
+      <c r="G115" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="H114" s="120" t="s">
+      <c r="H115" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="I114" s="145" t="s">
+      <c r="I115" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="J114" s="145" t="s">
+      <c r="J115" s="145" t="s">
         <v>307</v>
       </c>
-      <c r="K114" s="145" t="s">
+      <c r="K115" s="145" t="s">
         <v>308</v>
       </c>
-      <c r="L114" s="120">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+      <c r="L115" s="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="143" t="s">
+        <v>472</v>
+      </c>
+      <c r="C116" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="144" t="s">
+        <v>471</v>
+      </c>
+      <c r="F116" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="G116" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="H116" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="152" t="s">
+        <v>306</v>
+      </c>
+      <c r="J116" s="152" t="s">
+        <v>307</v>
+      </c>
+      <c r="K116" s="152" t="s">
+        <v>308</v>
+      </c>
+      <c r="L116" s="120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="118" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="120" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="50" t="s">
+      <c r="C120" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D120" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E118" s="51" t="s">
+      <c r="E120" s="51" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" s="4" t="s">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C121" s="3">
         <v>11</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D121" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E121" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -44,9 +44,6 @@
     <t>icon_score</t>
   </si>
   <si>
-    <t>coins</t>
-  </si>
-  <si>
     <t>dive</t>
   </si>
   <si>
@@ -1437,6 +1434,9 @@
   </si>
   <si>
     <t>TID_POWERUP_COIN_THROW_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>coins_better</t>
   </si>
 </sst>
 </file>
@@ -3185,8 +3185,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3219,15 +3219,15 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -3236,31 +3236,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3268,32 +3268,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>313</v>
       </c>
       <c r="L4" s="18">
         <v>0</v>
@@ -3304,32 +3304,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="17">
         <v>5</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>315</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -3340,32 +3340,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -3376,32 +3376,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="17">
         <v>10</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>320</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
@@ -3412,32 +3412,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="17">
         <v>50</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -3448,32 +3448,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -3484,32 +3484,32 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>326</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>327</v>
       </c>
       <c r="L10" s="18">
         <v>0</v>
@@ -3520,34 +3520,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="L11" s="18">
         <v>0</v>
@@ -3558,34 +3558,34 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>332</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -3596,34 +3596,34 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="23">
         <v>10</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -3634,32 +3634,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="27">
         <v>5</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -3670,32 +3670,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="17">
         <v>-50</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3709,29 +3709,29 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="17">
         <v>20</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
@@ -3742,32 +3742,32 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="17">
         <v>-10</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3778,32 +3778,32 @@
         <v>3</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="23">
         <v>10</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>348</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
@@ -3814,34 +3814,34 @@
         <v>3</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>350</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>351</v>
       </c>
       <c r="L19" s="41">
         <v>0</v>
@@ -3852,34 +3852,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F20" s="39">
         <v>30</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="29" t="s">
         <v>353</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>354</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -3890,34 +3890,34 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="39">
         <v>30</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="29" t="s">
         <v>356</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>357</v>
       </c>
       <c r="L21" s="18">
         <v>0</v>
@@ -3928,34 +3928,34 @@
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="F22" s="39">
         <v>30</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="29" t="s">
         <v>359</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>360</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3966,32 +3966,32 @@
         <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="17">
         <v>100</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="29" t="s">
         <v>362</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>363</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -4002,34 +4002,34 @@
         <v>3</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24" s="17">
         <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I24" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
@@ -4040,32 +4040,32 @@
         <v>3</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="56">
         <v>-50</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="K25" s="60" t="s">
         <v>368</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>369</v>
       </c>
       <c r="L25" s="57">
         <v>0</v>
@@ -4076,32 +4076,32 @@
         <v>3</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="56">
         <v>-30</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I26" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="K26" s="60" t="s">
         <v>371</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>372</v>
       </c>
       <c r="L26" s="57">
         <v>0</v>
@@ -4112,34 +4112,34 @@
         <v>3</v>
       </c>
       <c r="B27" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E27" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>96</v>
-      </c>
       <c r="G27" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="K27" s="60" t="s">
         <v>374</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>375</v>
       </c>
       <c r="L27" s="57">
         <v>0</v>
@@ -4150,34 +4150,34 @@
         <v>3</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>134</v>
-      </c>
       <c r="G28" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I28" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="29" t="s">
         <v>377</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>378</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -4188,34 +4188,34 @@
         <v>3</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="K29" s="20" t="s">
         <v>380</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
@@ -4226,34 +4226,34 @@
         <v>3</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="F30" s="17">
         <v>1</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="K30" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4264,30 +4264,30 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4298,32 +4298,32 @@
         <v>3</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>388</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>389</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4334,32 +4334,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="17">
         <v>11</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="K33" s="20" t="s">
         <v>391</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>392</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4370,32 +4370,32 @@
         <v>3</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="17">
         <v>12</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="K34" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>395</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
@@ -4406,13 +4406,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="17">
         <v>1</v>
@@ -4421,19 +4421,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
@@ -4444,32 +4444,32 @@
         <v>3</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="17">
         <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I36" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4480,32 +4480,32 @@
         <v>3</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" s="17">
         <v>1</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -4516,32 +4516,32 @@
         <v>3</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="K38" s="20" t="s">
         <v>406</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>407</v>
       </c>
       <c r="L38" s="18">
         <v>0</v>
@@ -4552,32 +4552,32 @@
         <v>3</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I39" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="29" t="s">
         <v>409</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>410</v>
       </c>
       <c r="L39" s="28">
         <v>0</v>
@@ -4588,32 +4588,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="30">
         <v>1</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="J40" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="K40" s="33" t="s">
         <v>412</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>413</v>
       </c>
       <c r="L40" s="28">
         <v>0</v>
@@ -4624,32 +4624,32 @@
         <v>3</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" s="17">
         <v>1</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>416</v>
       </c>
       <c r="L41" s="18">
         <v>0</v>
@@ -4660,32 +4660,32 @@
         <v>3</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="30">
         <v>100</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="J42" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="K42" s="33" t="s">
         <v>418</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>419</v>
       </c>
       <c r="L42" s="28">
         <v>0</v>
@@ -4696,32 +4696,32 @@
         <v>3</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="30">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="K43" s="33" t="s">
         <v>421</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>422</v>
       </c>
       <c r="L43" s="28">
         <v>0</v>
@@ -4732,32 +4732,32 @@
         <v>3</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="17">
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I44" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="K44" s="29" t="s">
         <v>424</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>425</v>
       </c>
       <c r="L44" s="18">
         <v>0</v>
@@ -4768,32 +4768,32 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="29" t="s">
         <v>427</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>428</v>
       </c>
       <c r="L45" s="18">
         <v>0</v>
@@ -4804,30 +4804,30 @@
         <v>3</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I46" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="29" t="s">
         <v>430</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>431</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
@@ -4838,30 +4838,30 @@
         <v>3</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I47" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="29" t="s">
         <v>433</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>434</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
@@ -4872,30 +4872,30 @@
         <v>3</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="29" t="s">
         <v>436</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>437</v>
       </c>
       <c r="L48" s="28">
         <v>0</v>
@@ -4906,30 +4906,30 @@
         <v>3</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="K49" s="49" t="s">
         <v>439</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>440</v>
       </c>
       <c r="L49" s="46">
         <v>0</v>
@@ -4940,30 +4940,30 @@
         <v>3</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I50" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="J50" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="K50" s="49" t="s">
         <v>442</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>443</v>
       </c>
       <c r="L50" s="46">
         <v>0</v>
@@ -4974,30 +4974,30 @@
         <v>3</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I51" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="J51" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="J51" s="48" t="s">
+      <c r="K51" s="49" t="s">
         <v>445</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>446</v>
       </c>
       <c r="L51" s="46">
         <v>0</v>
@@ -5008,30 +5008,30 @@
         <v>3</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="K52" s="29" t="s">
         <v>448</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>449</v>
       </c>
       <c r="L52" s="28">
         <v>0</v>
@@ -5042,30 +5042,30 @@
         <v>3</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="61" t="s">
+      <c r="J53" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="K53" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L53" s="61">
         <v>0</v>
@@ -5076,13 +5076,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="17">
         <v>1</v>
@@ -5091,19 +5091,19 @@
         <v>1</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="K54" s="29" t="s">
         <v>451</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>452</v>
       </c>
       <c r="L54" s="28">
         <v>0</v>
@@ -5114,13 +5114,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -5129,19 +5129,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I55" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="K55" s="29" t="s">
         <v>454</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>455</v>
       </c>
       <c r="L55" s="28">
         <v>0</v>
@@ -5152,32 +5152,32 @@
         <v>3</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="56">
         <v>4</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I56" s="58" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" s="59" t="s">
         <v>456</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="K56" s="60" t="s">
         <v>457</v>
-      </c>
-      <c r="K56" s="60" t="s">
-        <v>458</v>
       </c>
       <c r="L56" s="57">
         <v>0</v>
@@ -5188,30 +5188,30 @@
         <v>3</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I57" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="K57" s="71" t="s">
         <v>106</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>107</v>
       </c>
       <c r="L57" s="68">
         <v>0</v>
@@ -5222,30 +5222,30 @@
         <v>3</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D58" s="147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
       <c r="G58" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I58" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="K58" s="71" t="s">
         <v>109</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>110</v>
       </c>
       <c r="L58" s="68">
         <v>0</v>
@@ -5256,30 +5256,30 @@
         <v>3</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I59" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="J59" s="77" t="s">
+      <c r="K59" s="78" t="s">
         <v>112</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>113</v>
       </c>
       <c r="L59" s="75">
         <v>0</v>
@@ -5290,30 +5290,30 @@
         <v>3</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E60" s="83"/>
       <c r="F60" s="83"/>
       <c r="G60" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I60" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="J60" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="J60" s="86" t="s">
+      <c r="K60" s="86" t="s">
         <v>116</v>
-      </c>
-      <c r="K60" s="86" t="s">
-        <v>117</v>
       </c>
       <c r="L60" s="84">
         <v>0</v>
@@ -5324,30 +5324,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
       <c r="G61" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61" s="91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I61" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="J61" s="92" t="s">
+      <c r="K61" s="92" t="s">
         <v>123</v>
-      </c>
-      <c r="K61" s="92" t="s">
-        <v>124</v>
       </c>
       <c r="L61" s="91">
         <v>0</v>
@@ -5358,30 +5358,30 @@
         <v>3</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
       <c r="G62" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I62" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="J62" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="J62" s="92" t="s">
+      <c r="K62" s="92" t="s">
         <v>126</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>127</v>
       </c>
       <c r="L62" s="91">
         <v>0</v>
@@ -5392,30 +5392,30 @@
         <v>3</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63" s="93"/>
       <c r="F63" s="93"/>
       <c r="G63" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H63" s="91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I63" s="92" t="s">
+        <v>458</v>
+      </c>
+      <c r="J63" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="J63" s="94" t="s">
+      <c r="K63" s="95" t="s">
         <v>460</v>
-      </c>
-      <c r="K63" s="95" t="s">
-        <v>461</v>
       </c>
       <c r="L63" s="91">
         <v>0</v>
@@ -5426,30 +5426,30 @@
         <v>3</v>
       </c>
       <c r="B64" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E64" s="96"/>
       <c r="F64" s="96"/>
       <c r="G64" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H64" s="91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I64" s="97" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" s="98" t="s">
         <v>462</v>
       </c>
-      <c r="J64" s="98" t="s">
+      <c r="K64" s="99" t="s">
         <v>463</v>
-      </c>
-      <c r="K64" s="99" t="s">
-        <v>464</v>
       </c>
       <c r="L64" s="91">
         <v>0</v>
@@ -5460,32 +5460,32 @@
         <v>3</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C65" s="103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="104">
         <v>1</v>
       </c>
       <c r="F65" s="104"/>
       <c r="G65" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H65" s="105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I65" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="J65" s="106" t="s">
+      <c r="K65" s="106" t="s">
         <v>129</v>
-      </c>
-      <c r="K65" s="106" t="s">
-        <v>130</v>
       </c>
       <c r="L65" s="105">
         <v>0</v>
@@ -5496,32 +5496,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>467</v>
-      </c>
       <c r="D66" s="89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E66" s="148">
         <v>5</v>
       </c>
       <c r="F66" s="148"/>
       <c r="G66" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" s="92" t="s">
         <v>468</v>
       </c>
-      <c r="J66" s="92" t="s">
+      <c r="K66" s="92" t="s">
         <v>469</v>
-      </c>
-      <c r="K66" s="92" t="s">
-        <v>470</v>
       </c>
       <c r="L66" s="149">
         <v>0</v>
@@ -5532,32 +5532,32 @@
         <v>3</v>
       </c>
       <c r="B67" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" s="119">
         <v>150</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H67" s="120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I67" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="J67" s="122" t="s">
-        <v>168</v>
-      </c>
       <c r="K67" s="122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L67" s="120">
         <v>1</v>
@@ -5568,32 +5568,32 @@
         <v>3</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C68" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" s="119">
         <v>70</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H68" s="120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I68" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="J68" s="122" t="s">
-        <v>168</v>
-      </c>
       <c r="K68" s="122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L68" s="120">
         <v>1</v>
@@ -5604,32 +5604,32 @@
         <v>3</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E69" s="119">
         <v>100</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H69" s="120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I69" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="J69" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="J69" s="122" t="s">
-        <v>171</v>
-      </c>
       <c r="K69" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L69" s="120">
         <v>1</v>
@@ -5640,32 +5640,32 @@
         <v>3</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C70" s="118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" s="119">
         <v>75</v>
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H70" s="120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I70" s="121" t="s">
+        <v>169</v>
+      </c>
+      <c r="J70" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="J70" s="122" t="s">
-        <v>171</v>
-      </c>
       <c r="K70" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L70" s="120">
         <v>1</v>
@@ -5676,32 +5676,32 @@
         <v>3</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C71" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D71" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E71" s="119">
         <v>50</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H71" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I71" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="J71" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="J71" s="122" t="s">
-        <v>174</v>
-      </c>
       <c r="K71" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L71" s="120">
         <v>1</v>
@@ -5712,32 +5712,32 @@
         <v>3</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E72" s="119">
         <v>30</v>
       </c>
       <c r="F72" s="119"/>
       <c r="G72" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I72" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" s="122" t="s">
         <v>173</v>
       </c>
-      <c r="J72" s="122" t="s">
-        <v>174</v>
-      </c>
       <c r="K72" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L72" s="120">
         <v>1</v>
@@ -5748,30 +5748,30 @@
         <v>3</v>
       </c>
       <c r="B73" s="123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C73" s="118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E73" s="119"/>
       <c r="F73" s="119"/>
       <c r="G73" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H73" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I73" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="J73" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="J73" s="122" t="s">
-        <v>178</v>
-      </c>
       <c r="K73" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L73" s="120">
         <v>1</v>
@@ -5782,32 +5782,32 @@
         <v>3</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" s="118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E74" s="119">
         <v>25</v>
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H74" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I74" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="J74" s="122" t="s">
-        <v>180</v>
-      </c>
       <c r="K74" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L74" s="120">
         <v>1</v>
@@ -5818,32 +5818,32 @@
         <v>3</v>
       </c>
       <c r="B75" s="123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C75" s="118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="119">
         <v>15</v>
       </c>
       <c r="F75" s="119"/>
       <c r="G75" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H75" s="120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I75" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="J75" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="J75" s="122" t="s">
-        <v>180</v>
-      </c>
       <c r="K75" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L75" s="120">
         <v>1</v>
@@ -5854,34 +5854,34 @@
         <v>3</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D76" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E76" s="119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F76" s="119">
         <v>100</v>
       </c>
       <c r="G76" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H76" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I76" s="121" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="J76" s="122" t="s">
+      <c r="K76" s="122" t="s">
         <v>183</v>
-      </c>
-      <c r="K76" s="122" t="s">
-        <v>184</v>
       </c>
       <c r="L76" s="120">
         <v>1</v>
@@ -5892,34 +5892,34 @@
         <v>3</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E77" s="119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F77" s="119">
         <v>50</v>
       </c>
       <c r="G77" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H77" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I77" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="J77" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="J77" s="122" t="s">
-        <v>186</v>
-      </c>
       <c r="K77" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L77" s="120">
         <v>1</v>
@@ -5930,34 +5930,34 @@
         <v>3</v>
       </c>
       <c r="B78" s="123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E78" s="119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F78" s="119">
         <v>35</v>
       </c>
       <c r="G78" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78" s="122" t="s">
         <v>185</v>
       </c>
-      <c r="J78" s="122" t="s">
-        <v>186</v>
-      </c>
       <c r="K78" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L78" s="120">
         <v>1</v>
@@ -5968,32 +5968,32 @@
         <v>3</v>
       </c>
       <c r="B79" s="125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" s="126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E79" s="127">
         <v>50</v>
       </c>
       <c r="F79" s="127"/>
       <c r="G79" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H79" s="120" t="s">
         <v>5</v>
       </c>
       <c r="I79" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="J79" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="J79" s="122" t="s">
-        <v>189</v>
-      </c>
       <c r="K79" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L79" s="120">
         <v>1</v>
@@ -6004,32 +6004,32 @@
         <v>3</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E80" s="119">
         <v>25</v>
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H80" s="120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I80" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="J80" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="J80" s="122" t="s">
-        <v>191</v>
-      </c>
       <c r="K80" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L80" s="120">
         <v>1</v>
@@ -6040,32 +6040,32 @@
         <v>3</v>
       </c>
       <c r="B81" s="123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" s="118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D81" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81" s="119">
         <v>15</v>
       </c>
       <c r="F81" s="119"/>
       <c r="G81" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H81" s="120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I81" s="121" t="s">
+        <v>189</v>
+      </c>
+      <c r="J81" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="J81" s="122" t="s">
-        <v>191</v>
-      </c>
       <c r="K81" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L81" s="120">
         <v>1</v>
@@ -6076,32 +6076,32 @@
         <v>3</v>
       </c>
       <c r="B82" s="129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E82" s="131">
         <v>20</v>
       </c>
       <c r="F82" s="131"/>
       <c r="G82" s="132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H82" s="133" t="s">
         <v>5</v>
       </c>
       <c r="I82" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="J82" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="J82" s="122" t="s">
-        <v>194</v>
-      </c>
       <c r="K82" s="122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L82" s="133">
         <v>1</v>
@@ -6112,34 +6112,34 @@
         <v>3</v>
       </c>
       <c r="B83" s="109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="C83" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="114" t="s">
+      <c r="J83" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="115" t="s">
+      <c r="K83" s="115" t="s">
         <v>197</v>
-      </c>
-      <c r="K83" s="115" t="s">
-        <v>198</v>
       </c>
       <c r="L83" s="113">
         <v>2</v>
@@ -6150,34 +6150,34 @@
         <v>3</v>
       </c>
       <c r="B84" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="F84" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="J84" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G84" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H84" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="J84" s="115" t="s">
+      <c r="K84" s="115" t="s">
         <v>200</v>
-      </c>
-      <c r="K84" s="115" t="s">
-        <v>201</v>
       </c>
       <c r="L84" s="113">
         <v>2</v>
@@ -6188,34 +6188,34 @@
         <v>3</v>
       </c>
       <c r="B85" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="F85" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="C85" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G85" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="114" t="s">
+      <c r="J85" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="J85" s="115" t="s">
+      <c r="K85" s="115" t="s">
         <v>204</v>
-      </c>
-      <c r="K85" s="115" t="s">
-        <v>205</v>
       </c>
       <c r="L85" s="113">
         <v>2</v>
@@ -6226,34 +6226,34 @@
         <v>3</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G86" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H86" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I86" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="J86" s="115" t="s">
+      <c r="K86" s="115" t="s">
         <v>207</v>
-      </c>
-      <c r="K86" s="115" t="s">
-        <v>208</v>
       </c>
       <c r="L86" s="113">
         <v>2</v>
@@ -6264,34 +6264,34 @@
         <v>3</v>
       </c>
       <c r="B87" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F87" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F87" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G87" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H87" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="114" t="s">
+      <c r="J87" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="J87" s="115" t="s">
+      <c r="K87" s="115" t="s">
         <v>211</v>
-      </c>
-      <c r="K87" s="115" t="s">
-        <v>212</v>
       </c>
       <c r="L87" s="113">
         <v>2</v>
@@ -6302,34 +6302,34 @@
         <v>3</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C88" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G88" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H88" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I88" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="J88" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="J88" s="115" t="s">
+      <c r="K88" s="115" t="s">
         <v>214</v>
-      </c>
-      <c r="K88" s="115" t="s">
-        <v>215</v>
       </c>
       <c r="L88" s="113">
         <v>2</v>
@@ -6340,34 +6340,34 @@
         <v>3</v>
       </c>
       <c r="B89" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E89" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F89" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H89" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="114" t="s">
+      <c r="J89" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="J89" s="115" t="s">
+      <c r="K89" s="115" t="s">
         <v>218</v>
-      </c>
-      <c r="K89" s="115" t="s">
-        <v>219</v>
       </c>
       <c r="L89" s="113">
         <v>2</v>
@@ -6378,34 +6378,34 @@
         <v>3</v>
       </c>
       <c r="B90" s="109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="F90" s="112" t="s">
-        <v>154</v>
-      </c>
       <c r="G90" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H90" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I90" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J90" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="J90" s="115" t="s">
+      <c r="K90" s="115" t="s">
         <v>221</v>
-      </c>
-      <c r="K90" s="115" t="s">
-        <v>222</v>
       </c>
       <c r="L90" s="113">
         <v>2</v>
@@ -6416,34 +6416,34 @@
         <v>3</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F91" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="F91" s="112" t="s">
-        <v>145</v>
-      </c>
       <c r="G91" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H91" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="J91" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="J91" s="115" t="s">
+      <c r="K91" s="115" t="s">
         <v>224</v>
-      </c>
-      <c r="K91" s="115" t="s">
-        <v>225</v>
       </c>
       <c r="L91" s="113">
         <v>2</v>
@@ -6454,34 +6454,34 @@
         <v>3</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G92" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H92" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="J92" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="J92" s="115" t="s">
+      <c r="K92" s="115" t="s">
         <v>224</v>
-      </c>
-      <c r="K92" s="115" t="s">
-        <v>225</v>
       </c>
       <c r="L92" s="113">
         <v>2</v>
@@ -6492,34 +6492,34 @@
         <v>3</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C93" s="111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D93" s="110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G93" s="113" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I93" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="J93" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="J93" s="115" t="s">
+      <c r="K93" s="115" t="s">
         <v>227</v>
-      </c>
-      <c r="K93" s="115" t="s">
-        <v>228</v>
       </c>
       <c r="L93" s="113">
         <v>2</v>
@@ -6530,34 +6530,34 @@
         <v>3</v>
       </c>
       <c r="B94" s="109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="F94" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="C94" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F94" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="G94" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H94" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I94" s="114" t="s">
+      <c r="J94" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="J94" s="115" t="s">
+      <c r="K94" s="115" t="s">
         <v>231</v>
-      </c>
-      <c r="K94" s="115" t="s">
-        <v>232</v>
       </c>
       <c r="L94" s="113">
         <v>2</v>
@@ -6568,34 +6568,34 @@
         <v>3</v>
       </c>
       <c r="B95" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="J95" s="115" t="s">
         <v>233</v>
       </c>
-      <c r="C95" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="G95" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H95" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="J95" s="115" t="s">
+      <c r="K95" s="115" t="s">
         <v>234</v>
-      </c>
-      <c r="K95" s="115" t="s">
-        <v>235</v>
       </c>
       <c r="L95" s="113">
         <v>2</v>
@@ -6606,34 +6606,34 @@
         <v>3</v>
       </c>
       <c r="B96" s="109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G96" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="C96" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="F96" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G96" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="114" t="s">
+      <c r="J96" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="J96" s="115" t="s">
+      <c r="K96" s="115" t="s">
         <v>238</v>
-      </c>
-      <c r="K96" s="115" t="s">
-        <v>239</v>
       </c>
       <c r="L96" s="113">
         <v>2</v>
@@ -6644,34 +6644,34 @@
         <v>3</v>
       </c>
       <c r="B97" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="J97" s="115" t="s">
         <v>240</v>
       </c>
-      <c r="C97" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="F97" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H97" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="J97" s="115" t="s">
+      <c r="K97" s="115" t="s">
         <v>241</v>
-      </c>
-      <c r="K97" s="115" t="s">
-        <v>242</v>
       </c>
       <c r="L97" s="113">
         <v>2</v>
@@ -6682,34 +6682,34 @@
         <v>3</v>
       </c>
       <c r="B98" s="109" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H98" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I98" s="114" t="s">
         <v>243</v>
       </c>
-      <c r="C98" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="F98" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H98" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="114" t="s">
+      <c r="J98" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="J98" s="115" t="s">
+      <c r="K98" s="115" t="s">
         <v>245</v>
-      </c>
-      <c r="K98" s="115" t="s">
-        <v>246</v>
       </c>
       <c r="L98" s="113">
         <v>2</v>
@@ -6720,34 +6720,34 @@
         <v>3</v>
       </c>
       <c r="B99" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="114" t="s">
+        <v>243</v>
+      </c>
+      <c r="J99" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="C99" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="F99" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G99" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="J99" s="115" t="s">
+      <c r="K99" s="115" t="s">
         <v>248</v>
-      </c>
-      <c r="K99" s="115" t="s">
-        <v>249</v>
       </c>
       <c r="L99" s="113">
         <v>2</v>
@@ -6758,34 +6758,34 @@
         <v>3</v>
       </c>
       <c r="B100" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H100" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="C100" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F100" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H100" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="114" t="s">
+      <c r="J100" s="115" t="s">
         <v>251</v>
       </c>
-      <c r="J100" s="115" t="s">
+      <c r="K100" s="115" t="s">
         <v>252</v>
-      </c>
-      <c r="K100" s="115" t="s">
-        <v>253</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
@@ -6796,34 +6796,34 @@
         <v>3</v>
       </c>
       <c r="B101" s="109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F101" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="G101" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="J101" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="F101" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H101" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="J101" s="115" t="s">
+      <c r="K101" s="115" t="s">
         <v>255</v>
-      </c>
-      <c r="K101" s="115" t="s">
-        <v>256</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
@@ -6834,34 +6834,34 @@
         <v>3</v>
       </c>
       <c r="B102" s="109" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="114" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F102" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="114" t="s">
+      <c r="J102" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="J102" s="115" t="s">
+      <c r="K102" s="115" t="s">
         <v>259</v>
-      </c>
-      <c r="K102" s="115" t="s">
-        <v>260</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
@@ -6872,34 +6872,34 @@
         <v>3</v>
       </c>
       <c r="B103" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="F103" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="G103" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="114" t="s">
+        <v>257</v>
+      </c>
+      <c r="J103" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="C103" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F103" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="G103" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H103" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="J103" s="115" t="s">
+      <c r="K103" s="115" t="s">
         <v>262</v>
-      </c>
-      <c r="K103" s="115" t="s">
-        <v>263</v>
       </c>
       <c r="L103" s="113">
         <v>2</v>
@@ -6910,34 +6910,34 @@
         <v>3</v>
       </c>
       <c r="B104" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C104" s="140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E104" s="141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F104" s="141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G104" s="142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H104" s="142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I104" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J104" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="K104" s="20" t="s">
         <v>309</v>
-      </c>
-      <c r="K104" s="20" t="s">
-        <v>310</v>
       </c>
       <c r="L104" s="142">
         <v>2</v>
@@ -6948,34 +6948,34 @@
         <v>3</v>
       </c>
       <c r="B105" s="134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C105" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F105" s="131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G105" s="132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H105" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I105" s="135" t="s">
+        <v>263</v>
+      </c>
+      <c r="J105" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="J105" s="122" t="s">
+      <c r="K105" s="122" t="s">
         <v>265</v>
-      </c>
-      <c r="K105" s="122" t="s">
-        <v>266</v>
       </c>
       <c r="L105" s="133">
         <v>3</v>
@@ -6986,34 +6986,34 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D106" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G106" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H106" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I106" s="135" t="s">
+        <v>266</v>
+      </c>
+      <c r="J106" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="J106" s="122" t="s">
+      <c r="K106" s="122" t="s">
         <v>268</v>
-      </c>
-      <c r="K106" s="122" t="s">
-        <v>269</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -7024,34 +7024,34 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G107" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H107" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I107" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="J107" s="122" t="s">
         <v>270</v>
       </c>
-      <c r="J107" s="122" t="s">
+      <c r="K107" s="122" t="s">
         <v>271</v>
-      </c>
-      <c r="K107" s="122" t="s">
-        <v>272</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7062,34 +7062,34 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G108" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H108" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I108" s="135" t="s">
+        <v>272</v>
+      </c>
+      <c r="J108" s="122" t="s">
         <v>273</v>
       </c>
-      <c r="J108" s="122" t="s">
+      <c r="K108" s="122" t="s">
         <v>274</v>
-      </c>
-      <c r="K108" s="122" t="s">
-        <v>275</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7100,34 +7100,34 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D109" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G109" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H109" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I109" s="135" t="s">
+        <v>275</v>
+      </c>
+      <c r="J109" s="122" t="s">
         <v>276</v>
       </c>
-      <c r="J109" s="122" t="s">
+      <c r="K109" s="122" t="s">
         <v>277</v>
-      </c>
-      <c r="K109" s="122" t="s">
-        <v>278</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7138,34 +7138,34 @@
         <v>3</v>
       </c>
       <c r="B110" s="134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D110" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E110" s="131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F110" s="131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G110" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H110" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I110" s="135" t="s">
+        <v>278</v>
+      </c>
+      <c r="J110" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="J110" s="136" t="s">
+      <c r="K110" s="136" t="s">
         <v>280</v>
-      </c>
-      <c r="K110" s="136" t="s">
-        <v>281</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7176,34 +7176,34 @@
         <v>3</v>
       </c>
       <c r="B111" s="129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E111" s="137" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F111" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G111" s="133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H111" s="133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I111" s="138" t="s">
+        <v>281</v>
+      </c>
+      <c r="J111" s="139" t="s">
         <v>282</v>
       </c>
-      <c r="J111" s="139" t="s">
+      <c r="K111" s="139" t="s">
         <v>283</v>
-      </c>
-      <c r="K111" s="139" t="s">
-        <v>284</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7214,34 +7214,34 @@
         <v>3</v>
       </c>
       <c r="B112" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="C112" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="131" t="s">
+      <c r="F112" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="G112" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="F112" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="G112" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H112" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="135" t="s">
+      <c r="J112" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="J112" s="122" t="s">
+      <c r="K112" s="122" t="s">
         <v>299</v>
-      </c>
-      <c r="K112" s="122" t="s">
-        <v>300</v>
       </c>
       <c r="L112" s="133">
         <v>3</v>
@@ -7252,34 +7252,34 @@
         <v>3</v>
       </c>
       <c r="B113" s="134" t="s">
+        <v>300</v>
+      </c>
+      <c r="C113" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" s="131" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="135" t="s">
         <v>301</v>
       </c>
-      <c r="C113" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="131" t="s">
-        <v>151</v>
-      </c>
-      <c r="G113" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H113" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="135" t="s">
+      <c r="J113" s="136" t="s">
         <v>302</v>
       </c>
-      <c r="J113" s="136" t="s">
+      <c r="K113" s="136" t="s">
         <v>303</v>
-      </c>
-      <c r="K113" s="136" t="s">
-        <v>304</v>
       </c>
       <c r="L113" s="133">
         <v>3</v>
@@ -7290,34 +7290,34 @@
         <v>3</v>
       </c>
       <c r="B114" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="E114" s="144" t="s">
+        <v>154</v>
+      </c>
+      <c r="F114" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="G114" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="H114" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="I114" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="C114" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="144" t="s">
-        <v>155</v>
-      </c>
-      <c r="F114" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G114" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="H114" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="145" t="s">
+      <c r="J114" s="145" t="s">
         <v>306</v>
       </c>
-      <c r="J114" s="145" t="s">
+      <c r="K114" s="145" t="s">
         <v>307</v>
-      </c>
-      <c r="K114" s="145" t="s">
-        <v>308</v>
       </c>
       <c r="L114" s="120">
         <v>3</v>
@@ -7326,7 +7326,7 @@
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7338,19 +7338,19 @@
     </row>
     <row r="118" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="E118" s="51" t="s">
         <v>91</v>
-      </c>
-      <c r="E118" s="51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7358,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C119" s="3">
         <v>11</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="472">
   <si>
     <t>[sku]</t>
   </si>
@@ -1437,6 +1437,9 @@
   </si>
   <si>
     <t>coins_better</t>
+  </si>
+  <si>
+    <t>dive_better</t>
   </si>
 </sst>
 </file>
@@ -3185,8 +3188,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -38,9 +38,6 @@
     <t>&lt;Definition&gt;</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>icon_score</t>
   </si>
   <si>
@@ -1440,6 +1437,9 @@
   </si>
   <si>
     <t>dive_better</t>
+  </si>
+  <si>
+    <t>score_better</t>
   </si>
 </sst>
 </file>
@@ -3188,8 +3188,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,7 +3209,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3222,15 +3222,15 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" s="101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -3239,31 +3239,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3271,32 +3271,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>311</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>312</v>
       </c>
       <c r="L4" s="18">
         <v>0</v>
@@ -3307,32 +3307,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="17">
         <v>5</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>313</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>314</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -3343,32 +3343,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>317</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -3379,32 +3379,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="17">
         <v>10</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>319</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
@@ -3415,32 +3415,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="17">
         <v>50</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -3451,32 +3451,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -3487,32 +3487,32 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="L10" s="18">
         <v>0</v>
@@ -3523,34 +3523,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="L11" s="18">
         <v>0</v>
@@ -3561,34 +3561,34 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>331</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -3599,34 +3599,34 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="23">
         <v>10</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -3637,32 +3637,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="27">
         <v>5</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>335</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>336</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -3673,32 +3673,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="17">
         <v>-50</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>339</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3709,32 +3709,32 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="17">
         <v>20</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>342</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
@@ -3745,32 +3745,32 @@
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="17">
         <v>-10</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3781,32 +3781,32 @@
         <v>3</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="23">
         <v>10</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I18" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
@@ -3817,34 +3817,34 @@
         <v>3</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>349</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>350</v>
       </c>
       <c r="L19" s="41">
         <v>0</v>
@@ -3855,34 +3855,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="39">
         <v>30</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="29" t="s">
         <v>352</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>353</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -3893,34 +3893,34 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>67</v>
       </c>
       <c r="F21" s="39">
         <v>30</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>356</v>
       </c>
       <c r="L21" s="18">
         <v>0</v>
@@ -3931,34 +3931,34 @@
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>69</v>
       </c>
       <c r="F22" s="39">
         <v>30</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>359</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3969,32 +3969,32 @@
         <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="17">
         <v>100</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -4005,34 +4005,34 @@
         <v>3</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="17">
         <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="29" t="s">
         <v>364</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>365</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
@@ -4043,32 +4043,32 @@
         <v>3</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="56">
         <v>-50</v>
       </c>
       <c r="F25" s="56"/>
       <c r="G25" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="K25" s="60" t="s">
         <v>367</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>368</v>
       </c>
       <c r="L25" s="57">
         <v>0</v>
@@ -4079,32 +4079,32 @@
         <v>3</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="56">
         <v>-30</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="K26" s="60" t="s">
         <v>370</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>371</v>
       </c>
       <c r="L26" s="57">
         <v>0</v>
@@ -4115,34 +4115,34 @@
         <v>3</v>
       </c>
       <c r="B27" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>95</v>
-      </c>
       <c r="G27" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H27" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" s="58" t="s">
+        <v>371</v>
+      </c>
+      <c r="J27" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="K27" s="60" t="s">
         <v>373</v>
-      </c>
-      <c r="K27" s="60" t="s">
-        <v>374</v>
       </c>
       <c r="L27" s="57">
         <v>0</v>
@@ -4153,34 +4153,34 @@
         <v>3</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="G28" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>377</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -4191,34 +4191,34 @@
         <v>3</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="K29" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>380</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
@@ -4229,34 +4229,34 @@
         <v>3</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="F30" s="17">
         <v>1</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="K30" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>383</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4267,30 +4267,30 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I31" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4301,32 +4301,32 @@
         <v>3</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>388</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4337,32 +4337,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="17">
         <v>11</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="K33" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>391</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4373,32 +4373,32 @@
         <v>3</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="17">
         <v>12</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="K34" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>394</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
@@ -4409,13 +4409,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="17">
         <v>1</v>
@@ -4424,19 +4424,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>396</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>397</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
@@ -4447,32 +4447,32 @@
         <v>3</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="17">
         <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I36" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>400</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4483,32 +4483,32 @@
         <v>3</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="17">
         <v>1</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>403</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -4519,32 +4519,32 @@
         <v>3</v>
       </c>
       <c r="B38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="K38" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>406</v>
       </c>
       <c r="L38" s="18">
         <v>0</v>
@@ -4555,32 +4555,32 @@
         <v>3</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="29" t="s">
         <v>408</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>409</v>
       </c>
       <c r="L39" s="28">
         <v>0</v>
@@ -4591,32 +4591,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="30">
         <v>1</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J40" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="K40" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>412</v>
       </c>
       <c r="L40" s="28">
         <v>0</v>
@@ -4627,32 +4627,32 @@
         <v>3</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="17">
         <v>1</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>414</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>415</v>
       </c>
       <c r="L41" s="18">
         <v>0</v>
@@ -4663,32 +4663,32 @@
         <v>3</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="30">
         <v>100</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="J42" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="K42" s="33" t="s">
         <v>417</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>418</v>
       </c>
       <c r="L42" s="28">
         <v>0</v>
@@ -4699,32 +4699,32 @@
         <v>3</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="30">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="K43" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>421</v>
       </c>
       <c r="L43" s="28">
         <v>0</v>
@@ -4735,32 +4735,32 @@
         <v>3</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" s="17">
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="K44" s="29" t="s">
         <v>423</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>424</v>
       </c>
       <c r="L44" s="18">
         <v>0</v>
@@ -4771,32 +4771,32 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I45" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="29" t="s">
         <v>426</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>427</v>
       </c>
       <c r="L45" s="18">
         <v>0</v>
@@ -4807,30 +4807,30 @@
         <v>3</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D46" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I46" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="29" t="s">
         <v>429</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>430</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
@@ -4841,30 +4841,30 @@
         <v>3</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="29" t="s">
         <v>432</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>433</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
@@ -4875,30 +4875,30 @@
         <v>3</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="29" t="s">
         <v>435</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>436</v>
       </c>
       <c r="L48" s="28">
         <v>0</v>
@@ -4909,30 +4909,30 @@
         <v>3</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="K49" s="49" t="s">
         <v>438</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>439</v>
       </c>
       <c r="L49" s="46">
         <v>0</v>
@@ -4943,30 +4943,30 @@
         <v>3</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="J50" s="48" t="s">
         <v>440</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="K50" s="49" t="s">
         <v>441</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>442</v>
       </c>
       <c r="L50" s="46">
         <v>0</v>
@@ -4977,30 +4977,30 @@
         <v>3</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="J51" s="48" t="s">
+      <c r="K51" s="49" t="s">
         <v>444</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>445</v>
       </c>
       <c r="L51" s="46">
         <v>0</v>
@@ -5011,30 +5011,30 @@
         <v>3</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="K52" s="29" t="s">
         <v>447</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>448</v>
       </c>
       <c r="L52" s="28">
         <v>0</v>
@@ -5045,30 +5045,30 @@
         <v>3</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="61" t="s">
+      <c r="J53" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="I53" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="K53" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L53" s="61">
         <v>0</v>
@@ -5079,13 +5079,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="17">
         <v>1</v>
@@ -5094,19 +5094,19 @@
         <v>1</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="K54" s="29" t="s">
         <v>450</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>451</v>
       </c>
       <c r="L54" s="28">
         <v>0</v>
@@ -5117,13 +5117,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -5132,19 +5132,19 @@
         <v>1</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I55" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="K55" s="29" t="s">
         <v>453</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>454</v>
       </c>
       <c r="L55" s="28">
         <v>0</v>
@@ -5155,32 +5155,32 @@
         <v>3</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="56">
         <v>4</v>
       </c>
       <c r="F56" s="56"/>
       <c r="G56" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H56" s="57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" s="58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="K56" s="60" t="s">
         <v>456</v>
-      </c>
-      <c r="K56" s="60" t="s">
-        <v>457</v>
       </c>
       <c r="L56" s="57">
         <v>0</v>
@@ -5191,30 +5191,30 @@
         <v>3</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
       <c r="G57" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H57" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="J57" s="70" t="s">
+      <c r="K57" s="71" t="s">
         <v>105</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>106</v>
       </c>
       <c r="L57" s="68">
         <v>0</v>
@@ -5225,30 +5225,30 @@
         <v>3</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E58" s="67"/>
       <c r="F58" s="67"/>
       <c r="G58" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I58" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="J58" s="70" t="s">
+      <c r="K58" s="71" t="s">
         <v>108</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>109</v>
       </c>
       <c r="L58" s="68">
         <v>0</v>
@@ -5259,30 +5259,30 @@
         <v>3</v>
       </c>
       <c r="B59" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I59" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="77" t="s">
+      <c r="K59" s="78" t="s">
         <v>111</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>112</v>
       </c>
       <c r="L59" s="75">
         <v>0</v>
@@ -5293,30 +5293,30 @@
         <v>3</v>
       </c>
       <c r="B60" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60" s="83"/>
       <c r="F60" s="83"/>
       <c r="G60" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I60" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="J60" s="86" t="s">
+      <c r="K60" s="86" t="s">
         <v>115</v>
-      </c>
-      <c r="K60" s="86" t="s">
-        <v>116</v>
       </c>
       <c r="L60" s="84">
         <v>0</v>
@@ -5327,30 +5327,30 @@
         <v>3</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" s="90"/>
       <c r="F61" s="90"/>
       <c r="G61" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H61" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="J61" s="92" t="s">
+      <c r="K61" s="92" t="s">
         <v>122</v>
-      </c>
-      <c r="K61" s="92" t="s">
-        <v>123</v>
       </c>
       <c r="L61" s="91">
         <v>0</v>
@@ -5361,30 +5361,30 @@
         <v>3</v>
       </c>
       <c r="B62" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="90"/>
       <c r="F62" s="90"/>
       <c r="G62" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="J62" s="92" t="s">
+      <c r="K62" s="92" t="s">
         <v>125</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>126</v>
       </c>
       <c r="L62" s="91">
         <v>0</v>
@@ -5395,30 +5395,30 @@
         <v>3</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="93"/>
       <c r="F63" s="93"/>
       <c r="G63" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H63" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" s="94" t="s">
         <v>458</v>
       </c>
-      <c r="J63" s="94" t="s">
+      <c r="K63" s="95" t="s">
         <v>459</v>
-      </c>
-      <c r="K63" s="95" t="s">
-        <v>460</v>
       </c>
       <c r="L63" s="91">
         <v>0</v>
@@ -5429,30 +5429,30 @@
         <v>3</v>
       </c>
       <c r="B64" s="88" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="96"/>
       <c r="F64" s="96"/>
       <c r="G64" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" s="97" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="J64" s="98" t="s">
+      <c r="K64" s="99" t="s">
         <v>462</v>
-      </c>
-      <c r="K64" s="99" t="s">
-        <v>463</v>
       </c>
       <c r="L64" s="91">
         <v>0</v>
@@ -5463,32 +5463,32 @@
         <v>3</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E65" s="104">
         <v>1</v>
       </c>
       <c r="F65" s="104"/>
       <c r="G65" s="91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H65" s="105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="J65" s="106" t="s">
+      <c r="K65" s="106" t="s">
         <v>128</v>
-      </c>
-      <c r="K65" s="106" t="s">
-        <v>129</v>
       </c>
       <c r="L65" s="105">
         <v>0</v>
@@ -5499,32 +5499,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>466</v>
-      </c>
       <c r="D66" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" s="148">
         <v>5</v>
       </c>
       <c r="F66" s="148"/>
       <c r="G66" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I66" s="92" t="s">
+        <v>466</v>
+      </c>
+      <c r="J66" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="J66" s="92" t="s">
+      <c r="K66" s="92" t="s">
         <v>468</v>
-      </c>
-      <c r="K66" s="92" t="s">
-        <v>469</v>
       </c>
       <c r="L66" s="149">
         <v>0</v>
@@ -5535,32 +5535,32 @@
         <v>3</v>
       </c>
       <c r="B67" s="107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C67" s="118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" s="119">
         <v>150</v>
       </c>
       <c r="F67" s="119"/>
       <c r="G67" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H67" s="120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I67" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="J67" s="122" t="s">
-        <v>167</v>
-      </c>
       <c r="K67" s="122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L67" s="120">
         <v>1</v>
@@ -5571,32 +5571,32 @@
         <v>3</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" s="118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D68" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="119">
         <v>70</v>
       </c>
       <c r="F68" s="119"/>
       <c r="G68" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H68" s="120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I68" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="J68" s="122" t="s">
-        <v>167</v>
-      </c>
       <c r="K68" s="122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L68" s="120">
         <v>1</v>
@@ -5607,32 +5607,32 @@
         <v>3</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" s="118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" s="119">
         <v>100</v>
       </c>
       <c r="F69" s="119"/>
       <c r="G69" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H69" s="120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I69" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="J69" s="122" t="s">
-        <v>170</v>
-      </c>
       <c r="K69" s="122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L69" s="120">
         <v>1</v>
@@ -5643,32 +5643,32 @@
         <v>3</v>
       </c>
       <c r="B70" s="123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E70" s="119">
         <v>75</v>
       </c>
       <c r="F70" s="119"/>
       <c r="G70" s="108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I70" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="J70" s="122" t="s">
-        <v>170</v>
-      </c>
       <c r="K70" s="122" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L70" s="120">
         <v>1</v>
@@ -5679,32 +5679,32 @@
         <v>3</v>
       </c>
       <c r="B71" s="123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D71" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E71" s="119">
         <v>50</v>
       </c>
       <c r="F71" s="119"/>
       <c r="G71" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H71" s="120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I71" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="J71" s="122" t="s">
-        <v>173</v>
-      </c>
       <c r="K71" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L71" s="120">
         <v>1</v>
@@ -5715,32 +5715,32 @@
         <v>3</v>
       </c>
       <c r="B72" s="123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C72" s="118" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D72" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="119">
         <v>30</v>
       </c>
       <c r="F72" s="119"/>
       <c r="G72" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72" s="120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="J72" s="122" t="s">
-        <v>173</v>
-      </c>
       <c r="K72" s="122" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L72" s="120">
         <v>1</v>
@@ -5751,30 +5751,30 @@
         <v>3</v>
       </c>
       <c r="B73" s="123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73" s="119"/>
       <c r="F73" s="119"/>
       <c r="G73" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H73" s="120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73" s="121" t="s">
+        <v>175</v>
+      </c>
+      <c r="J73" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="J73" s="122" t="s">
-        <v>177</v>
-      </c>
       <c r="K73" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L73" s="120">
         <v>1</v>
@@ -5785,32 +5785,32 @@
         <v>3</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="119">
         <v>25</v>
       </c>
       <c r="F74" s="119"/>
       <c r="G74" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" s="120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="J74" s="122" t="s">
-        <v>179</v>
-      </c>
       <c r="K74" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L74" s="120">
         <v>1</v>
@@ -5821,32 +5821,32 @@
         <v>3</v>
       </c>
       <c r="B75" s="123" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" s="118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="119">
         <v>15</v>
       </c>
       <c r="F75" s="119"/>
       <c r="G75" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H75" s="120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I75" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="J75" s="122" t="s">
-        <v>179</v>
-      </c>
       <c r="K75" s="122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L75" s="120">
         <v>1</v>
@@ -5857,34 +5857,34 @@
         <v>3</v>
       </c>
       <c r="B76" s="123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E76" s="119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" s="119">
         <v>100</v>
       </c>
       <c r="G76" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H76" s="120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I76" s="121" t="s">
+        <v>180</v>
+      </c>
+      <c r="J76" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="J76" s="122" t="s">
+      <c r="K76" s="122" t="s">
         <v>182</v>
-      </c>
-      <c r="K76" s="122" t="s">
-        <v>183</v>
       </c>
       <c r="L76" s="120">
         <v>1</v>
@@ -5895,34 +5895,34 @@
         <v>3</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D77" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E77" s="119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F77" s="119">
         <v>50</v>
       </c>
       <c r="G77" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H77" s="120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I77" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="J77" s="122" t="s">
-        <v>185</v>
-      </c>
       <c r="K77" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L77" s="120">
         <v>1</v>
@@ -5933,34 +5933,34 @@
         <v>3</v>
       </c>
       <c r="B78" s="123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F78" s="119">
         <v>35</v>
       </c>
       <c r="G78" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H78" s="120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I78" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="122" t="s">
         <v>184</v>
       </c>
-      <c r="J78" s="122" t="s">
-        <v>185</v>
-      </c>
       <c r="K78" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L78" s="120">
         <v>1</v>
@@ -5971,32 +5971,32 @@
         <v>3</v>
       </c>
       <c r="B79" s="125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E79" s="127">
         <v>50</v>
       </c>
       <c r="F79" s="127"/>
       <c r="G79" s="108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H79" s="120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I79" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="J79" s="122" t="s">
-        <v>188</v>
-      </c>
       <c r="K79" s="122" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L79" s="120">
         <v>1</v>
@@ -6007,32 +6007,32 @@
         <v>3</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E80" s="119">
         <v>25</v>
       </c>
       <c r="F80" s="119"/>
       <c r="G80" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H80" s="120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I80" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="J80" s="122" t="s">
-        <v>190</v>
-      </c>
       <c r="K80" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L80" s="120">
         <v>1</v>
@@ -6043,32 +6043,32 @@
         <v>3</v>
       </c>
       <c r="B81" s="123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D81" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E81" s="119">
         <v>15</v>
       </c>
       <c r="F81" s="119"/>
       <c r="G81" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H81" s="120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I81" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="J81" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="J81" s="122" t="s">
-        <v>190</v>
-      </c>
       <c r="K81" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L81" s="120">
         <v>1</v>
@@ -6079,32 +6079,32 @@
         <v>3</v>
       </c>
       <c r="B82" s="129" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E82" s="131">
         <v>20</v>
       </c>
       <c r="F82" s="131"/>
       <c r="G82" s="132" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H82" s="133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I82" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="J82" s="122" t="s">
-        <v>193</v>
-      </c>
       <c r="K82" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L82" s="133">
         <v>1</v>
@@ -6115,34 +6115,34 @@
         <v>3</v>
       </c>
       <c r="B83" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="C83" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I83" s="114" t="s">
+      <c r="J83" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="J83" s="115" t="s">
+      <c r="K83" s="115" t="s">
         <v>196</v>
-      </c>
-      <c r="K83" s="115" t="s">
-        <v>197</v>
       </c>
       <c r="L83" s="113">
         <v>2</v>
@@ -6153,34 +6153,34 @@
         <v>3</v>
       </c>
       <c r="B84" s="109" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="J84" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E84" s="112" t="s">
-        <v>174</v>
-      </c>
-      <c r="F84" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="G84" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I84" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="J84" s="115" t="s">
+      <c r="K84" s="115" t="s">
         <v>199</v>
-      </c>
-      <c r="K84" s="115" t="s">
-        <v>200</v>
       </c>
       <c r="L84" s="113">
         <v>2</v>
@@ -6191,34 +6191,34 @@
         <v>3</v>
       </c>
       <c r="B85" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="F85" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G85" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H85" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I85" s="114" t="s">
+      <c r="J85" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="J85" s="115" t="s">
+      <c r="K85" s="115" t="s">
         <v>203</v>
-      </c>
-      <c r="K85" s="115" t="s">
-        <v>204</v>
       </c>
       <c r="L85" s="113">
         <v>2</v>
@@ -6229,34 +6229,34 @@
         <v>3</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E86" s="112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F86" s="112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G86" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H86" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I86" s="114" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="J86" s="115" t="s">
+      <c r="K86" s="115" t="s">
         <v>206</v>
-      </c>
-      <c r="K86" s="115" t="s">
-        <v>207</v>
       </c>
       <c r="L86" s="113">
         <v>2</v>
@@ -6267,34 +6267,34 @@
         <v>3</v>
       </c>
       <c r="B87" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H87" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="112" t="s">
-        <v>150</v>
-      </c>
-      <c r="F87" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="G87" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H87" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I87" s="114" t="s">
+      <c r="J87" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="J87" s="115" t="s">
+      <c r="K87" s="115" t="s">
         <v>210</v>
-      </c>
-      <c r="K87" s="115" t="s">
-        <v>211</v>
       </c>
       <c r="L87" s="113">
         <v>2</v>
@@ -6305,34 +6305,34 @@
         <v>3</v>
       </c>
       <c r="B88" s="109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E88" s="112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F88" s="112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G88" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H88" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I88" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="J88" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="J88" s="115" t="s">
+      <c r="K88" s="115" t="s">
         <v>213</v>
-      </c>
-      <c r="K88" s="115" t="s">
-        <v>214</v>
       </c>
       <c r="L88" s="113">
         <v>2</v>
@@ -6343,34 +6343,34 @@
         <v>3</v>
       </c>
       <c r="B89" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="C89" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E89" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G89" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H89" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="114" t="s">
+      <c r="J89" s="115" t="s">
         <v>216</v>
       </c>
-      <c r="J89" s="115" t="s">
+      <c r="K89" s="115" t="s">
         <v>217</v>
-      </c>
-      <c r="K89" s="115" t="s">
-        <v>218</v>
       </c>
       <c r="L89" s="113">
         <v>2</v>
@@ -6381,34 +6381,34 @@
         <v>3</v>
       </c>
       <c r="B90" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E90" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="F90" s="112" t="s">
-        <v>153</v>
-      </c>
       <c r="G90" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H90" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I90" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="J90" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="J90" s="115" t="s">
+      <c r="K90" s="115" t="s">
         <v>220</v>
-      </c>
-      <c r="K90" s="115" t="s">
-        <v>221</v>
       </c>
       <c r="L90" s="113">
         <v>2</v>
@@ -6419,34 +6419,34 @@
         <v>3</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E91" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="F91" s="112" t="s">
-        <v>144</v>
-      </c>
       <c r="G91" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H91" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I91" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="J91" s="115" t="s">
+      <c r="K91" s="115" t="s">
         <v>223</v>
-      </c>
-      <c r="K91" s="115" t="s">
-        <v>224</v>
       </c>
       <c r="L91" s="113">
         <v>2</v>
@@ -6457,34 +6457,34 @@
         <v>3</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F92" s="112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G92" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H92" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I92" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" s="115" t="s">
         <v>222</v>
       </c>
-      <c r="J92" s="115" t="s">
+      <c r="K92" s="115" t="s">
         <v>223</v>
-      </c>
-      <c r="K92" s="115" t="s">
-        <v>224</v>
       </c>
       <c r="L92" s="113">
         <v>2</v>
@@ -6495,34 +6495,34 @@
         <v>3</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="112" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G93" s="113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H93" s="113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I93" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="J93" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="J93" s="115" t="s">
+      <c r="K93" s="115" t="s">
         <v>226</v>
-      </c>
-      <c r="K93" s="115" t="s">
-        <v>227</v>
       </c>
       <c r="L93" s="113">
         <v>2</v>
@@ -6533,34 +6533,34 @@
         <v>3</v>
       </c>
       <c r="B94" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="C94" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="F94" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H94" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="114" t="s">
+      <c r="J94" s="115" t="s">
         <v>229</v>
       </c>
-      <c r="J94" s="115" t="s">
+      <c r="K94" s="115" t="s">
         <v>230</v>
-      </c>
-      <c r="K94" s="115" t="s">
-        <v>231</v>
       </c>
       <c r="L94" s="113">
         <v>2</v>
@@ -6571,34 +6571,34 @@
         <v>3</v>
       </c>
       <c r="B95" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="J95" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="F95" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="G95" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H95" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I95" s="114" t="s">
-        <v>229</v>
-      </c>
-      <c r="J95" s="115" t="s">
+      <c r="K95" s="115" t="s">
         <v>233</v>
-      </c>
-      <c r="K95" s="115" t="s">
-        <v>234</v>
       </c>
       <c r="L95" s="113">
         <v>2</v>
@@ -6609,34 +6609,34 @@
         <v>3</v>
       </c>
       <c r="B96" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="F96" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H96" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="C96" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="G96" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H96" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I96" s="114" t="s">
+      <c r="J96" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="J96" s="115" t="s">
+      <c r="K96" s="115" t="s">
         <v>237</v>
-      </c>
-      <c r="K96" s="115" t="s">
-        <v>238</v>
       </c>
       <c r="L96" s="113">
         <v>2</v>
@@ -6647,34 +6647,34 @@
         <v>3</v>
       </c>
       <c r="B97" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="F97" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="J97" s="115" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E97" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="F97" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H97" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I97" s="114" t="s">
-        <v>236</v>
-      </c>
-      <c r="J97" s="115" t="s">
+      <c r="K97" s="115" t="s">
         <v>240</v>
-      </c>
-      <c r="K97" s="115" t="s">
-        <v>241</v>
       </c>
       <c r="L97" s="113">
         <v>2</v>
@@ -6685,34 +6685,34 @@
         <v>3</v>
       </c>
       <c r="B98" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="F98" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="G98" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H98" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="C98" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="G98" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H98" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I98" s="114" t="s">
+      <c r="J98" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="J98" s="115" t="s">
+      <c r="K98" s="115" t="s">
         <v>244</v>
-      </c>
-      <c r="K98" s="115" t="s">
-        <v>245</v>
       </c>
       <c r="L98" s="113">
         <v>2</v>
@@ -6723,34 +6723,34 @@
         <v>3</v>
       </c>
       <c r="B99" s="109" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="F99" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="G99" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H99" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I99" s="114" t="s">
-        <v>243</v>
-      </c>
-      <c r="J99" s="115" t="s">
+      <c r="K99" s="115" t="s">
         <v>247</v>
-      </c>
-      <c r="K99" s="115" t="s">
-        <v>248</v>
       </c>
       <c r="L99" s="113">
         <v>2</v>
@@ -6761,34 +6761,34 @@
         <v>3</v>
       </c>
       <c r="B100" s="109" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="112" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="C100" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="112" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="G100" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H100" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I100" s="114" t="s">
+      <c r="J100" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="J100" s="115" t="s">
+      <c r="K100" s="115" t="s">
         <v>251</v>
-      </c>
-      <c r="K100" s="115" t="s">
-        <v>252</v>
       </c>
       <c r="L100" s="113">
         <v>2</v>
@@ -6799,34 +6799,34 @@
         <v>3</v>
       </c>
       <c r="B101" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="112" t="s">
+        <v>167</v>
+      </c>
+      <c r="F101" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="J101" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E101" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="F101" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="G101" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H101" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101" s="114" t="s">
-        <v>250</v>
-      </c>
-      <c r="J101" s="115" t="s">
+      <c r="K101" s="115" t="s">
         <v>254</v>
-      </c>
-      <c r="K101" s="115" t="s">
-        <v>255</v>
       </c>
       <c r="L101" s="113">
         <v>2</v>
@@ -6837,34 +6837,34 @@
         <v>3</v>
       </c>
       <c r="B102" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H102" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E102" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="F102" s="112" t="s">
-        <v>156</v>
-      </c>
-      <c r="G102" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H102" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="114" t="s">
+      <c r="J102" s="115" t="s">
         <v>257</v>
       </c>
-      <c r="J102" s="115" t="s">
+      <c r="K102" s="115" t="s">
         <v>258</v>
-      </c>
-      <c r="K102" s="115" t="s">
-        <v>259</v>
       </c>
       <c r="L102" s="113">
         <v>2</v>
@@ -6875,34 +6875,34 @@
         <v>3</v>
       </c>
       <c r="B103" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="J103" s="115" t="s">
         <v>260</v>
       </c>
-      <c r="C103" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>147</v>
-      </c>
-      <c r="F103" s="112" t="s">
-        <v>186</v>
-      </c>
-      <c r="G103" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="H103" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="J103" s="115" t="s">
+      <c r="K103" s="115" t="s">
         <v>261</v>
-      </c>
-      <c r="K103" s="115" t="s">
-        <v>262</v>
       </c>
       <c r="L103" s="113">
         <v>2</v>
@@ -6913,34 +6913,34 @@
         <v>3</v>
       </c>
       <c r="B104" s="109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C104" s="140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" s="140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E104" s="141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F104" s="141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G104" s="142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H104" s="142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I104" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J104" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="K104" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="K104" s="20" t="s">
-        <v>309</v>
       </c>
       <c r="L104" s="142">
         <v>2</v>
@@ -6951,34 +6951,34 @@
         <v>3</v>
       </c>
       <c r="B105" s="134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C105" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D105" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E105" s="131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F105" s="131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G105" s="132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H105" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I105" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="J105" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="J105" s="122" t="s">
+      <c r="K105" s="122" t="s">
         <v>264</v>
-      </c>
-      <c r="K105" s="122" t="s">
-        <v>265</v>
       </c>
       <c r="L105" s="133">
         <v>3</v>
@@ -6989,34 +6989,34 @@
         <v>3</v>
       </c>
       <c r="B106" s="134" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C106" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E106" s="131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F106" s="131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G106" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H106" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I106" s="135" t="s">
+        <v>265</v>
+      </c>
+      <c r="J106" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="J106" s="122" t="s">
+      <c r="K106" s="122" t="s">
         <v>267</v>
-      </c>
-      <c r="K106" s="122" t="s">
-        <v>268</v>
       </c>
       <c r="L106" s="133">
         <v>3</v>
@@ -7027,34 +7027,34 @@
         <v>3</v>
       </c>
       <c r="B107" s="134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C107" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E107" s="131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F107" s="131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G107" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H107" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I107" s="135" t="s">
+        <v>268</v>
+      </c>
+      <c r="J107" s="122" t="s">
         <v>269</v>
       </c>
-      <c r="J107" s="122" t="s">
+      <c r="K107" s="122" t="s">
         <v>270</v>
-      </c>
-      <c r="K107" s="122" t="s">
-        <v>271</v>
       </c>
       <c r="L107" s="133">
         <v>3</v>
@@ -7065,34 +7065,34 @@
         <v>3</v>
       </c>
       <c r="B108" s="134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C108" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E108" s="131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F108" s="131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G108" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H108" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I108" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="J108" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="J108" s="122" t="s">
+      <c r="K108" s="122" t="s">
         <v>273</v>
-      </c>
-      <c r="K108" s="122" t="s">
-        <v>274</v>
       </c>
       <c r="L108" s="133">
         <v>3</v>
@@ -7103,34 +7103,34 @@
         <v>3</v>
       </c>
       <c r="B109" s="134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D109" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E109" s="131" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" s="131" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G109" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H109" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I109" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="J109" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="J109" s="122" t="s">
+      <c r="K109" s="122" t="s">
         <v>276</v>
-      </c>
-      <c r="K109" s="122" t="s">
-        <v>277</v>
       </c>
       <c r="L109" s="133">
         <v>3</v>
@@ -7141,34 +7141,34 @@
         <v>3</v>
       </c>
       <c r="B110" s="134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D110" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E110" s="131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F110" s="131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G110" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H110" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I110" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="J110" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="J110" s="136" t="s">
+      <c r="K110" s="136" t="s">
         <v>279</v>
-      </c>
-      <c r="K110" s="136" t="s">
-        <v>280</v>
       </c>
       <c r="L110" s="133">
         <v>3</v>
@@ -7179,34 +7179,34 @@
         <v>3</v>
       </c>
       <c r="B111" s="129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="130" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D111" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E111" s="137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F111" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G111" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H111" s="133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I111" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="J111" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="J111" s="139" t="s">
+      <c r="K111" s="139" t="s">
         <v>282</v>
-      </c>
-      <c r="K111" s="139" t="s">
-        <v>283</v>
       </c>
       <c r="L111" s="133">
         <v>3</v>
@@ -7217,34 +7217,34 @@
         <v>3</v>
       </c>
       <c r="B112" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="C112" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="131" t="s">
+      <c r="F112" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="G112" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="F112" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G112" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="H112" s="133" t="s">
-        <v>34</v>
-      </c>
-      <c r="I112" s="135" t="s">
+      <c r="J112" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="J112" s="122" t="s">
+      <c r="K112" s="122" t="s">
         <v>298</v>
-      </c>
-      <c r="K112" s="122" t="s">
-        <v>299</v>
       </c>
       <c r="L112" s="133">
         <v>3</v>
@@ -7255,34 +7255,34 @@
         <v>3</v>
       </c>
       <c r="B113" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="C113" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="131" t="s">
+        <v>154</v>
+      </c>
+      <c r="F113" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="135" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="D113" s="130" t="s">
-        <v>99</v>
-      </c>
-      <c r="E113" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="H113" s="133" t="s">
-        <v>34</v>
-      </c>
-      <c r="I113" s="135" t="s">
+      <c r="J113" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="J113" s="136" t="s">
+      <c r="K113" s="136" t="s">
         <v>302</v>
-      </c>
-      <c r="K113" s="136" t="s">
-        <v>303</v>
       </c>
       <c r="L113" s="133">
         <v>3</v>
@@ -7293,34 +7293,34 @@
         <v>3</v>
       </c>
       <c r="B114" s="143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C114" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="F114" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="G114" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="C114" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="D114" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="144" t="s">
-        <v>154</v>
-      </c>
-      <c r="F114" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="G114" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="H114" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="I114" s="145" t="s">
+      <c r="J114" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="J114" s="145" t="s">
+      <c r="K114" s="145" t="s">
         <v>306</v>
-      </c>
-      <c r="K114" s="145" t="s">
-        <v>307</v>
       </c>
       <c r="L114" s="120">
         <v>3</v>
@@ -7329,7 +7329,7 @@
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7341,19 +7341,19 @@
     </row>
     <row r="118" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="E118" s="51" t="s">
         <v>90</v>
-      </c>
-      <c r="E118" s="51" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7361,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C119" s="3">
         <v>11</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="474">
   <si>
     <t>[sku]</t>
   </si>
@@ -1440,6 +1440,12 @@
   </si>
   <si>
     <t>score_better</t>
+  </si>
+  <si>
+    <t>trash_eater_better</t>
+  </si>
+  <si>
+    <t>phoenix_better</t>
   </si>
 </sst>
 </file>
@@ -3188,8 +3194,8 @@
   </sheetPr>
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,7 +4633,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>54</v>
@@ -5079,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>84</v>
+        <v>472</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>84</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="476">
   <si>
     <t>[sku]</t>
   </si>
@@ -38,15 +38,9 @@
     <t>&lt;Definition&gt;</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>icon_score</t>
   </si>
   <si>
-    <t>coins</t>
-  </si>
-  <si>
     <t>dive</t>
   </si>
   <si>
@@ -1443,13 +1437,28 @@
   </si>
   <si>
     <t>disguise_speed_LOW_hp_free_revive</t>
+  </si>
+  <si>
+    <t>coins_better</t>
+  </si>
+  <si>
+    <t>score_better</t>
+  </si>
+  <si>
+    <t>dive_better</t>
+  </si>
+  <si>
+    <t>phoenix_better</t>
+  </si>
+  <si>
+    <t>trash_eater_better</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,51 +1510,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1554,35 +1519,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1842,7 +1778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,16 +1926,18 @@
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2008,232 +1946,20 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2261,16 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2280,6 +1997,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2287,16 +2091,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2322,7 +2116,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2855,10 +2649,27 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2878,13 +2689,6 @@
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2901,32 +2705,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="powerUpsDefinitions" displayName="powerUpsDefinitions" ref="A3:L116" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L115" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L115"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
-      <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions[[#This Row],['[sku']]])</calculatedColumnFormula>
+    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="[type]" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="11" name="[category]" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="[param1]" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="5" name="[param2]" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="6" name="[icon]" dataDxfId="10" totalsRowDxfId="11">
+      <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
+    <tableColumn id="10" name="[miniIcon]" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="6" totalsRowDxfId="7">
+      <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
-      <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
+    <tableColumn id="8" name="[tidDesc]" dataDxfId="4" totalsRowDxfId="5">
+      <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
-      <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
+    <tableColumn id="9" name="[tidDescShort]" dataDxfId="2" totalsRowDxfId="3">
+      <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="[level]" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3200,8 +3004,8 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3221,7 +3025,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3233,16 +3037,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="101" t="s">
-        <v>136</v>
+      <c r="F2" s="62" t="s">
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -3251,31 +3055,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3283,32 +3087,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="17">
         <v>10</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L4" s="18">
         <v>0</v>
@@ -3319,32 +3123,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="17">
         <v>5</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -3355,32 +3159,32 @@
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="17">
         <v>10</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -3391,68 +3195,68 @@
         <v>3</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="17">
         <v>10</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="17">
         <v>50</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -3463,32 +3267,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9" s="17">
         <v>10</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -3499,32 +3303,32 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L10" s="18">
         <v>0</v>
@@ -3535,34 +3339,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="L11" s="18">
         <v>0</v>
@@ -3573,34 +3377,34 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -3611,34 +3415,34 @@
         <v>3</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="23">
         <v>10</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>335</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -3649,32 +3453,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="27">
         <v>5</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -3685,32 +3489,32 @@
         <v>3</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="17">
         <v>-50</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3721,68 +3525,68 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="17">
         <v>20</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="17">
         <v>-10</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -3793,32 +3597,32 @@
         <v>3</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="23">
         <v>10</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
@@ -3829,34 +3633,34 @@
         <v>3</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I19" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="44" t="s">
         <v>349</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>351</v>
       </c>
       <c r="L19" s="41">
         <v>0</v>
@@ -3867,34 +3671,34 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" s="39">
         <v>30</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>352</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>354</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -3905,34 +3709,34 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21" s="39">
         <v>30</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>355</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>357</v>
       </c>
       <c r="L21" s="18">
         <v>0</v>
@@ -3943,34 +3747,34 @@
         <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F22" s="39">
         <v>30</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>360</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -3981,32 +3785,32 @@
         <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="17">
         <v>100</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I23" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="K23" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>363</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -4017,182 +3821,182 @@
         <v>3</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="17">
         <v>10</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I24" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>364</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="30">
+        <v>-50</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="L25" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="30">
+        <v>-30</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="L26" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="56">
-        <v>-50</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="28" t="s">
+      <c r="D27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H25" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="K25" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="L25" s="57">
+      <c r="H27" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="L27" s="81">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="56">
-        <v>-30</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="28" t="s">
+    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>371</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="L26" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="J27" s="59" t="s">
+      <c r="H28" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="J28" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="L27" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="100" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="K28" s="29" t="s">
         <v>376</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>378</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -4203,34 +4007,34 @@
         <v>3</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="F29" s="17">
         <v>1</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="K29" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
@@ -4241,34 +4045,34 @@
         <v>3</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="17">
         <v>1</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="K30" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4279,30 +4083,30 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>7</v>
+        <v>473</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4313,32 +4117,32 @@
         <v>3</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="17">
         <v>1</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="K32" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>389</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4349,32 +4153,32 @@
         <v>3</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E33" s="17">
         <v>11</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>392</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4385,32 +4189,32 @@
         <v>3</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="17">
         <v>12</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I34" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>395</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
@@ -4421,13 +4225,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="17">
         <v>1</v>
@@ -4436,19 +4240,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="K35" s="20" t="s">
         <v>396</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
@@ -4459,32 +4263,32 @@
         <v>3</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="17">
         <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I36" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="K36" s="20" t="s">
         <v>399</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>401</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4495,32 +4299,32 @@
         <v>3</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="17">
         <v>1</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="K37" s="20" t="s">
         <v>402</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>404</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -4531,32 +4335,32 @@
         <v>3</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="K38" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>407</v>
       </c>
       <c r="L38" s="18">
         <v>0</v>
@@ -4567,32 +4371,32 @@
         <v>3</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I39" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="K39" s="29" t="s">
         <v>408</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>410</v>
       </c>
       <c r="L39" s="28">
         <v>0</v>
@@ -4603,32 +4407,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="30">
         <v>1</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="K40" s="33" t="s">
         <v>411</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>413</v>
       </c>
       <c r="L40" s="28">
         <v>0</v>
@@ -4639,32 +4443,32 @@
         <v>3</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>56</v>
+        <v>474</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="17">
         <v>1</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="K41" s="20" t="s">
         <v>414</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>416</v>
       </c>
       <c r="L41" s="18">
         <v>0</v>
@@ -4675,32 +4479,32 @@
         <v>3</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="30">
         <v>100</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I42" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="K42" s="33" t="s">
         <v>417</v>
-      </c>
-      <c r="J42" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>419</v>
       </c>
       <c r="L42" s="28">
         <v>0</v>
@@ -4711,32 +4515,32 @@
         <v>3</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="30">
         <v>0</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I43" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="K43" s="33" t="s">
         <v>420</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>422</v>
       </c>
       <c r="L43" s="28">
         <v>0</v>
@@ -4747,32 +4551,32 @@
         <v>3</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" s="17">
         <v>0</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I44" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="K44" s="29" t="s">
         <v>423</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>425</v>
       </c>
       <c r="L44" s="18">
         <v>0</v>
@@ -4783,32 +4587,32 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I45" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="K45" s="29" t="s">
         <v>426</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>428</v>
       </c>
       <c r="L45" s="18">
         <v>0</v>
@@ -4819,30 +4623,30 @@
         <v>3</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I46" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K46" s="29" t="s">
         <v>429</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>431</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
@@ -4853,30 +4657,30 @@
         <v>3</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I47" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" s="29" t="s">
         <v>432</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>434</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
@@ -4887,30 +4691,30 @@
         <v>3</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I48" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="K48" s="29" t="s">
         <v>435</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>437</v>
       </c>
       <c r="L48" s="28">
         <v>0</v>
@@ -4921,30 +4725,30 @@
         <v>3</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I49" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" s="49" t="s">
         <v>438</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>440</v>
       </c>
       <c r="L49" s="46">
         <v>0</v>
@@ -4955,30 +4759,30 @@
         <v>3</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I50" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="K50" s="49" t="s">
         <v>441</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>443</v>
       </c>
       <c r="L50" s="46">
         <v>0</v>
@@ -4989,30 +4793,30 @@
         <v>3</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
       <c r="G51" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I51" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" s="49" t="s">
         <v>444</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>446</v>
       </c>
       <c r="L51" s="46">
         <v>0</v>
@@ -5023,30 +4827,30 @@
         <v>3</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="K52" s="29" t="s">
         <v>447</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>449</v>
       </c>
       <c r="L52" s="28">
         <v>0</v>
@@ -5057,32 +4861,32 @@
         <v>3</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>84</v>
+      <c r="G53" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="61">
+        <v>83</v>
+      </c>
+      <c r="L53" s="53">
         <v>0</v>
       </c>
     </row>
@@ -5091,13 +4895,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="17">
         <v>1</v>
@@ -5105,20 +4909,20 @@
       <c r="F54" s="17">
         <v>1</v>
       </c>
-      <c r="G54" s="61" t="s">
-        <v>142</v>
+      <c r="G54" s="53" t="s">
+        <v>140</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="J54" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" s="29" t="s">
         <v>450</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>452</v>
       </c>
       <c r="L54" s="28">
         <v>0</v>
@@ -5129,13 +4933,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="17">
         <v>1</v>
@@ -5144,1779 +4948,1779 @@
         <v>1</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I55" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="K55" s="29" t="s">
         <v>453</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>455</v>
       </c>
       <c r="L55" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>98</v>
+      <c r="A56" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="30">
+        <v>4</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L57" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="J58" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="K59" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="K61" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="L61" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="L62" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="L63" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="90" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="K64" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="L64" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="58">
+        <v>1</v>
+      </c>
+      <c r="F65" s="58"/>
+      <c r="G65" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="L65" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="56">
+      <c r="D66" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="71">
+        <v>5</v>
+      </c>
+      <c r="F66" s="71"/>
+      <c r="G66" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="56"/>
-      <c r="G56" s="28" t="s">
+      <c r="I66" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J66" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K66" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L66" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="93">
+        <v>150</v>
+      </c>
+      <c r="F67" s="93"/>
+      <c r="G67" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="K67" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="L67" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="93">
+        <v>70</v>
+      </c>
+      <c r="F68" s="93"/>
+      <c r="G68" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="J68" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="K68" s="96" t="s">
+        <v>283</v>
+      </c>
+      <c r="L68" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="93">
+        <v>100</v>
+      </c>
+      <c r="F69" s="93"/>
+      <c r="G69" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I69" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="K69" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="L69" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="93">
+        <v>75</v>
+      </c>
+      <c r="F70" s="93"/>
+      <c r="G70" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="K70" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="L70" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="93">
+        <v>50</v>
+      </c>
+      <c r="F71" s="93"/>
+      <c r="G71" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="K71" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="L71" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="93">
+        <v>30</v>
+      </c>
+      <c r="F72" s="93"/>
+      <c r="G72" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="L72" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="J73" s="96" t="s">
+        <v>176</v>
+      </c>
+      <c r="K73" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="L73" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="H56" s="57" t="s">
+      <c r="C74" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="93">
+        <v>25</v>
+      </c>
+      <c r="F74" s="93"/>
+      <c r="G74" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="K74" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="L74" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="93">
+        <v>15</v>
+      </c>
+      <c r="F75" s="93"/>
+      <c r="G75" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="K75" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="L75" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="93">
+        <v>100</v>
+      </c>
+      <c r="G76" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="J76" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="K76" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="L76" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="93">
+        <v>50</v>
+      </c>
+      <c r="G77" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H77" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="K77" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="L77" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="93">
         <v>35</v>
       </c>
-      <c r="I56" s="58" t="s">
-        <v>456</v>
-      </c>
-      <c r="J56" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="K56" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="L56" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="147" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="28" t="s">
+      <c r="G78" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="K78" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="L78" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="101">
+        <v>50</v>
+      </c>
+      <c r="F79" s="101"/>
+      <c r="G79" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="K79" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="L79" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="93">
+        <v>25</v>
+      </c>
+      <c r="F80" s="93"/>
+      <c r="G80" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="H80" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="J80" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="K80" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="L80" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="93">
+        <v>15</v>
+      </c>
+      <c r="F81" s="93"/>
+      <c r="G81" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="I81" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="J81" s="96" t="s">
+        <v>189</v>
+      </c>
+      <c r="K81" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="L81" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="104">
+        <v>20</v>
+      </c>
+      <c r="F82" s="104"/>
+      <c r="G82" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="J82" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="K82" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="L82" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="J83" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="L83" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="J84" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="L84" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="J85" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="K85" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L85" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H86" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K86" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H87" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="K87" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="L87" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F88" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="J88" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="L88" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C89" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="J89" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L89" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F90" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H90" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="J90" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="L90" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="J57" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="K57" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="L57" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="147" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="28" t="s">
+      <c r="G91" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H91" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="L91" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="I58" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="J58" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="L58" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="28" t="s">
+      <c r="G92" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H92" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="K92" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="L92" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F93" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="H59" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J59" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="L59" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="J60" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="K60" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="L60" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="I61" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="J61" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="K61" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="L61" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="I62" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="J62" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="L62" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H63" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="I63" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="J63" s="94" t="s">
-        <v>460</v>
-      </c>
-      <c r="K63" s="95" t="s">
-        <v>461</v>
-      </c>
-      <c r="L63" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="I64" s="97" t="s">
-        <v>462</v>
-      </c>
-      <c r="J64" s="98" t="s">
-        <v>463</v>
-      </c>
-      <c r="K64" s="99" t="s">
-        <v>464</v>
-      </c>
-      <c r="L64" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="104">
-        <v>1</v>
-      </c>
-      <c r="F65" s="104"/>
-      <c r="G65" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="J65" s="106" t="s">
-        <v>129</v>
-      </c>
-      <c r="K65" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="L65" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="D66" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="148">
-        <v>5</v>
-      </c>
-      <c r="F66" s="148"/>
-      <c r="G66" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="92" t="s">
-        <v>468</v>
-      </c>
-      <c r="J66" s="92" t="s">
-        <v>469</v>
-      </c>
-      <c r="K66" s="92" t="s">
-        <v>470</v>
-      </c>
-      <c r="L66" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="119">
-        <v>150</v>
-      </c>
-      <c r="F67" s="119"/>
-      <c r="G67" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H67" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="121" t="s">
+      <c r="G93" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L93" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F94" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="J94" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L94" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="J95" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="L95" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F96" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H96" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="J96" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L96" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H97" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L97" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G98" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H98" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="J98" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K98" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L98" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G99" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K99" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L99" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J100" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K100" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L100" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="J67" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="K67" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="L67" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="119">
-        <v>70</v>
-      </c>
-      <c r="F68" s="119"/>
-      <c r="G68" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="J68" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="K68" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="L68" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="119">
-        <v>100</v>
-      </c>
-      <c r="F69" s="119"/>
-      <c r="G69" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H69" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I69" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="J69" s="122" t="s">
-        <v>171</v>
-      </c>
-      <c r="K69" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="L69" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="119">
-        <v>75</v>
-      </c>
-      <c r="F70" s="119"/>
-      <c r="G70" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H70" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="J70" s="122" t="s">
-        <v>171</v>
-      </c>
-      <c r="K70" s="122" t="s">
-        <v>286</v>
-      </c>
-      <c r="L70" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="C71" s="118" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="119">
-        <v>50</v>
-      </c>
-      <c r="F71" s="119"/>
-      <c r="G71" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="120" t="s">
+      <c r="F101" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H101" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="J71" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="K71" s="122" t="s">
-        <v>287</v>
-      </c>
-      <c r="L71" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="123" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="118" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="119">
-        <v>30</v>
-      </c>
-      <c r="F72" s="119"/>
-      <c r="G72" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H72" s="120" t="s">
+      <c r="I101" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J101" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L101" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F102" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H102" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I72" s="121" t="s">
-        <v>173</v>
-      </c>
-      <c r="J72" s="122" t="s">
-        <v>174</v>
-      </c>
-      <c r="K72" s="122" t="s">
-        <v>287</v>
-      </c>
-      <c r="L72" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="123" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H73" s="120" t="s">
+      <c r="I102" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="J102" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K102" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L102" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H103" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I73" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="122" t="s">
-        <v>178</v>
-      </c>
-      <c r="K73" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="L73" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" s="119">
-        <v>25</v>
-      </c>
-      <c r="F74" s="119"/>
-      <c r="G74" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H74" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="I74" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="J74" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="K74" s="122" t="s">
-        <v>289</v>
-      </c>
-      <c r="L74" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="123" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E75" s="119">
-        <v>15</v>
-      </c>
-      <c r="F75" s="119"/>
-      <c r="G75" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="H75" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="J75" s="122" t="s">
-        <v>180</v>
-      </c>
-      <c r="K75" s="122" t="s">
-        <v>289</v>
-      </c>
-      <c r="L75" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="119" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="119">
-        <v>100</v>
-      </c>
-      <c r="G76" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" s="121" t="s">
-        <v>182</v>
-      </c>
-      <c r="J76" s="122" t="s">
-        <v>183</v>
-      </c>
-      <c r="K76" s="122" t="s">
-        <v>184</v>
-      </c>
-      <c r="L76" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="119">
-        <v>50</v>
-      </c>
-      <c r="G77" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="H77" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="J77" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="K77" s="122" t="s">
-        <v>290</v>
-      </c>
-      <c r="L77" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="C78" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" s="119">
-        <v>35</v>
-      </c>
-      <c r="G78" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="J78" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="K78" s="122" t="s">
-        <v>290</v>
-      </c>
-      <c r="L78" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="124" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="127">
-        <v>50</v>
-      </c>
-      <c r="F79" s="127"/>
-      <c r="G79" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="120" t="s">
-        <v>5</v>
-      </c>
-      <c r="I79" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="J79" s="122" t="s">
-        <v>189</v>
-      </c>
-      <c r="K79" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="L79" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="D80" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E80" s="119">
-        <v>25</v>
-      </c>
-      <c r="F80" s="119"/>
-      <c r="G80" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H80" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="I80" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="J80" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="K80" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="L80" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="117" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="123" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="118" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="E81" s="119">
-        <v>15</v>
-      </c>
-      <c r="F81" s="119"/>
-      <c r="G81" s="108" t="s">
-        <v>141</v>
-      </c>
-      <c r="H81" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="I81" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="J81" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="K81" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="L81" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="129" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="130" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E82" s="131">
-        <v>20</v>
-      </c>
-      <c r="F82" s="131"/>
-      <c r="G82" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="H82" s="133" t="s">
-        <v>5</v>
-      </c>
-      <c r="I82" s="121" t="s">
-        <v>193</v>
-      </c>
-      <c r="J82" s="122" t="s">
-        <v>194</v>
-      </c>
-      <c r="K82" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="L82" s="133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="109" t="s">
-        <v>195</v>
-      </c>
-      <c r="C83" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F83" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I83" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="J83" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="K83" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="L83" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="109" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E84" s="112" t="s">
-        <v>175</v>
-      </c>
-      <c r="F84" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G84" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H84" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I84" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="J84" s="115" t="s">
-        <v>200</v>
-      </c>
-      <c r="K84" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="L84" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="F85" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G85" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H85" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="J85" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="K85" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="L85" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="112" t="s">
-        <v>176</v>
-      </c>
-      <c r="F86" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="G86" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H86" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="J86" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="K86" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="L86" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="109" t="s">
-        <v>209</v>
-      </c>
-      <c r="C87" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E87" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F87" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G87" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H87" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" s="114" t="s">
-        <v>210</v>
-      </c>
-      <c r="J87" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="K87" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="L87" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="109" t="s">
-        <v>149</v>
-      </c>
-      <c r="C88" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E88" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F88" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H88" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="J88" s="115" t="s">
-        <v>214</v>
-      </c>
-      <c r="K88" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="L88" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="109" t="s">
-        <v>216</v>
-      </c>
-      <c r="C89" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F89" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H89" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" s="114" t="s">
-        <v>217</v>
-      </c>
-      <c r="J89" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="K89" s="115" t="s">
-        <v>219</v>
-      </c>
-      <c r="L89" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="109" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="F90" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="G90" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H90" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="J90" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="K90" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="L90" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E91" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F91" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G91" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H91" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="J91" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="K91" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="L91" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C92" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G92" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H92" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="J92" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="K92" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="L92" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="E93" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="F93" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G93" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H93" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I93" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="J93" s="115" t="s">
-        <v>227</v>
-      </c>
-      <c r="K93" s="115" t="s">
-        <v>228</v>
-      </c>
-      <c r="L93" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="109" t="s">
-        <v>229</v>
-      </c>
-      <c r="C94" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E94" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F94" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="G94" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H94" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I94" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="J94" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="K94" s="115" t="s">
-        <v>232</v>
-      </c>
-      <c r="L94" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="109" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F95" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="G95" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H95" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I95" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="J95" s="115" t="s">
-        <v>234</v>
-      </c>
-      <c r="K95" s="115" t="s">
-        <v>235</v>
-      </c>
-      <c r="L95" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="109" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="F96" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G96" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H96" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I96" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="J96" s="115" t="s">
-        <v>238</v>
-      </c>
-      <c r="K96" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="L96" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97" s="109" t="s">
-        <v>240</v>
-      </c>
-      <c r="C97" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="F97" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H97" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I97" s="114" t="s">
-        <v>237</v>
-      </c>
-      <c r="J97" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="K97" s="115" t="s">
-        <v>242</v>
-      </c>
-      <c r="L97" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="109" t="s">
-        <v>243</v>
-      </c>
-      <c r="C98" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="F98" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H98" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I98" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="J98" s="115" t="s">
-        <v>245</v>
-      </c>
-      <c r="K98" s="115" t="s">
-        <v>246</v>
-      </c>
-      <c r="L98" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="109" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E99" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="F99" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G99" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H99" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I99" s="114" t="s">
-        <v>244</v>
-      </c>
-      <c r="J99" s="115" t="s">
-        <v>248</v>
-      </c>
-      <c r="K99" s="115" t="s">
-        <v>249</v>
-      </c>
-      <c r="L99" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="109" t="s">
-        <v>250</v>
-      </c>
-      <c r="C100" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="F100" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H100" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I100" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="J100" s="115" t="s">
-        <v>252</v>
-      </c>
-      <c r="K100" s="115" t="s">
-        <v>253</v>
-      </c>
-      <c r="L100" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B101" s="109" t="s">
-        <v>254</v>
-      </c>
-      <c r="C101" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="F101" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="G101" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H101" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I101" s="114" t="s">
-        <v>251</v>
-      </c>
-      <c r="J101" s="115" t="s">
-        <v>255</v>
-      </c>
-      <c r="K101" s="115" t="s">
+      <c r="I103" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="L101" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B102" s="109" t="s">
-        <v>257</v>
-      </c>
-      <c r="C102" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F102" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H102" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I102" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="J102" s="115" t="s">
-        <v>259</v>
-      </c>
-      <c r="K102" s="115" t="s">
+      <c r="J103" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="L102" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="116" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103" s="109" t="s">
+      <c r="K103" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="C103" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>148</v>
-      </c>
-      <c r="F103" s="112" t="s">
-        <v>187</v>
-      </c>
-      <c r="G103" s="113" t="s">
-        <v>143</v>
-      </c>
-      <c r="H103" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="I103" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="J103" s="115" t="s">
-        <v>262</v>
-      </c>
-      <c r="K103" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="L103" s="113">
+      <c r="L103" s="72">
         <v>2</v>
       </c>
     </row>
@@ -6924,37 +6728,37 @@
       <c r="A104" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="109" t="s">
-        <v>297</v>
-      </c>
-      <c r="C104" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="141" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="141" t="s">
-        <v>154</v>
-      </c>
-      <c r="G104" s="142" t="s">
-        <v>143</v>
-      </c>
-      <c r="H104" s="142" t="s">
-        <v>35</v>
+      <c r="B104" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H104" s="72" t="s">
+        <v>33</v>
       </c>
       <c r="I104" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J104" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K104" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="L104" s="142">
+        <v>308</v>
+      </c>
+      <c r="L104" s="72">
         <v>2</v>
       </c>
     </row>
@@ -6963,461 +6767,461 @@
         <v>3</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C105" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="140" t="s">
-        <v>100</v>
+        <v>469</v>
+      </c>
+      <c r="C105" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="70" t="s">
+        <v>98</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F105" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="K105" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="L105" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="F106" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="G106" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H106" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" s="107" t="s">
+        <v>262</v>
+      </c>
+      <c r="J106" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="K106" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="L106" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="F107" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="J107" s="96" t="s">
+        <v>266</v>
+      </c>
+      <c r="K107" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="L107" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="F108" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="J108" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="K108" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="L108" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="F109" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H109" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="J109" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="K109" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="L109" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="G110" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H110" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="J110" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="K110" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="L110" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="104" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H111" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="J111" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="K111" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="L111" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="G112" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="J112" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="K112" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="L112" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="F113" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="G113" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H113" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" s="107" t="s">
+        <v>296</v>
+      </c>
+      <c r="J113" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="K113" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="L113" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D114" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="G105" s="142" t="s">
-        <v>143</v>
-      </c>
-      <c r="H105" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="I105" s="150" t="s">
-        <v>282</v>
-      </c>
-      <c r="J105" s="151" t="s">
-        <v>309</v>
-      </c>
-      <c r="K105" s="151" t="s">
-        <v>310</v>
-      </c>
-      <c r="L105" s="142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E106" s="131" t="s">
-        <v>247</v>
-      </c>
-      <c r="F106" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G106" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="H106" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I106" s="135" t="s">
-        <v>264</v>
-      </c>
-      <c r="J106" s="122" t="s">
-        <v>265</v>
-      </c>
-      <c r="K106" s="122" t="s">
-        <v>266</v>
-      </c>
-      <c r="L106" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="134" t="s">
-        <v>160</v>
-      </c>
-      <c r="C107" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E107" s="131" t="s">
-        <v>261</v>
-      </c>
-      <c r="F107" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G107" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H107" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I107" s="135" t="s">
-        <v>267</v>
-      </c>
-      <c r="J107" s="122" t="s">
-        <v>268</v>
-      </c>
-      <c r="K107" s="122" t="s">
-        <v>269</v>
-      </c>
-      <c r="L107" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="C108" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D108" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E108" s="131" t="s">
-        <v>199</v>
-      </c>
-      <c r="F108" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="G108" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H108" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I108" s="135" t="s">
-        <v>270</v>
-      </c>
-      <c r="J108" s="122" t="s">
-        <v>271</v>
-      </c>
-      <c r="K108" s="122" t="s">
-        <v>272</v>
-      </c>
-      <c r="L108" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E109" s="131" t="s">
-        <v>254</v>
-      </c>
-      <c r="F109" s="131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H109" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I109" s="135" t="s">
-        <v>273</v>
-      </c>
-      <c r="J109" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="K109" s="122" t="s">
-        <v>275</v>
-      </c>
-      <c r="L109" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="134" t="s">
-        <v>163</v>
-      </c>
-      <c r="C110" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E110" s="131" t="s">
-        <v>240</v>
-      </c>
-      <c r="F110" s="131" t="s">
-        <v>192</v>
-      </c>
-      <c r="G110" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H110" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I110" s="135" t="s">
-        <v>276</v>
-      </c>
-      <c r="J110" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="K110" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="L110" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="131" t="s">
-        <v>233</v>
-      </c>
-      <c r="F111" s="131" t="s">
-        <v>181</v>
-      </c>
-      <c r="G111" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H111" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I111" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="J111" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="K111" s="136" t="s">
-        <v>281</v>
-      </c>
-      <c r="L111" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E112" s="137" t="s">
-        <v>311</v>
-      </c>
-      <c r="F112" s="137" t="s">
-        <v>146</v>
-      </c>
-      <c r="G112" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H112" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I112" s="138" t="s">
-        <v>282</v>
-      </c>
-      <c r="J112" s="139" t="s">
-        <v>283</v>
-      </c>
-      <c r="K112" s="139" t="s">
-        <v>284</v>
-      </c>
-      <c r="L112" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="134" t="s">
-        <v>296</v>
-      </c>
-      <c r="C113" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="F113" s="131" t="s">
-        <v>157</v>
-      </c>
-      <c r="G113" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H113" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I113" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="J113" s="122" t="s">
-        <v>299</v>
-      </c>
-      <c r="K113" s="122" t="s">
+      <c r="F114" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="G114" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="107" t="s">
         <v>300</v>
       </c>
-      <c r="L113" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="134" t="s">
+      <c r="J114" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="C114" s="130" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="E114" s="131" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="131" t="s">
-        <v>151</v>
-      </c>
-      <c r="G114" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="H114" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="I114" s="135" t="s">
+      <c r="K114" s="108" t="s">
         <v>302</v>
       </c>
-      <c r="J114" s="136" t="s">
+      <c r="L114" s="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="K114" s="136" t="s">
+      <c r="C115" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F115" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="G115" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="H115" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="L114" s="133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="143" t="s">
+      <c r="J115" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="C115" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E115" s="144" t="s">
-        <v>155</v>
-      </c>
-      <c r="F115" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G115" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="H115" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I115" s="145" t="s">
+      <c r="K115" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="J115" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="K115" s="145" t="s">
-        <v>308</v>
-      </c>
-      <c r="L115" s="120">
+      <c r="L115" s="94">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="B116" s="143" t="s">
-        <v>472</v>
-      </c>
-      <c r="C116" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="E116" s="144" t="s">
-        <v>471</v>
-      </c>
-      <c r="F116" s="144" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="H116" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I116" s="152" t="s">
+      <c r="A116" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="C116" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="F116" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G116" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="J116" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="K116" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="J116" s="152" t="s">
-        <v>307</v>
-      </c>
-      <c r="K116" s="152" t="s">
-        <v>308</v>
-      </c>
-      <c r="L116" s="120">
+      <c r="L116" s="94">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7429,19 +7233,19 @@
     </row>
     <row r="120" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C120" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E120" s="51" t="s">
         <v>90</v>
-      </c>
-      <c r="D120" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E120" s="51" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -7449,7 +7253,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C121" s="3">
         <v>11</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="478">
   <si>
     <t>[sku]</t>
   </si>
@@ -1452,6 +1452,12 @@
   </si>
   <si>
     <t>trash_eater_better</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_35_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_35_DESC_SHORT</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1988,15 +1994,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,6 +2088,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2116,7 +2123,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2649,27 +2656,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2689,6 +2679,13 @@
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2705,32 +2702,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L115" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L116" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L116"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="3" name="[type]" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="11" name="[category]" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="4" name="[param1]" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="[param2]" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="6" name="[icon]" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="[miniIcon]" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="[tidDesc]" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="[tidDescShort]" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="[level]" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3004,8 +3001,8 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="H85" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,7 +3871,7 @@
       <c r="G25" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="78" t="s">
         <v>37</v>
       </c>
       <c r="I25" s="31" t="s">
@@ -3886,7 +3883,7 @@
       <c r="K25" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="L25" s="81">
+      <c r="L25" s="78">
         <v>0</v>
       </c>
     </row>
@@ -3910,7 +3907,7 @@
       <c r="G26" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="78" t="s">
         <v>37</v>
       </c>
       <c r="I26" s="31" t="s">
@@ -3922,7 +3919,7 @@
       <c r="K26" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="L26" s="81">
+      <c r="L26" s="78">
         <v>0</v>
       </c>
     </row>
@@ -3948,7 +3945,7 @@
       <c r="G27" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="78" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="31" t="s">
@@ -3960,7 +3957,7 @@
       <c r="K27" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="L27" s="81">
+      <c r="L27" s="78">
         <v>0</v>
       </c>
     </row>
@@ -4986,7 +4983,7 @@
       <c r="G56" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="78" t="s">
         <v>33</v>
       </c>
       <c r="I56" s="31" t="s">
@@ -4998,7 +4995,7 @@
       <c r="K56" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="L56" s="81">
+      <c r="L56" s="78">
         <v>0</v>
       </c>
     </row>
@@ -5012,7 +5009,7 @@
       <c r="C57" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="79" t="s">
         <v>99</v>
       </c>
       <c r="E57" s="30"/>
@@ -5020,7 +5017,7 @@
       <c r="G57" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="78" t="s">
         <v>33</v>
       </c>
       <c r="I57" s="31" t="s">
@@ -5032,7 +5029,7 @@
       <c r="K57" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="L57" s="81">
+      <c r="L57" s="78">
         <v>0</v>
       </c>
     </row>
@@ -5046,7 +5043,7 @@
       <c r="C58" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="79" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="30"/>
@@ -5054,7 +5051,7 @@
       <c r="G58" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="H58" s="81" t="s">
+      <c r="H58" s="78" t="s">
         <v>33</v>
       </c>
       <c r="I58" s="31" t="s">
@@ -5066,7 +5063,7 @@
       <c r="K58" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="L58" s="81">
+      <c r="L58" s="78">
         <v>0</v>
       </c>
     </row>
@@ -5074,13 +5071,13 @@
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="80" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="81" t="s">
         <v>99</v>
       </c>
       <c r="E59" s="71"/>
@@ -5091,13 +5088,13 @@
       <c r="H59" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="85" t="s">
+      <c r="I59" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="J59" s="86" t="s">
+      <c r="J59" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K59" s="87" t="s">
+      <c r="K59" s="84" t="s">
         <v>111</v>
       </c>
       <c r="L59" s="72">
@@ -5105,10 +5102,10 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="83" t="s">
+      <c r="A60" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="80" t="s">
         <v>112</v>
       </c>
       <c r="C60" s="70" t="s">
@@ -5125,7 +5122,7 @@
       <c r="H60" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I60" s="85" t="s">
+      <c r="I60" s="82" t="s">
         <v>113</v>
       </c>
       <c r="J60" s="32" t="s">
@@ -5253,21 +5250,21 @@
       <c r="D64" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
       <c r="G64" s="28" t="s">
         <v>141</v>
       </c>
       <c r="H64" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="I64" s="90" t="s">
+      <c r="I64" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="J64" s="86" t="s">
+      <c r="J64" s="83" t="s">
         <v>461</v>
       </c>
-      <c r="K64" s="87" t="s">
+      <c r="K64" s="84" t="s">
         <v>462</v>
       </c>
       <c r="L64" s="59">
@@ -5347,582 +5344,582 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
+      <c r="A67" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="93">
+      <c r="D67" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="90">
         <v>150</v>
       </c>
-      <c r="F67" s="93"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="94" t="s">
+      <c r="H67" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="95" t="s">
+      <c r="I67" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="J67" s="96" t="s">
+      <c r="J67" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="K67" s="96" t="s">
+      <c r="K67" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="L67" s="94">
+      <c r="L67" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="91" t="s">
+      <c r="A68" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B68" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="92" t="s">
+      <c r="C68" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="93">
+      <c r="D68" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="90">
         <v>70</v>
       </c>
-      <c r="F68" s="93"/>
+      <c r="F68" s="90"/>
       <c r="G68" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H68" s="94" t="s">
+      <c r="H68" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="95" t="s">
+      <c r="I68" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="J68" s="96" t="s">
+      <c r="J68" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="K68" s="96" t="s">
+      <c r="K68" s="93" t="s">
         <v>283</v>
       </c>
-      <c r="L68" s="94">
+      <c r="L68" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B69" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E69" s="93">
+      <c r="D69" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="90">
         <v>100</v>
       </c>
-      <c r="F69" s="93"/>
+      <c r="F69" s="90"/>
       <c r="G69" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H69" s="94" t="s">
+      <c r="H69" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I69" s="95" t="s">
+      <c r="I69" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="96" t="s">
+      <c r="J69" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="K69" s="96" t="s">
+      <c r="K69" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="L69" s="94">
+      <c r="L69" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" s="97" t="s">
+      <c r="A70" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="C70" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="93">
+      <c r="D70" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="90">
         <v>75</v>
       </c>
-      <c r="F70" s="93"/>
+      <c r="F70" s="90"/>
       <c r="G70" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="H70" s="94" t="s">
+      <c r="H70" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="95" t="s">
+      <c r="I70" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="J70" s="96" t="s">
+      <c r="J70" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="K70" s="96" t="s">
+      <c r="K70" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="L70" s="94">
+      <c r="L70" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="97" t="s">
+      <c r="A71" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="92" t="s">
+      <c r="C71" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="93">
+      <c r="D71" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="90">
         <v>50</v>
       </c>
-      <c r="F71" s="93"/>
+      <c r="F71" s="90"/>
       <c r="G71" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="H71" s="94" t="s">
+      <c r="H71" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I71" s="95" t="s">
+      <c r="I71" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="96" t="s">
+      <c r="J71" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="K71" s="96" t="s">
+      <c r="K71" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="L71" s="94">
+      <c r="L71" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="97" t="s">
+      <c r="A72" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" s="93">
+      <c r="D72" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" s="90">
         <v>30</v>
       </c>
-      <c r="F72" s="93"/>
+      <c r="F72" s="90"/>
       <c r="G72" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="H72" s="94" t="s">
+      <c r="H72" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I72" s="95" t="s">
+      <c r="I72" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="J72" s="96" t="s">
+      <c r="J72" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="K72" s="96" t="s">
+      <c r="K72" s="93" t="s">
         <v>285</v>
       </c>
-      <c r="L72" s="94">
+      <c r="L72" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="97" t="s">
+      <c r="A73" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="92" t="s">
+      <c r="D73" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
       <c r="G73" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="H73" s="94" t="s">
+      <c r="H73" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I73" s="95" t="s">
+      <c r="I73" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="96" t="s">
+      <c r="J73" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="K73" s="96" t="s">
+      <c r="K73" s="93" t="s">
         <v>286</v>
       </c>
-      <c r="L73" s="94">
+      <c r="L73" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="91" t="s">
+      <c r="A74" s="88" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="93">
+      <c r="D74" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="90">
         <v>25</v>
       </c>
-      <c r="F74" s="93"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="H74" s="94" t="s">
+      <c r="H74" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="95" t="s">
+      <c r="I74" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J74" s="96" t="s">
+      <c r="J74" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="K74" s="96" t="s">
+      <c r="K74" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="L74" s="94">
+      <c r="L74" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="97" t="s">
+      <c r="A75" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E75" s="93">
+      <c r="D75" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="90">
         <v>15</v>
       </c>
-      <c r="F75" s="93"/>
+      <c r="F75" s="90"/>
       <c r="G75" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="H75" s="94" t="s">
+      <c r="H75" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I75" s="95" t="s">
+      <c r="I75" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J75" s="96" t="s">
+      <c r="J75" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="K75" s="96" t="s">
+      <c r="K75" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="L75" s="94">
+      <c r="L75" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="97" t="s">
+      <c r="A76" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="92" t="s">
+      <c r="C76" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E76" s="93" t="s">
+      <c r="D76" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="93">
+      <c r="F76" s="90">
         <v>100</v>
       </c>
       <c r="G76" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H76" s="94" t="s">
+      <c r="H76" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I76" s="95" t="s">
+      <c r="I76" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J76" s="96" t="s">
+      <c r="J76" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="K76" s="96" t="s">
+      <c r="K76" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="L76" s="94">
+      <c r="L76" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="97" t="s">
+      <c r="A77" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="92" t="s">
+      <c r="C77" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="93" t="s">
+      <c r="D77" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="93">
+      <c r="F77" s="90">
         <v>50</v>
       </c>
       <c r="G77" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H77" s="94" t="s">
+      <c r="H77" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I77" s="95" t="s">
+      <c r="I77" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="J77" s="96" t="s">
+      <c r="J77" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="K77" s="96" t="s">
+      <c r="K77" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="L77" s="94">
+      <c r="L77" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="97" t="s">
+      <c r="A78" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D78" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E78" s="93" t="s">
+      <c r="D78" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="93">
+      <c r="F78" s="90">
         <v>35</v>
       </c>
       <c r="G78" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H78" s="94" t="s">
+      <c r="H78" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I78" s="95" t="s">
+      <c r="I78" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="J78" s="96" t="s">
+      <c r="J78" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="K78" s="96" t="s">
+      <c r="K78" s="93" t="s">
         <v>288</v>
       </c>
-      <c r="L78" s="94">
+      <c r="L78" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="99" t="s">
+      <c r="A79" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C79" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="101">
+      <c r="D79" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="98">
         <v>50</v>
       </c>
-      <c r="F79" s="101"/>
+      <c r="F79" s="98"/>
       <c r="G79" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="H79" s="94" t="s">
+      <c r="H79" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="95" t="s">
+      <c r="I79" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="J79" s="96" t="s">
+      <c r="J79" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="K79" s="96" t="s">
+      <c r="K79" s="93" t="s">
         <v>289</v>
       </c>
-      <c r="L79" s="94">
+      <c r="L79" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="97" t="s">
+      <c r="A80" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="92" t="s">
+      <c r="C80" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="93">
+      <c r="D80" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="90">
         <v>25</v>
       </c>
-      <c r="F80" s="93"/>
+      <c r="F80" s="90"/>
       <c r="G80" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="H80" s="94" t="s">
+      <c r="H80" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I80" s="95" t="s">
+      <c r="I80" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="J80" s="96" t="s">
+      <c r="J80" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="K80" s="96" t="s">
+      <c r="K80" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="L80" s="94">
+      <c r="L80" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="97" t="s">
+      <c r="A81" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="93">
+      <c r="D81" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" s="90">
         <v>15</v>
       </c>
-      <c r="F81" s="93"/>
+      <c r="F81" s="90"/>
       <c r="G81" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="H81" s="94" t="s">
+      <c r="H81" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I81" s="95" t="s">
+      <c r="I81" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="J81" s="96" t="s">
+      <c r="J81" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="K81" s="96" t="s">
+      <c r="K81" s="93" t="s">
         <v>290</v>
       </c>
-      <c r="L81" s="94">
+      <c r="L81" s="91">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="103" t="s">
+      <c r="C82" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E82" s="104">
+      <c r="D82" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" s="101">
         <v>20</v>
       </c>
-      <c r="F82" s="104"/>
+      <c r="F82" s="101"/>
       <c r="G82" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="H82" s="105" t="s">
+      <c r="H82" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="95" t="s">
+      <c r="I82" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="J82" s="96" t="s">
+      <c r="J82" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="K82" s="96" t="s">
+      <c r="K82" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="L82" s="105">
+      <c r="L82" s="102">
         <v>1</v>
       </c>
     </row>
@@ -5930,7 +5927,7 @@
       <c r="A83" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B83" s="83" t="s">
+      <c r="B83" s="80" t="s">
         <v>193</v>
       </c>
       <c r="C83" s="70" t="s">
@@ -5951,7 +5948,7 @@
       <c r="H83" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I83" s="85" t="s">
+      <c r="I83" s="82" t="s">
         <v>194</v>
       </c>
       <c r="J83" s="32" t="s">
@@ -5968,7 +5965,7 @@
       <c r="A84" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="83" t="s">
+      <c r="B84" s="80" t="s">
         <v>197</v>
       </c>
       <c r="C84" s="70" t="s">
@@ -5989,7 +5986,7 @@
       <c r="H84" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I84" s="85" t="s">
+      <c r="I84" s="82" t="s">
         <v>194</v>
       </c>
       <c r="J84" s="32" t="s">
@@ -6006,7 +6003,7 @@
       <c r="A85" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="80" t="s">
         <v>200</v>
       </c>
       <c r="C85" s="70" t="s">
@@ -6027,7 +6024,7 @@
       <c r="H85" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I85" s="85" t="s">
+      <c r="I85" s="82" t="s">
         <v>201</v>
       </c>
       <c r="J85" s="32" t="s">
@@ -6044,7 +6041,7 @@
       <c r="A86" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="83" t="s">
+      <c r="B86" s="80" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="70" t="s">
@@ -6065,7 +6062,7 @@
       <c r="H86" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I86" s="85" t="s">
+      <c r="I86" s="82" t="s">
         <v>204</v>
       </c>
       <c r="J86" s="32" t="s">
@@ -6082,7 +6079,7 @@
       <c r="A87" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="83" t="s">
+      <c r="B87" s="80" t="s">
         <v>207</v>
       </c>
       <c r="C87" s="70" t="s">
@@ -6103,7 +6100,7 @@
       <c r="H87" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I87" s="85" t="s">
+      <c r="I87" s="82" t="s">
         <v>208</v>
       </c>
       <c r="J87" s="32" t="s">
@@ -6120,7 +6117,7 @@
       <c r="A88" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="83" t="s">
+      <c r="B88" s="80" t="s">
         <v>147</v>
       </c>
       <c r="C88" s="70" t="s">
@@ -6141,7 +6138,7 @@
       <c r="H88" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I88" s="85" t="s">
+      <c r="I88" s="82" t="s">
         <v>211</v>
       </c>
       <c r="J88" s="32" t="s">
@@ -6158,7 +6155,7 @@
       <c r="A89" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="83" t="s">
+      <c r="B89" s="80" t="s">
         <v>214</v>
       </c>
       <c r="C89" s="70" t="s">
@@ -6179,7 +6176,7 @@
       <c r="H89" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I89" s="85" t="s">
+      <c r="I89" s="82" t="s">
         <v>215</v>
       </c>
       <c r="J89" s="32" t="s">
@@ -6196,7 +6193,7 @@
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="83" t="s">
+      <c r="B90" s="80" t="s">
         <v>153</v>
       </c>
       <c r="C90" s="70" t="s">
@@ -6217,7 +6214,7 @@
       <c r="H90" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I90" s="85" t="s">
+      <c r="I90" s="82" t="s">
         <v>218</v>
       </c>
       <c r="J90" s="32" t="s">
@@ -6255,7 +6252,7 @@
       <c r="H91" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I91" s="85" t="s">
+      <c r="I91" s="82" t="s">
         <v>221</v>
       </c>
       <c r="J91" s="32" t="s">
@@ -6293,7 +6290,7 @@
       <c r="H92" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I92" s="85" t="s">
+      <c r="I92" s="82" t="s">
         <v>221</v>
       </c>
       <c r="J92" s="32" t="s">
@@ -6310,7 +6307,7 @@
       <c r="A93" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="83" t="s">
+      <c r="B93" s="80" t="s">
         <v>150</v>
       </c>
       <c r="C93" s="70" t="s">
@@ -6331,7 +6328,7 @@
       <c r="H93" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I93" s="85" t="s">
+      <c r="I93" s="82" t="s">
         <v>224</v>
       </c>
       <c r="J93" s="32" t="s">
@@ -6348,7 +6345,7 @@
       <c r="A94" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="83" t="s">
+      <c r="B94" s="80" t="s">
         <v>227</v>
       </c>
       <c r="C94" s="70" t="s">
@@ -6369,7 +6366,7 @@
       <c r="H94" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I94" s="85" t="s">
+      <c r="I94" s="82" t="s">
         <v>228</v>
       </c>
       <c r="J94" s="32" t="s">
@@ -6386,7 +6383,7 @@
       <c r="A95" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="83" t="s">
+      <c r="B95" s="80" t="s">
         <v>231</v>
       </c>
       <c r="C95" s="70" t="s">
@@ -6407,7 +6404,7 @@
       <c r="H95" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I95" s="85" t="s">
+      <c r="I95" s="82" t="s">
         <v>228</v>
       </c>
       <c r="J95" s="32" t="s">
@@ -6424,7 +6421,7 @@
       <c r="A96" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="83" t="s">
+      <c r="B96" s="80" t="s">
         <v>234</v>
       </c>
       <c r="C96" s="70" t="s">
@@ -6445,7 +6442,7 @@
       <c r="H96" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I96" s="85" t="s">
+      <c r="I96" s="82" t="s">
         <v>235</v>
       </c>
       <c r="J96" s="32" t="s">
@@ -6462,7 +6459,7 @@
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="83" t="s">
+      <c r="B97" s="80" t="s">
         <v>238</v>
       </c>
       <c r="C97" s="70" t="s">
@@ -6483,7 +6480,7 @@
       <c r="H97" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I97" s="85" t="s">
+      <c r="I97" s="82" t="s">
         <v>235</v>
       </c>
       <c r="J97" s="32" t="s">
@@ -6500,7 +6497,7 @@
       <c r="A98" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="83" t="s">
+      <c r="B98" s="80" t="s">
         <v>241</v>
       </c>
       <c r="C98" s="70" t="s">
@@ -6521,7 +6518,7 @@
       <c r="H98" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I98" s="85" t="s">
+      <c r="I98" s="82" t="s">
         <v>242</v>
       </c>
       <c r="J98" s="32" t="s">
@@ -6538,7 +6535,7 @@
       <c r="A99" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="80" t="s">
         <v>245</v>
       </c>
       <c r="C99" s="70" t="s">
@@ -6559,7 +6556,7 @@
       <c r="H99" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I99" s="85" t="s">
+      <c r="I99" s="82" t="s">
         <v>242</v>
       </c>
       <c r="J99" s="32" t="s">
@@ -6576,7 +6573,7 @@
       <c r="A100" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="83" t="s">
+      <c r="B100" s="80" t="s">
         <v>248</v>
       </c>
       <c r="C100" s="70" t="s">
@@ -6597,7 +6594,7 @@
       <c r="H100" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I100" s="85" t="s">
+      <c r="I100" s="82" t="s">
         <v>249</v>
       </c>
       <c r="J100" s="32" t="s">
@@ -6614,7 +6611,7 @@
       <c r="A101" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="83" t="s">
+      <c r="B101" s="80" t="s">
         <v>252</v>
       </c>
       <c r="C101" s="70" t="s">
@@ -6635,7 +6632,7 @@
       <c r="H101" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I101" s="85" t="s">
+      <c r="I101" s="82" t="s">
         <v>249</v>
       </c>
       <c r="J101" s="32" t="s">
@@ -6652,7 +6649,7 @@
       <c r="A102" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="80" t="s">
         <v>255</v>
       </c>
       <c r="C102" s="70" t="s">
@@ -6673,7 +6670,7 @@
       <c r="H102" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I102" s="85" t="s">
+      <c r="I102" s="82" t="s">
         <v>256</v>
       </c>
       <c r="J102" s="32" t="s">
@@ -6690,7 +6687,7 @@
       <c r="A103" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="83" t="s">
+      <c r="B103" s="80" t="s">
         <v>259</v>
       </c>
       <c r="C103" s="70" t="s">
@@ -6711,7 +6708,7 @@
       <c r="H103" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I103" s="85" t="s">
+      <c r="I103" s="82" t="s">
         <v>256</v>
       </c>
       <c r="J103" s="32" t="s">
@@ -6728,7 +6725,7 @@
       <c r="A104" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="83" t="s">
+      <c r="B104" s="80" t="s">
         <v>295</v>
       </c>
       <c r="C104" s="70" t="s">
@@ -6787,13 +6784,13 @@
       <c r="H105" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I105" s="77" t="s">
+      <c r="I105" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="J105" s="78" t="s">
+      <c r="J105" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="K105" s="78" t="s">
+      <c r="K105" s="20" t="s">
         <v>308</v>
       </c>
       <c r="L105" s="72">
@@ -6801,244 +6798,244 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="106" t="s">
+      <c r="A106" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="C106" s="103" t="s">
+      <c r="C106" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E106" s="104" t="s">
+      <c r="D106" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="F106" s="104" t="s">
+      <c r="F106" s="101" t="s">
         <v>144</v>
       </c>
       <c r="G106" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H106" s="105" t="s">
+      <c r="H106" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I106" s="107" t="s">
+      <c r="I106" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="J106" s="96" t="s">
+      <c r="J106" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="K106" s="96" t="s">
+      <c r="K106" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="L106" s="105">
+      <c r="L106" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107" s="106" t="s">
+      <c r="A107" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="103" t="s">
+      <c r="C107" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D107" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="104" t="s">
+      <c r="D107" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="F107" s="104" t="s">
+      <c r="F107" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G107" s="105" t="s">
+      <c r="G107" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H107" s="105" t="s">
+      <c r="H107" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I107" s="107" t="s">
+      <c r="I107" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="J107" s="96" t="s">
+      <c r="J107" s="93" t="s">
         <v>266</v>
       </c>
-      <c r="K107" s="96" t="s">
+      <c r="K107" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="L107" s="105">
+      <c r="L107" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="106" t="s">
+      <c r="A108" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="103" t="s">
+      <c r="C108" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D108" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E108" s="104" t="s">
+      <c r="D108" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="F108" s="104" t="s">
+      <c r="F108" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="G108" s="105" t="s">
+      <c r="G108" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H108" s="105" t="s">
+      <c r="H108" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I108" s="107" t="s">
+      <c r="I108" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="J108" s="96" t="s">
+      <c r="J108" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="K108" s="96" t="s">
+      <c r="K108" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="L108" s="105">
+      <c r="L108" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109" s="106" t="s">
+      <c r="A109" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="103" t="s">
+      <c r="C109" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D109" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E109" s="104" t="s">
+      <c r="D109" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="F109" s="104" t="s">
+      <c r="F109" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G109" s="105" t="s">
+      <c r="G109" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H109" s="105" t="s">
+      <c r="H109" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I109" s="107" t="s">
+      <c r="I109" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="J109" s="96" t="s">
+      <c r="J109" s="93" t="s">
         <v>272</v>
       </c>
-      <c r="K109" s="96" t="s">
+      <c r="K109" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="L109" s="105">
+      <c r="L109" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="106" t="s">
+      <c r="A110" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="103" t="s">
+      <c r="C110" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D110" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" s="104" t="s">
+      <c r="D110" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E110" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="F110" s="104" t="s">
+      <c r="F110" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="G110" s="105" t="s">
+      <c r="G110" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H110" s="105" t="s">
+      <c r="H110" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I110" s="107" t="s">
+      <c r="I110" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="J110" s="96" t="s">
+      <c r="J110" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="K110" s="96" t="s">
+      <c r="K110" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="L110" s="105">
+      <c r="L110" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="106" t="s">
+      <c r="A111" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="103" t="s">
+      <c r="C111" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D111" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="104" t="s">
+      <c r="D111" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="F111" s="104" t="s">
+      <c r="F111" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="G111" s="105" t="s">
+      <c r="G111" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H111" s="105" t="s">
+      <c r="H111" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I111" s="107" t="s">
+      <c r="I111" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="108" t="s">
+      <c r="J111" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="K111" s="108" t="s">
+      <c r="K111" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="L111" s="105">
+      <c r="L111" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="102" t="s">
+      <c r="A112" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B112" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="C112" s="103" t="s">
+      <c r="C112" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="103" t="s">
+      <c r="D112" s="100" t="s">
         <v>98</v>
       </c>
       <c r="E112" s="67" t="s">
@@ -7047,10 +7044,10 @@
       <c r="F112" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="G112" s="105" t="s">
+      <c r="G112" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H112" s="105" t="s">
+      <c r="H112" s="102" t="s">
         <v>33</v>
       </c>
       <c r="I112" s="68" t="s">
@@ -7062,97 +7059,97 @@
       <c r="K112" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="L112" s="105">
+      <c r="L112" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113" s="106" t="s">
+      <c r="A113" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="103" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="103" t="s">
+      <c r="C113" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D113" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E113" s="104" t="s">
+      <c r="D113" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="F113" s="104" t="s">
+      <c r="F113" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="G113" s="105" t="s">
+      <c r="G113" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H113" s="105" t="s">
+      <c r="H113" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I113" s="107" t="s">
+      <c r="I113" s="104" t="s">
         <v>296</v>
       </c>
-      <c r="J113" s="96" t="s">
+      <c r="J113" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="K113" s="96" t="s">
+      <c r="K113" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="L113" s="105">
+      <c r="L113" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="106" t="s">
+      <c r="A114" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="103" t="s">
         <v>299</v>
       </c>
-      <c r="C114" s="103" t="s">
+      <c r="C114" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D114" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E114" s="104" t="s">
+      <c r="D114" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E114" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="F114" s="104" t="s">
+      <c r="F114" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="G114" s="105" t="s">
+      <c r="G114" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="H114" s="105" t="s">
+      <c r="H114" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I114" s="107" t="s">
+      <c r="I114" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="J114" s="108" t="s">
+      <c r="J114" s="105" t="s">
         <v>301</v>
       </c>
-      <c r="K114" s="108" t="s">
+      <c r="K114" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="L114" s="105">
+      <c r="L114" s="102">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="80" t="s">
+      <c r="A115" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B115" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="C115" s="100" t="s">
+      <c r="C115" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D115" s="100" t="s">
+      <c r="D115" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E115" s="74" t="s">
@@ -7161,10 +7158,10 @@
       <c r="F115" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="G115" s="94" t="s">
+      <c r="G115" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="H115" s="94" t="s">
+      <c r="H115" s="91" t="s">
         <v>33</v>
       </c>
       <c r="I115" s="75" t="s">
@@ -7176,21 +7173,21 @@
       <c r="K115" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="L115" s="94">
+      <c r="L115" s="91">
         <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="80" t="s">
+      <c r="A116" s="77" t="s">
         <v>3</v>
       </c>
       <c r="B116" s="73" t="s">
         <v>470</v>
       </c>
-      <c r="C116" s="100" t="s">
+      <c r="C116" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="100" t="s">
+      <c r="D116" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E116" s="74" t="s">
@@ -7199,22 +7196,22 @@
       <c r="F116" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G116" s="94" t="s">
+      <c r="G116" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="H116" s="94" t="s">
+      <c r="H116" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="I116" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="J116" s="79" t="s">
-        <v>305</v>
-      </c>
-      <c r="K116" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="L116" s="94">
+      <c r="I116" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="J116" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="K116" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="L116" s="91">
         <v>3</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="490">
   <si>
     <t>[sku]</t>
   </si>
@@ -1458,13 +1458,49 @@
   </si>
   <si>
     <t>TID_POWERUP_DISGUISE_35_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_fury_size_dive_hp</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_36_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_36_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_36_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>transform_gold_LOW</t>
+  </si>
+  <si>
+    <t>disguise_furyDuration_hp_transform_gold</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_TRANSFORM_GOLD_LOW_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_TRANSFORM_GOLD_LOW_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_37_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_38_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_38_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_38_DESC_SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1563,19 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1784,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,6 +2130,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2702,8 +2790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L116" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L116"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L119" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L119"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -2999,10 +3087,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H85" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="H80" workbookViewId="0">
+      <selection activeCell="K119" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,50 +7303,162 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C117" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D117" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E117" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="G117" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="H117" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" s="110" t="s">
+        <v>479</v>
+      </c>
+      <c r="J117" s="112" t="s">
+        <v>480</v>
+      </c>
+      <c r="K117" s="113" t="s">
+        <v>481</v>
+      </c>
+      <c r="L117" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="C118" s="116" t="s">
+        <v>463</v>
+      </c>
+      <c r="D118" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="117">
+        <v>2</v>
+      </c>
+      <c r="F118" s="117"/>
+      <c r="G118" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="H118" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="J118" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="K118" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="L118" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E119" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="G119" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="H119" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="J119" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="K119" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="L119" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="120" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="123" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C123" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D123" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E120" s="51" t="s">
+      <c r="E123" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B121" s="4" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C124" s="3">
         <v>11</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D124" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E124" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="489">
   <si>
     <t>[sku]</t>
   </si>
@@ -1478,22 +1478,19 @@
     <t>disguise_furyDuration_hp_transform_gold</t>
   </si>
   <si>
-    <t>TID_POWERUP_TRANSFORM_GOLD_LOW_NAME</t>
-  </si>
-  <si>
-    <t>TID_POWERUP_TRANSFORM_GOLD_LOW_DESC_SHORT</t>
-  </si>
-  <si>
-    <t>TID_POWERUP_DISGUISE_37_DESC</t>
-  </si>
-  <si>
-    <t>TID_POWERUP_DISGUISE_38_DESC</t>
-  </si>
-  <si>
-    <t>TID_POWERUP_DISGUISE_38_NAME</t>
-  </si>
-  <si>
-    <t>TID_POWERUP_DISGUISE_38_DESC_SHORT</t>
+    <t>TID_POWERUP_DISGUISE_37_NAME</t>
+  </si>
+  <si>
+    <t>disguise_furyDuration_hp_transform_gold_LOW</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_39_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_39_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_39_DESC_SHORT</t>
   </si>
 </sst>
 </file>
@@ -2790,8 +2787,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L119" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L120" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L120"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3087,10 +3084,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H80" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7355,7 +7352,7 @@
         <v>99</v>
       </c>
       <c r="E118" s="117">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F118" s="117"/>
       <c r="G118" s="118" t="s">
@@ -7364,17 +7361,17 @@
       <c r="H118" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="I118" s="19" t="s">
+      <c r="I118" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="J118" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="K118" s="29" t="s">
-        <v>485</v>
+      <c r="J118" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K118" s="33" t="s">
+        <v>456</v>
       </c>
       <c r="L118" s="91">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -7402,63 +7399,101 @@
       <c r="H119" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I119" s="47" t="s">
-        <v>488</v>
+      <c r="I119" s="110" t="s">
+        <v>486</v>
       </c>
       <c r="J119" s="48" t="s">
         <v>487</v>
       </c>
       <c r="K119" s="49" t="s">
-        <v>489</v>
-      </c>
-      <c r="L119" s="102">
+        <v>488</v>
+      </c>
+      <c r="L119" s="91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="C120" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="D120" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E120" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="F120" s="108" t="s">
+        <v>482</v>
+      </c>
+      <c r="G120" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="H120" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" s="110" t="s">
+        <v>486</v>
+      </c>
+      <c r="J120" s="112" t="s">
+        <v>487</v>
+      </c>
+      <c r="K120" s="113" t="s">
+        <v>488</v>
+      </c>
+      <c r="L120" s="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="124" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="123" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="50" t="s">
+      <c r="C124" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D124" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E123" s="51" t="s">
+      <c r="E124" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="4" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C125" s="3">
         <v>11</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D125" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E125" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="492">
   <si>
     <t>[sku]</t>
   </si>
@@ -1491,6 +1491,15 @@
   </si>
   <si>
     <t>TID_POWERUP_DISGUISE_39_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>baby_fury_duration</t>
+  </si>
+  <si>
+    <t>baby_lower_damage_dragon</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_humans</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1826,11 +1835,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2166,6 +2210,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2787,8 +2858,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L120" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L120"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L123" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L123"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3084,28 +3155,28 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3189,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F2" s="62" t="s">
         <v>134</v>
       </c>
@@ -3126,7 +3197,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="111" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3164,7 +3235,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3200,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -3236,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -3272,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -3308,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3344,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3416,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -3454,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
@@ -3566,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -3602,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
@@ -3710,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
@@ -3748,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -3786,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
@@ -3824,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
@@ -3936,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
@@ -3972,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
@@ -4008,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -4046,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4266,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
@@ -4302,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>3</v>
       </c>
@@ -4340,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
@@ -4376,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4412,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
@@ -4448,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -4484,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
@@ -4520,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
@@ -4556,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
@@ -4592,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4628,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
         <v>3</v>
       </c>
@@ -4700,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -4734,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="45" t="s">
         <v>3</v>
       </c>
@@ -4836,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="45" t="s">
         <v>3</v>
       </c>
@@ -4870,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="45" t="s">
         <v>3</v>
       </c>
@@ -4904,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
@@ -4938,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
@@ -4972,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
@@ -5010,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
@@ -5048,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>3</v>
       </c>
@@ -5084,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
         <v>3</v>
       </c>
@@ -5118,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
@@ -5152,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -5186,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="85" t="s">
         <v>3</v>
       </c>
@@ -5220,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="56" t="s">
         <v>3</v>
       </c>
@@ -5254,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="56" t="s">
         <v>3</v>
       </c>
@@ -5288,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="56" t="s">
         <v>3</v>
       </c>
@@ -5322,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="56" t="s">
         <v>3</v>
       </c>
@@ -5356,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="56" t="s">
         <v>3</v>
       </c>
@@ -5392,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="56" t="s">
         <v>3</v>
       </c>
@@ -5428,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="88" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="88" t="s">
         <v>3</v>
       </c>
@@ -5500,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="88" t="s">
         <v>3</v>
       </c>
@@ -5536,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="88" t="s">
         <v>3</v>
       </c>
@@ -5572,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="88" t="s">
         <v>3</v>
       </c>
@@ -5608,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="88" t="s">
         <v>3</v>
       </c>
@@ -5644,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="88" t="s">
         <v>3</v>
       </c>
@@ -5678,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="88" t="s">
         <v>3</v>
       </c>
@@ -5714,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="88" t="s">
         <v>3</v>
       </c>
@@ -5750,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="88" t="s">
         <v>3</v>
       </c>
@@ -5788,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="88" t="s">
         <v>3</v>
       </c>
@@ -5826,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="88" t="s">
         <v>3</v>
       </c>
@@ -5864,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="95" t="s">
         <v>3</v>
       </c>
@@ -5900,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="88" t="s">
         <v>3</v>
       </c>
@@ -5936,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="88" t="s">
         <v>3</v>
       </c>
@@ -5972,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="99" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="45" t="s">
         <v>3</v>
       </c>
@@ -6046,7 +6117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="45" t="s">
         <v>3</v>
       </c>
@@ -6084,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="45" t="s">
         <v>3</v>
       </c>
@@ -6122,7 +6193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="45" t="s">
         <v>3</v>
       </c>
@@ -6160,7 +6231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="45" t="s">
         <v>3</v>
       </c>
@@ -6198,7 +6269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="45" t="s">
         <v>3</v>
       </c>
@@ -6236,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="45" t="s">
         <v>3</v>
       </c>
@@ -6274,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
@@ -6312,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="45" t="s">
         <v>3</v>
       </c>
@@ -6350,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="45" t="s">
         <v>3</v>
       </c>
@@ -6388,7 +6459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="45" t="s">
         <v>3</v>
       </c>
@@ -6426,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="45" t="s">
         <v>3</v>
       </c>
@@ -6464,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="45" t="s">
         <v>3</v>
       </c>
@@ -6502,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="45" t="s">
         <v>3</v>
       </c>
@@ -6540,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -6578,7 +6649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="45" t="s">
         <v>3</v>
       </c>
@@ -6616,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="45" t="s">
         <v>3</v>
       </c>
@@ -6654,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="45" t="s">
         <v>3</v>
       </c>
@@ -6692,7 +6763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="45" t="s">
         <v>3</v>
       </c>
@@ -6730,7 +6801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="45" t="s">
         <v>3</v>
       </c>
@@ -6768,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="45" t="s">
         <v>3</v>
       </c>
@@ -6806,7 +6877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="45" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="45" t="s">
         <v>3</v>
       </c>
@@ -6882,7 +6953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="99" t="s">
         <v>3</v>
       </c>
@@ -6920,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="99" t="s">
         <v>3</v>
       </c>
@@ -6958,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="99" t="s">
         <v>3</v>
       </c>
@@ -6996,7 +7067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="99" t="s">
         <v>3</v>
       </c>
@@ -7034,7 +7105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="99" t="s">
         <v>3</v>
       </c>
@@ -7072,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="99" t="s">
         <v>3</v>
       </c>
@@ -7110,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="99" t="s">
         <v>3</v>
       </c>
@@ -7148,7 +7219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="99" t="s">
         <v>3</v>
       </c>
@@ -7186,7 +7257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="99" t="s">
         <v>3</v>
       </c>
@@ -7224,7 +7295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="77" t="s">
         <v>3</v>
       </c>
@@ -7262,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="77" t="s">
         <v>3</v>
       </c>
@@ -7300,7 +7371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="111" t="s">
         <v>3</v>
       </c>
@@ -7338,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="114" t="s">
         <v>3</v>
       </c>
@@ -7374,7 +7445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="111" t="s">
         <v>3</v>
       </c>
@@ -7412,7 +7483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
@@ -7450,50 +7521,162 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="121" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" s="120" t="s">
+        <v>489</v>
+      </c>
+      <c r="C121" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E121" s="122">
+        <v>10</v>
+      </c>
+      <c r="F121" s="122"/>
+      <c r="G121" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="I121" s="124" t="s">
+        <v>317</v>
+      </c>
+      <c r="J121" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="K121" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="L121" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A122" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="106" t="s">
+        <v>490</v>
+      </c>
+      <c r="C122" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E122" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="F122" s="108">
+        <v>10</v>
+      </c>
+      <c r="G122" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="H122" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="110" t="s">
+        <v>362</v>
+      </c>
+      <c r="J122" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="K122" s="113" t="s">
+        <v>364</v>
+      </c>
+      <c r="L122" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A123" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="106" t="s">
+        <v>491</v>
+      </c>
+      <c r="C123" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E123" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="F123" s="108">
+        <v>30</v>
+      </c>
+      <c r="G123" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="H123" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="I123" s="110" t="s">
+        <v>347</v>
+      </c>
+      <c r="J123" s="112" t="s">
+        <v>348</v>
+      </c>
+      <c r="K123" s="113" t="s">
+        <v>349</v>
+      </c>
+      <c r="L123" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="125" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-    </row>
-    <row r="124" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="127" spans="1:12" ht="132" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C127" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D127" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E124" s="51" t="s">
+      <c r="E127" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="4" t="s">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C128" s="3">
         <v>11</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D128" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E128" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
   </bookViews>
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="495">
   <si>
     <t>[sku]</t>
   </si>
@@ -1500,6 +1500,15 @@
   </si>
   <si>
     <t>baby_prey_hp_boost_humans</t>
+  </si>
+  <si>
+    <t>baby_transform_food</t>
+  </si>
+  <si>
+    <t>baby_phoenix_better</t>
+  </si>
+  <si>
+    <t>baby_kill_humanoid_burp</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,19 +2233,37 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2858,8 +2885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L123" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L123"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L126" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L126"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3155,28 +3182,28 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126:L126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="47.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3189,7 +3216,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" s="62" t="s">
         <v>134</v>
       </c>
@@ -3197,7 +3224,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="111" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3235,7 +3262,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3271,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -3307,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -3379,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3451,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -3525,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -3563,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -3601,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
@@ -3637,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -3673,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -3709,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
@@ -3781,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
@@ -3819,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -3857,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
@@ -3933,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
@@ -4007,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4043,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
@@ -4079,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -4117,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -4155,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4193,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>3</v>
       </c>
@@ -4231,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -4265,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4337,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
@@ -4373,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>3</v>
       </c>
@@ -4411,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
@@ -4447,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4483,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
@@ -4519,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
@@ -4591,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
@@ -4627,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
@@ -4663,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
@@ -4699,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>3</v>
       </c>
@@ -4771,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -4805,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -4839,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>3</v>
       </c>
@@ -4873,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>3</v>
       </c>
@@ -4907,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>3</v>
       </c>
@@ -4941,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
@@ -5009,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5043,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
@@ -5081,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
@@ -5119,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>3</v>
       </c>
@@ -5155,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>3</v>
       </c>
@@ -5189,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
@@ -5223,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -5257,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>3</v>
       </c>
@@ -5291,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>3</v>
       </c>
@@ -5325,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>3</v>
       </c>
@@ -5359,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>3</v>
       </c>
@@ -5393,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>3</v>
       </c>
@@ -5427,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>3</v>
       </c>
@@ -5463,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>3</v>
       </c>
@@ -5499,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="88" t="s">
         <v>3</v>
       </c>
@@ -5535,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>3</v>
       </c>
@@ -5571,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="88" t="s">
         <v>3</v>
       </c>
@@ -5607,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
         <v>3</v>
       </c>
@@ -5643,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="88" t="s">
         <v>3</v>
       </c>
@@ -5679,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
         <v>3</v>
       </c>
@@ -5715,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
         <v>3</v>
       </c>
@@ -5749,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
         <v>3</v>
       </c>
@@ -5785,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
         <v>3</v>
       </c>
@@ -5821,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
         <v>3</v>
       </c>
@@ -5859,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="88" t="s">
         <v>3</v>
       </c>
@@ -5897,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="88" t="s">
         <v>3</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="95" t="s">
         <v>3</v>
       </c>
@@ -5971,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="88" t="s">
         <v>3</v>
       </c>
@@ -6007,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="88" t="s">
         <v>3</v>
       </c>
@@ -6043,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>3</v>
       </c>
@@ -6079,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="45" t="s">
         <v>3</v>
       </c>
@@ -6117,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="45" t="s">
         <v>3</v>
       </c>
@@ -6155,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
         <v>3</v>
       </c>
@@ -6231,7 +6258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="45" t="s">
         <v>3</v>
       </c>
@@ -6269,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
         <v>3</v>
       </c>
@@ -6307,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>3</v>
       </c>
@@ -6345,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +6410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>3</v>
       </c>
@@ -6421,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>3</v>
       </c>
@@ -6459,7 +6486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="45" t="s">
         <v>3</v>
       </c>
@@ -6497,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>3</v>
       </c>
@@ -6573,7 +6600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>3</v>
       </c>
@@ -6611,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -6649,7 +6676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>3</v>
       </c>
@@ -6687,7 +6714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>3</v>
       </c>
@@ -6725,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>3</v>
       </c>
@@ -6763,7 +6790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>3</v>
       </c>
@@ -6801,7 +6828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="45" t="s">
         <v>3</v>
       </c>
@@ -6839,7 +6866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
         <v>3</v>
       </c>
@@ -6877,7 +6904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="45" t="s">
         <v>3</v>
       </c>
@@ -6915,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="45" t="s">
         <v>3</v>
       </c>
@@ -6953,7 +6980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="99" t="s">
         <v>3</v>
       </c>
@@ -6991,7 +7018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="99" t="s">
         <v>3</v>
       </c>
@@ -7029,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="99" t="s">
         <v>3</v>
       </c>
@@ -7067,7 +7094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="99" t="s">
         <v>3</v>
       </c>
@@ -7105,7 +7132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="99" t="s">
         <v>3</v>
       </c>
@@ -7143,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>3</v>
       </c>
@@ -7181,7 +7208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="99" t="s">
         <v>3</v>
       </c>
@@ -7219,7 +7246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="99" t="s">
         <v>3</v>
       </c>
@@ -7257,7 +7284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="99" t="s">
         <v>3</v>
       </c>
@@ -7295,7 +7322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="77" t="s">
         <v>3</v>
       </c>
@@ -7333,7 +7360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="77" t="s">
         <v>3</v>
       </c>
@@ -7371,7 +7398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="111" t="s">
         <v>3</v>
       </c>
@@ -7409,7 +7436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="114" t="s">
         <v>3</v>
       </c>
@@ -7445,7 +7472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="111" t="s">
         <v>3</v>
       </c>
@@ -7483,7 +7510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
@@ -7521,7 +7548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A121" s="119" t="s">
         <v>3</v>
       </c>
@@ -7538,26 +7565,26 @@
         <v>10</v>
       </c>
       <c r="F121" s="122"/>
-      <c r="G121" s="123" t="s">
+      <c r="G121" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="H121" s="123" t="s">
+      <c r="H121" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="I121" s="124" t="s">
+      <c r="I121" s="125" t="s">
         <v>317</v>
       </c>
-      <c r="J121" s="125" t="s">
+      <c r="J121" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="K121" s="126" t="s">
+      <c r="K121" s="127" t="s">
         <v>318</v>
       </c>
-      <c r="L121" s="127">
+      <c r="L121" s="128">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="111" t="s">
         <v>3</v>
       </c>
@@ -7576,26 +7603,26 @@
       <c r="F122" s="108">
         <v>10</v>
       </c>
-      <c r="G122" s="109" t="s">
+      <c r="G122" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="H122" s="109" t="s">
+      <c r="H122" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="I122" s="110" t="s">
+      <c r="I122" s="130" t="s">
         <v>362</v>
       </c>
-      <c r="J122" s="112" t="s">
+      <c r="J122" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="K122" s="113" t="s">
+      <c r="K122" s="132" t="s">
         <v>364</v>
       </c>
-      <c r="L122" s="66">
+      <c r="L122" s="133">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="111" t="s">
         <v>3</v>
       </c>
@@ -7614,69 +7641,173 @@
       <c r="F123" s="108">
         <v>30</v>
       </c>
-      <c r="G123" s="109" t="s">
+      <c r="G123" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="H123" s="109" t="s">
+      <c r="H123" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I123" s="110" t="s">
+      <c r="I123" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="J123" s="112" t="s">
+      <c r="J123" s="131" t="s">
         <v>348</v>
       </c>
-      <c r="K123" s="113" t="s">
+      <c r="K123" s="132" t="s">
         <v>349</v>
       </c>
-      <c r="L123" s="66">
+      <c r="L123" s="133">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="125" spans="1:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="1" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C124" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="H124" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="J124" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="K124" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="L124" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="106" t="s">
+        <v>493</v>
+      </c>
+      <c r="C125" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="D125" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E125" s="108">
+        <v>1</v>
+      </c>
+      <c r="F125" s="108"/>
+      <c r="G125" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="H125" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" s="130" t="s">
+        <v>412</v>
+      </c>
+      <c r="J125" s="131" t="s">
+        <v>413</v>
+      </c>
+      <c r="K125" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="L125" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="106" t="s">
+        <v>494</v>
+      </c>
+      <c r="C126" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="H126" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="J126" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="K126" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="L126" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-    </row>
-    <row r="127" spans="1:12" ht="132" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="130" spans="1:5" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="50" t="s">
+      <c r="C130" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D130" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E127" s="51" t="s">
+      <c r="E130" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128" s="4" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C131" s="3">
         <v>11</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D131" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E131" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="508">
   <si>
     <t>[sku]</t>
   </si>
@@ -1509,6 +1509,45 @@
   </si>
   <si>
     <t>baby_kill_humanoid_burp</t>
+  </si>
+  <si>
+    <t>baby_speed</t>
+  </si>
+  <si>
+    <t>baby_magnet</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost_dragon</t>
+  </si>
+  <si>
+    <t>baby_unlimited_boost</t>
+  </si>
+  <si>
+    <t>baby_food</t>
+  </si>
+  <si>
+    <t>baby_stun</t>
+  </si>
+  <si>
+    <t>baby_fireball</t>
+  </si>
+  <si>
+    <t>baby_more_xp</t>
+  </si>
+  <si>
+    <t>baby_sun</t>
+  </si>
+  <si>
+    <t>baby_boost</t>
+  </si>
+  <si>
+    <t>baby_drop_present</t>
+  </si>
+  <si>
+    <t>baby_score_better</t>
+  </si>
+  <si>
+    <t>baby_shoot_spikes</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,9 +2272,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2264,6 +2300,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2885,8 +2945,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L126" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L139" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L139"/>
   <sortState ref="A4:K53">
     <sortCondition ref="D3:D53"/>
   </sortState>
@@ -3182,10 +3242,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126:L126"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7565,22 +7625,22 @@
         <v>10</v>
       </c>
       <c r="F121" s="122"/>
-      <c r="G121" s="124" t="s">
+      <c r="G121" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="H121" s="124" t="s">
+      <c r="H121" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="I121" s="125" t="s">
+      <c r="I121" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="J121" s="126" t="s">
+      <c r="J121" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="K121" s="127" t="s">
+      <c r="K121" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="L121" s="128">
+      <c r="L121" s="127">
         <v>0</v>
       </c>
     </row>
@@ -7603,22 +7663,22 @@
       <c r="F122" s="108">
         <v>10</v>
       </c>
-      <c r="G122" s="129" t="s">
+      <c r="G122" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="H122" s="129" t="s">
+      <c r="H122" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="I122" s="130" t="s">
+      <c r="I122" s="129" t="s">
         <v>362</v>
       </c>
-      <c r="J122" s="131" t="s">
+      <c r="J122" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="K122" s="132" t="s">
+      <c r="K122" s="131" t="s">
         <v>364</v>
       </c>
-      <c r="L122" s="133">
+      <c r="L122" s="132">
         <v>0</v>
       </c>
     </row>
@@ -7641,173 +7701,637 @@
       <c r="F123" s="108">
         <v>30</v>
       </c>
-      <c r="G123" s="129" t="s">
+      <c r="G123" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="H123" s="129" t="s">
+      <c r="H123" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="I123" s="130" t="s">
+      <c r="I123" s="129" t="s">
         <v>347</v>
       </c>
-      <c r="J123" s="131" t="s">
+      <c r="J123" s="130" t="s">
         <v>348</v>
       </c>
-      <c r="K123" s="132" t="s">
+      <c r="K123" s="131" t="s">
         <v>349</v>
       </c>
-      <c r="L123" s="133">
+      <c r="L123" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="111" t="s">
+      <c r="A124" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B124" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E124" s="23">
+        <v>10</v>
+      </c>
+      <c r="F124" s="23"/>
+      <c r="G124" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="H124" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="134" t="s">
+        <v>345</v>
+      </c>
+      <c r="J124" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="K124" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="L124" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F125" s="137">
+        <v>30</v>
+      </c>
+      <c r="G125" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="H125" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="I125" s="134" t="s">
+        <v>350</v>
+      </c>
+      <c r="J125" s="135" t="s">
+        <v>351</v>
+      </c>
+      <c r="K125" s="139" t="s">
+        <v>352</v>
+      </c>
+      <c r="L125" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E126" s="17">
+        <v>10</v>
+      </c>
+      <c r="F126" s="17"/>
+      <c r="G126" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="I126" s="134" t="s">
+        <v>314</v>
+      </c>
+      <c r="J126" s="135" t="s">
+        <v>315</v>
+      </c>
+      <c r="K126" s="135" t="s">
+        <v>316</v>
+      </c>
+      <c r="L126" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E127" s="27">
+        <v>5</v>
+      </c>
+      <c r="F127" s="27"/>
+      <c r="G127" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="J127" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="K127" s="139" t="s">
+        <v>335</v>
+      </c>
+      <c r="L127" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E128" s="17">
+        <v>10</v>
+      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="133" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" s="134" t="s">
+        <v>310</v>
+      </c>
+      <c r="J128" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="K128" s="135" t="s">
+        <v>311</v>
+      </c>
+      <c r="L128" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="17">
+        <v>20</v>
+      </c>
+      <c r="F129" s="17"/>
+      <c r="G129" s="133" t="s">
+        <v>136</v>
+      </c>
+      <c r="H129" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" s="134" t="s">
+        <v>339</v>
+      </c>
+      <c r="J129" s="135" t="s">
+        <v>340</v>
+      </c>
+      <c r="K129" s="135" t="s">
+        <v>341</v>
+      </c>
+      <c r="L129" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="C124" s="123" t="s">
+      <c r="C130" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D124" s="107" t="s">
+      <c r="D130" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="108"/>
-      <c r="F124" s="108"/>
-      <c r="G124" s="129" t="s">
+      <c r="E130" s="108"/>
+      <c r="F130" s="108"/>
+      <c r="G130" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="H124" s="129" t="s">
+      <c r="H130" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I124" s="130" t="s">
+      <c r="I130" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="J124" s="131" t="s">
+      <c r="J130" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="K124" s="132" t="s">
+      <c r="K130" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="L124" s="133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="106" t="s">
+      <c r="L130" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="106" t="s">
         <v>493</v>
       </c>
-      <c r="C125" s="107" t="s">
+      <c r="C131" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D125" s="107" t="s">
+      <c r="D131" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="E125" s="108">
+      <c r="E131" s="108">
         <v>1</v>
       </c>
-      <c r="F125" s="108"/>
-      <c r="G125" s="129" t="s">
+      <c r="F131" s="108"/>
+      <c r="G131" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="H125" s="129" t="s">
+      <c r="H131" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I125" s="130" t="s">
+      <c r="I131" s="129" t="s">
         <v>412</v>
       </c>
-      <c r="J125" s="131" t="s">
+      <c r="J131" s="130" t="s">
         <v>413</v>
       </c>
-      <c r="K125" s="132" t="s">
+      <c r="K131" s="131" t="s">
         <v>414</v>
       </c>
-      <c r="L125" s="133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="106" t="s">
+      <c r="L131" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="106" t="s">
         <v>494</v>
       </c>
-      <c r="C126" s="107" t="s">
+      <c r="C132" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="D126" s="107" t="s">
+      <c r="D132" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="E126" s="108"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="129" t="s">
+      <c r="E132" s="108"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="H126" s="129" t="s">
+      <c r="H132" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I126" s="130" t="s">
+      <c r="I132" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="J126" s="131" t="s">
+      <c r="J132" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="K126" s="132" t="s">
+      <c r="K132" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="L126" s="133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
+      <c r="L132" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="128" t="s">
+        <v>135</v>
+      </c>
+      <c r="H133" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="129" t="s">
+        <v>436</v>
+      </c>
+      <c r="J133" s="130" t="s">
+        <v>437</v>
+      </c>
+      <c r="K133" s="131" t="s">
+        <v>438</v>
+      </c>
+      <c r="L133" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E134" s="23">
+        <v>1</v>
+      </c>
+      <c r="F134" s="23"/>
+      <c r="G134" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="H134" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I134" s="129" t="s">
+        <v>409</v>
+      </c>
+      <c r="J134" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="K134" s="131" t="s">
+        <v>411</v>
+      </c>
+      <c r="L134" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="H135" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" s="129" t="s">
+        <v>433</v>
+      </c>
+      <c r="J135" s="130" t="s">
+        <v>434</v>
+      </c>
+      <c r="K135" s="131" t="s">
+        <v>435</v>
+      </c>
+      <c r="L135" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E136" s="23">
+        <v>1</v>
+      </c>
+      <c r="F136" s="23"/>
+      <c r="G136" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="H136" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="J136" s="130" t="s">
+        <v>401</v>
+      </c>
+      <c r="K136" s="131" t="s">
+        <v>402</v>
+      </c>
+      <c r="L136" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="106" t="s">
+        <v>503</v>
+      </c>
+      <c r="C137" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E137" s="108"/>
+      <c r="F137" s="108"/>
+      <c r="G137" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="H137" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I137" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="J137" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="K137" s="131" t="s">
+        <v>105</v>
+      </c>
+      <c r="L137" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="106" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="D138" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E138" s="108">
+        <v>1</v>
+      </c>
+      <c r="F138" s="108">
+        <v>1</v>
+      </c>
+      <c r="G138" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="H138" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" s="129" t="s">
+        <v>451</v>
+      </c>
+      <c r="J138" s="130" t="s">
+        <v>452</v>
+      </c>
+      <c r="K138" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="L138" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="106" t="s">
+        <v>507</v>
+      </c>
+      <c r="C139" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139" s="108"/>
+      <c r="F139" s="108"/>
+      <c r="G139" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="H139" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="J139" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="K139" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="L139" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="130" spans="1:5" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="143" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="50" t="s">
+      <c r="B143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D143" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E130" s="51" t="s">
+      <c r="E143" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131" s="4" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C144" s="3">
         <v>11</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D144" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E144" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="509">
   <si>
     <t>[sku]</t>
   </si>
@@ -1548,6 +1548,9 @@
   </si>
   <si>
     <t>baby_shoot_spikes</t>
+  </si>
+  <si>
+    <t>Archer01;Archer02;BakerWoman;Catapulter;BadFarmer;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04;BadWitch;Bomber;Driller;GoodWitch;GoodWitch02;Kamikaze;Miner;SnailUnka;Spartakus;Witch;Worker;WorkerSpace</t>
   </si>
 </sst>
 </file>
@@ -3244,8 +3247,8 @@
   </sheetPr>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7696,7 +7699,7 @@
         <v>98</v>
       </c>
       <c r="E123" s="108" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="F123" s="108">
         <v>30</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="550">
   <si>
     <t>[sku]</t>
   </si>
@@ -1551,6 +1551,129 @@
   </si>
   <si>
     <t>Archer01;Archer02;BakerWoman;Catapulter;BadFarmer;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04;BadWitch;Bomber;Driller;GoodWitch;GoodWitch02;Kamikaze;Miner;SnailUnka;Spartakus;Witch;Worker;WorkerSpace</t>
+  </si>
+  <si>
+    <t>baby_lower_damage_origin</t>
+  </si>
+  <si>
+    <t>baby_prey_hp_boost</t>
+  </si>
+  <si>
+    <t>baby_speed_increase</t>
+  </si>
+  <si>
+    <t>baby_food_increase</t>
+  </si>
+  <si>
+    <t>baby_boost_increase</t>
+  </si>
+  <si>
+    <t>baby_score_increase</t>
+  </si>
+  <si>
+    <t>baby_transform_ice_cream</t>
+  </si>
+  <si>
+    <t>baby_phoenix</t>
+  </si>
+  <si>
+    <t>baby_kill</t>
+  </si>
+  <si>
+    <t>baby_shoot_horns</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_DROP_PIZZA_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_DROP_PIZZA_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_DROP_PIZZA_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_PHOENIX_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_PHOENIX_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_PHOENIX_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SUN_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SUN_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SUN_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_UNLIMITED_BOOST_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_UNLIMITED_BOOST_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_UNLIMITED_BOOST_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_MAGNET_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_MAGNET_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_MAGNET_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_ACIDBALL_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_ACIDBALL_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_ACIDBALL_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SHOOT_SPINE_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SHOOT_SPINE_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_SHOOT_SPINE_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_STUN_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_STUN_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_STUN_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_KILL_HUMANOID_BURP_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_KILL_HUMANOID_BURP_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_BABY_KILL_HUMANOID_BURP_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>icon_power_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC_SHORT </t>
   </si>
 </sst>
 </file>
@@ -2320,14 +2443,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3247,8 +3370,8 @@
   </sheetPr>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="H103" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7619,7 +7742,7 @@
         <v>489</v>
       </c>
       <c r="C121" s="121" t="s">
-        <v>14</v>
+        <v>489</v>
       </c>
       <c r="D121" s="121" t="s">
         <v>98</v>
@@ -7628,8 +7751,8 @@
         <v>10</v>
       </c>
       <c r="F121" s="122"/>
-      <c r="G121" s="123" t="s">
-        <v>138</v>
+      <c r="G121" s="139" t="s">
+        <v>548</v>
       </c>
       <c r="H121" s="123" t="s">
         <v>42</v>
@@ -7655,7 +7778,7 @@
         <v>490</v>
       </c>
       <c r="C122" s="107" t="s">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="D122" s="107" t="s">
         <v>98</v>
@@ -7666,8 +7789,8 @@
       <c r="F122" s="108">
         <v>10</v>
       </c>
-      <c r="G122" s="128" t="s">
-        <v>140</v>
+      <c r="G122" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H122" s="128" t="s">
         <v>27</v>
@@ -7693,7 +7816,7 @@
         <v>491</v>
       </c>
       <c r="C123" s="107" t="s">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D123" s="107" t="s">
         <v>98</v>
@@ -7704,8 +7827,8 @@
       <c r="F123" s="108">
         <v>30</v>
       </c>
-      <c r="G123" s="128" t="s">
-        <v>137</v>
+      <c r="G123" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H123" s="128" t="s">
         <v>37</v>
@@ -7731,7 +7854,7 @@
         <v>495</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>56</v>
+        <v>511</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>98</v>
@@ -7740,8 +7863,8 @@
         <v>10</v>
       </c>
       <c r="F124" s="23"/>
-      <c r="G124" s="133" t="s">
-        <v>135</v>
+      <c r="G124" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="H124" s="133" t="s">
         <v>31</v>
@@ -7767,7 +7890,7 @@
         <v>497</v>
       </c>
       <c r="C125" s="136" t="s">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>98</v>
@@ -7778,8 +7901,8 @@
       <c r="F125" s="137">
         <v>30</v>
       </c>
-      <c r="G125" s="138" t="s">
-        <v>137</v>
+      <c r="G125" s="140" t="s">
+        <v>548</v>
       </c>
       <c r="H125" s="133" t="s">
         <v>37</v>
@@ -7790,7 +7913,7 @@
       <c r="J125" s="135" t="s">
         <v>351</v>
       </c>
-      <c r="K125" s="139" t="s">
+      <c r="K125" s="138" t="s">
         <v>352</v>
       </c>
       <c r="L125" s="132">
@@ -7805,7 +7928,7 @@
         <v>499</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>43</v>
+        <v>512</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>98</v>
@@ -7814,8 +7937,8 @@
         <v>10</v>
       </c>
       <c r="F126" s="17"/>
-      <c r="G126" s="133" t="s">
-        <v>137</v>
+      <c r="G126" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="H126" s="133" t="s">
         <v>44</v>
@@ -7841,7 +7964,7 @@
         <v>502</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>10</v>
+        <v>502</v>
       </c>
       <c r="D127" s="26" t="s">
         <v>98</v>
@@ -7850,8 +7973,8 @@
         <v>5</v>
       </c>
       <c r="F127" s="27"/>
-      <c r="G127" s="140" t="s">
-        <v>136</v>
+      <c r="G127" s="28" t="s">
+        <v>548</v>
       </c>
       <c r="H127" s="133" t="s">
         <v>4</v>
@@ -7862,7 +7985,7 @@
       <c r="J127" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="K127" s="139" t="s">
+      <c r="K127" s="138" t="s">
         <v>335</v>
       </c>
       <c r="L127" s="132">
@@ -7877,7 +8000,7 @@
         <v>504</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>30</v>
+        <v>513</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>98</v>
@@ -7886,8 +8009,8 @@
         <v>10</v>
       </c>
       <c r="F128" s="17"/>
-      <c r="G128" s="133" t="s">
-        <v>135</v>
+      <c r="G128" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="H128" s="133" t="s">
         <v>31</v>
@@ -7913,7 +8036,7 @@
         <v>506</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>55</v>
+        <v>514</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>98</v>
@@ -7922,8 +8045,8 @@
         <v>20</v>
       </c>
       <c r="F129" s="17"/>
-      <c r="G129" s="133" t="s">
-        <v>136</v>
+      <c r="G129" s="18" t="s">
+        <v>548</v>
       </c>
       <c r="H129" s="133" t="s">
         <v>4</v>
@@ -7949,27 +8072,27 @@
         <v>492</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>102</v>
+        <v>515</v>
       </c>
       <c r="D130" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E130" s="108"/>
       <c r="F130" s="108"/>
-      <c r="G130" s="128" t="s">
-        <v>141</v>
+      <c r="G130" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H130" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I130" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="J130" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="K130" s="131" t="s">
-        <v>111</v>
+      <c r="I130" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="J130" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="K130" s="49" t="s">
+        <v>549</v>
       </c>
       <c r="L130" s="132">
         <v>0</v>
@@ -7983,7 +8106,7 @@
         <v>493</v>
       </c>
       <c r="C131" s="107" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
       <c r="D131" s="107" t="s">
         <v>99</v>
@@ -7992,20 +8115,20 @@
         <v>1</v>
       </c>
       <c r="F131" s="108"/>
-      <c r="G131" s="128" t="s">
-        <v>141</v>
+      <c r="G131" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H131" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I131" s="129" t="s">
-        <v>412</v>
-      </c>
-      <c r="J131" s="130" t="s">
-        <v>413</v>
-      </c>
-      <c r="K131" s="131" t="s">
-        <v>414</v>
+      <c r="I131" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="J131" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="K131" s="49" t="s">
+        <v>526</v>
       </c>
       <c r="L131" s="132">
         <v>0</v>
@@ -8019,27 +8142,27 @@
         <v>494</v>
       </c>
       <c r="C132" s="107" t="s">
-        <v>119</v>
+        <v>517</v>
       </c>
       <c r="D132" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E132" s="108"/>
       <c r="F132" s="108"/>
-      <c r="G132" s="128" t="s">
-        <v>141</v>
+      <c r="G132" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H132" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I132" s="129" t="s">
-        <v>123</v>
-      </c>
-      <c r="J132" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="K132" s="131" t="s">
-        <v>125</v>
+      <c r="I132" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="J132" s="48" t="s">
+        <v>546</v>
+      </c>
+      <c r="K132" s="49" t="s">
+        <v>547</v>
       </c>
       <c r="L132" s="132">
         <v>0</v>
@@ -8053,27 +8176,27 @@
         <v>498</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
-      <c r="G133" s="128" t="s">
-        <v>135</v>
+      <c r="G133" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H133" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="I133" s="129" t="s">
-        <v>436</v>
-      </c>
-      <c r="J133" s="130" t="s">
-        <v>437</v>
-      </c>
-      <c r="K133" s="131" t="s">
-        <v>438</v>
+      <c r="I133" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="J133" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="K133" s="49" t="s">
+        <v>532</v>
       </c>
       <c r="L133" s="132">
         <v>0</v>
@@ -8087,7 +8210,7 @@
         <v>496</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>99</v>
@@ -8096,20 +8219,20 @@
         <v>1</v>
       </c>
       <c r="F134" s="23"/>
-      <c r="G134" s="128" t="s">
-        <v>141</v>
+      <c r="G134" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H134" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I134" s="129" t="s">
-        <v>409</v>
-      </c>
-      <c r="J134" s="130" t="s">
-        <v>410</v>
-      </c>
-      <c r="K134" s="131" t="s">
-        <v>411</v>
+      <c r="I134" s="47" t="s">
+        <v>533</v>
+      </c>
+      <c r="J134" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="K134" s="49" t="s">
+        <v>535</v>
       </c>
       <c r="L134" s="132">
         <v>0</v>
@@ -8123,27 +8246,27 @@
         <v>500</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
-      <c r="G135" s="128" t="s">
-        <v>141</v>
+      <c r="G135" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H135" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I135" s="129" t="s">
-        <v>433</v>
-      </c>
-      <c r="J135" s="130" t="s">
-        <v>434</v>
-      </c>
-      <c r="K135" s="131" t="s">
-        <v>435</v>
+      <c r="I135" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="J135" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="K135" s="49" t="s">
+        <v>544</v>
       </c>
       <c r="L135" s="132">
         <v>0</v>
@@ -8157,7 +8280,7 @@
         <v>501</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>99</v>
@@ -8166,20 +8289,20 @@
         <v>1</v>
       </c>
       <c r="F136" s="23"/>
-      <c r="G136" s="128" t="s">
-        <v>138</v>
+      <c r="G136" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H136" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="I136" s="129" t="s">
-        <v>400</v>
-      </c>
-      <c r="J136" s="130" t="s">
-        <v>401</v>
-      </c>
-      <c r="K136" s="131" t="s">
-        <v>402</v>
+      <c r="I136" s="47" t="s">
+        <v>536</v>
+      </c>
+      <c r="J136" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="K136" s="49" t="s">
+        <v>538</v>
       </c>
       <c r="L136" s="132">
         <v>0</v>
@@ -8193,27 +8316,27 @@
         <v>503</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>100</v>
+        <v>503</v>
       </c>
       <c r="D137" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E137" s="108"/>
       <c r="F137" s="108"/>
-      <c r="G137" s="128" t="s">
-        <v>141</v>
+      <c r="G137" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H137" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I137" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="J137" s="130" t="s">
-        <v>104</v>
-      </c>
-      <c r="K137" s="131" t="s">
-        <v>105</v>
+      <c r="I137" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="J137" s="48" t="s">
+        <v>528</v>
+      </c>
+      <c r="K137" s="49" t="s">
+        <v>529</v>
       </c>
       <c r="L137" s="132">
         <v>0</v>
@@ -8227,7 +8350,7 @@
         <v>505</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>85</v>
+        <v>505</v>
       </c>
       <c r="D138" s="107" t="s">
         <v>99</v>
@@ -8238,20 +8361,20 @@
       <c r="F138" s="108">
         <v>1</v>
       </c>
-      <c r="G138" s="128" t="s">
-        <v>137</v>
+      <c r="G138" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H138" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="I138" s="129" t="s">
-        <v>451</v>
-      </c>
-      <c r="J138" s="130" t="s">
-        <v>452</v>
-      </c>
-      <c r="K138" s="131" t="s">
-        <v>453</v>
+      <c r="I138" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="J138" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="K138" s="49" t="s">
+        <v>523</v>
       </c>
       <c r="L138" s="132">
         <v>0</v>
@@ -8265,27 +8388,27 @@
         <v>507</v>
       </c>
       <c r="C139" s="107" t="s">
-        <v>112</v>
+        <v>518</v>
       </c>
       <c r="D139" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E139" s="108"/>
       <c r="F139" s="108"/>
-      <c r="G139" s="128" t="s">
-        <v>141</v>
+      <c r="G139" s="46" t="s">
+        <v>548</v>
       </c>
       <c r="H139" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="I139" s="129" t="s">
-        <v>113</v>
-      </c>
-      <c r="J139" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="K139" s="131" t="s">
-        <v>115</v>
+      <c r="I139" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="J139" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="K139" s="49" t="s">
+        <v>541</v>
       </c>
       <c r="L139" s="132">
         <v>0</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -1673,7 +1673,7 @@
     <t>icon_power_baby</t>
   </si>
   <si>
-    <t xml:space="preserve">TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC_SHORT </t>
+    <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC_SHORT</t>
   </si>
 </sst>
 </file>
@@ -3370,8 +3370,8 @@
   </sheetPr>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H103" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="H106" workbookViewId="0">
+      <selection activeCell="K132" sqref="K132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubi\HungryDragon\HD_Client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7CCF4F-E799-49F0-864D-9840A959F6A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="23535"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="540">
   <si>
     <t>[sku]</t>
   </si>
@@ -1551,36 +1552,6 @@
   </si>
   <si>
     <t>Archer01;Archer02;BakerWoman;Catapulter;BadFarmer;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04;BadWitch;Bomber;Driller;GoodWitch;GoodWitch02;Kamikaze;Miner;SnailUnka;Spartakus;Witch;Worker;WorkerSpace</t>
-  </si>
-  <si>
-    <t>baby_lower_damage_origin</t>
-  </si>
-  <si>
-    <t>baby_prey_hp_boost</t>
-  </si>
-  <si>
-    <t>baby_speed_increase</t>
-  </si>
-  <si>
-    <t>baby_food_increase</t>
-  </si>
-  <si>
-    <t>baby_boost_increase</t>
-  </si>
-  <si>
-    <t>baby_score_increase</t>
-  </si>
-  <si>
-    <t>baby_transform_ice_cream</t>
-  </si>
-  <si>
-    <t>baby_phoenix</t>
-  </si>
-  <si>
-    <t>baby_kill</t>
-  </si>
-  <si>
-    <t>baby_shoot_horns</t>
   </si>
   <si>
     <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_NAME</t>
@@ -1679,7 +1650,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2389,9 +2360,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2436,9 +2404,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2446,11 +2411,17 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3071,32 +3042,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L139" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L139"/>
-  <sortState ref="A4:K53">
-    <sortCondition ref="D3:D53"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L139" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3364,21 +3332,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H106" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
@@ -3403,7 +3371,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="62" t="s">
         <v>134</v>
       </c>
       <c r="L2" t="s">
@@ -7738,35 +7706,35 @@
       <c r="A121" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="120" t="s">
+      <c r="B121" s="137" t="s">
         <v>489</v>
       </c>
-      <c r="C121" s="121" t="s">
-        <v>489</v>
-      </c>
-      <c r="D121" s="121" t="s">
+      <c r="C121" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="E121" s="122">
+      <c r="E121" s="121">
         <v>10</v>
       </c>
-      <c r="F121" s="122"/>
+      <c r="F121" s="121"/>
       <c r="G121" s="139" t="s">
-        <v>548</v>
-      </c>
-      <c r="H121" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H121" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="I121" s="124" t="s">
+      <c r="I121" s="123" t="s">
         <v>317</v>
       </c>
-      <c r="J121" s="125" t="s">
+      <c r="J121" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="K121" s="126" t="s">
+      <c r="K121" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="L121" s="127">
+      <c r="L121" s="126">
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7746,7 @@
         <v>490</v>
       </c>
       <c r="C122" s="107" t="s">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="D122" s="107" t="s">
         <v>98</v>
@@ -7789,22 +7757,22 @@
       <c r="F122" s="108">
         <v>10</v>
       </c>
-      <c r="G122" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H122" s="128" t="s">
+      <c r="G122" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="H122" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="I122" s="129" t="s">
+      <c r="I122" s="128" t="s">
         <v>362</v>
       </c>
-      <c r="J122" s="130" t="s">
+      <c r="J122" s="129" t="s">
         <v>363</v>
       </c>
-      <c r="K122" s="131" t="s">
+      <c r="K122" s="130" t="s">
         <v>364</v>
       </c>
-      <c r="L122" s="132">
+      <c r="L122" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7816,7 +7784,7 @@
         <v>491</v>
       </c>
       <c r="C123" s="107" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="D123" s="107" t="s">
         <v>98</v>
@@ -7827,22 +7795,22 @@
       <c r="F123" s="108">
         <v>30</v>
       </c>
-      <c r="G123" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H123" s="128" t="s">
+      <c r="G123" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="H123" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="I123" s="129" t="s">
+      <c r="I123" s="128" t="s">
         <v>347</v>
       </c>
-      <c r="J123" s="130" t="s">
+      <c r="J123" s="129" t="s">
         <v>348</v>
       </c>
-      <c r="K123" s="131" t="s">
+      <c r="K123" s="130" t="s">
         <v>349</v>
       </c>
-      <c r="L123" s="132">
+      <c r="L123" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7854,7 +7822,7 @@
         <v>495</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>511</v>
+        <v>56</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>98</v>
@@ -7863,22 +7831,22 @@
         <v>10</v>
       </c>
       <c r="F124" s="23"/>
-      <c r="G124" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H124" s="133" t="s">
+      <c r="G124" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="H124" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="I124" s="134" t="s">
+      <c r="I124" s="133" t="s">
         <v>345</v>
       </c>
-      <c r="J124" s="135" t="s">
+      <c r="J124" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="K124" s="135" t="s">
+      <c r="K124" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="L124" s="132">
+      <c r="L124" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7889,34 +7857,34 @@
       <c r="B125" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C125" s="136" t="s">
-        <v>510</v>
+      <c r="C125" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E125" s="137" t="s">
+      <c r="E125" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="F125" s="137">
+      <c r="F125" s="135">
         <v>30</v>
       </c>
       <c r="G125" s="140" t="s">
-        <v>548</v>
-      </c>
-      <c r="H125" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="H125" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="I125" s="134" t="s">
+      <c r="I125" s="133" t="s">
         <v>350</v>
       </c>
-      <c r="J125" s="135" t="s">
+      <c r="J125" s="134" t="s">
         <v>351</v>
       </c>
-      <c r="K125" s="138" t="s">
+      <c r="K125" s="136" t="s">
         <v>352</v>
       </c>
-      <c r="L125" s="132">
+      <c r="L125" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7928,7 +7896,7 @@
         <v>499</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>512</v>
+        <v>43</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>98</v>
@@ -7937,22 +7905,22 @@
         <v>10</v>
       </c>
       <c r="F126" s="17"/>
-      <c r="G126" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H126" s="133" t="s">
+      <c r="G126" s="140" t="s">
+        <v>137</v>
+      </c>
+      <c r="H126" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="I126" s="134" t="s">
+      <c r="I126" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="J126" s="135" t="s">
+      <c r="J126" s="134" t="s">
         <v>315</v>
       </c>
-      <c r="K126" s="135" t="s">
+      <c r="K126" s="134" t="s">
         <v>316</v>
       </c>
-      <c r="L126" s="132">
+      <c r="L126" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7964,7 +7932,7 @@
         <v>502</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>502</v>
+        <v>10</v>
       </c>
       <c r="D127" s="26" t="s">
         <v>98</v>
@@ -7973,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="F127" s="27"/>
-      <c r="G127" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="H127" s="133" t="s">
+      <c r="G127" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="I127" s="134" t="s">
+      <c r="I127" s="133" t="s">
         <v>334</v>
       </c>
-      <c r="J127" s="135" t="s">
+      <c r="J127" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="K127" s="138" t="s">
+      <c r="K127" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="L127" s="132">
+      <c r="L127" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8000,7 +7968,7 @@
         <v>504</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>513</v>
+        <v>30</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>98</v>
@@ -8009,22 +7977,22 @@
         <v>10</v>
       </c>
       <c r="F128" s="17"/>
-      <c r="G128" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H128" s="133" t="s">
+      <c r="G128" s="140" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="I128" s="134" t="s">
+      <c r="I128" s="133" t="s">
         <v>310</v>
       </c>
-      <c r="J128" s="135" t="s">
+      <c r="J128" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="K128" s="135" t="s">
+      <c r="K128" s="134" t="s">
         <v>311</v>
       </c>
-      <c r="L128" s="132">
+      <c r="L128" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8036,7 +8004,7 @@
         <v>506</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>514</v>
+        <v>55</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>98</v>
@@ -8045,22 +8013,22 @@
         <v>20</v>
       </c>
       <c r="F129" s="17"/>
-      <c r="G129" s="18" t="s">
-        <v>548</v>
-      </c>
-      <c r="H129" s="133" t="s">
+      <c r="G129" s="140" t="s">
+        <v>136</v>
+      </c>
+      <c r="H129" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="I129" s="134" t="s">
+      <c r="I129" s="133" t="s">
         <v>339</v>
       </c>
-      <c r="J129" s="135" t="s">
+      <c r="J129" s="134" t="s">
         <v>340</v>
       </c>
-      <c r="K129" s="135" t="s">
+      <c r="K129" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="L129" s="132">
+      <c r="L129" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8071,30 +8039,30 @@
       <c r="B130" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="C130" s="22" t="s">
-        <v>515</v>
+      <c r="C130" s="107" t="s">
+        <v>102</v>
       </c>
       <c r="D130" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E130" s="108"/>
       <c r="F130" s="108"/>
-      <c r="G130" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H130" s="128" t="s">
+      <c r="G130" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H130" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I130" s="47" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="J130" s="48" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K130" s="49" t="s">
-        <v>549</v>
-      </c>
-      <c r="L130" s="132">
+        <v>539</v>
+      </c>
+      <c r="L130" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8106,7 +8074,7 @@
         <v>493</v>
       </c>
       <c r="C131" s="107" t="s">
-        <v>516</v>
+        <v>54</v>
       </c>
       <c r="D131" s="107" t="s">
         <v>99</v>
@@ -8115,22 +8083,22 @@
         <v>1</v>
       </c>
       <c r="F131" s="108"/>
-      <c r="G131" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H131" s="128" t="s">
+      <c r="G131" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H131" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I131" s="47" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J131" s="48" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K131" s="49" t="s">
-        <v>526</v>
-      </c>
-      <c r="L131" s="132">
+        <v>516</v>
+      </c>
+      <c r="L131" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8142,29 +8110,29 @@
         <v>494</v>
       </c>
       <c r="C132" s="107" t="s">
-        <v>517</v>
+        <v>119</v>
       </c>
       <c r="D132" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E132" s="108"/>
       <c r="F132" s="108"/>
-      <c r="G132" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H132" s="128" t="s">
+      <c r="G132" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H132" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I132" s="47" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="J132" s="48" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K132" s="49" t="s">
-        <v>547</v>
-      </c>
-      <c r="L132" s="132">
+        <v>537</v>
+      </c>
+      <c r="L132" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8175,30 +8143,30 @@
       <c r="B133" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C133" s="22" t="s">
-        <v>498</v>
+      <c r="C133" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
-      <c r="G133" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H133" s="128" t="s">
+      <c r="G133" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H133" s="127" t="s">
         <v>31</v>
       </c>
       <c r="I133" s="47" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J133" s="48" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K133" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="L133" s="132">
+        <v>522</v>
+      </c>
+      <c r="L133" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8210,7 +8178,7 @@
         <v>496</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>496</v>
+        <v>53</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>99</v>
@@ -8219,22 +8187,22 @@
         <v>1</v>
       </c>
       <c r="F134" s="23"/>
-      <c r="G134" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H134" s="128" t="s">
+      <c r="G134" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H134" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I134" s="47" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J134" s="48" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K134" s="49" t="s">
-        <v>535</v>
-      </c>
-      <c r="L134" s="132">
+        <v>525</v>
+      </c>
+      <c r="L134" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8246,29 +8214,29 @@
         <v>500</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
-      <c r="G135" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H135" s="128" t="s">
+      <c r="G135" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H135" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I135" s="47" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="J135" s="48" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="K135" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="L135" s="132">
+        <v>534</v>
+      </c>
+      <c r="L135" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8280,7 +8248,7 @@
         <v>501</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>99</v>
@@ -8289,22 +8257,22 @@
         <v>1</v>
       </c>
       <c r="F136" s="23"/>
-      <c r="G136" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H136" s="128" t="s">
+      <c r="G136" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H136" s="127" t="s">
         <v>42</v>
       </c>
       <c r="I136" s="47" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="J136" s="48" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="K136" s="49" t="s">
-        <v>538</v>
-      </c>
-      <c r="L136" s="132">
+        <v>528</v>
+      </c>
+      <c r="L136" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8316,29 +8284,29 @@
         <v>503</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>503</v>
+        <v>100</v>
       </c>
       <c r="D137" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E137" s="108"/>
       <c r="F137" s="108"/>
-      <c r="G137" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H137" s="128" t="s">
+      <c r="G137" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H137" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I137" s="47" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J137" s="48" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K137" s="49" t="s">
-        <v>529</v>
-      </c>
-      <c r="L137" s="132">
+        <v>519</v>
+      </c>
+      <c r="L137" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8350,7 +8318,7 @@
         <v>505</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="D138" s="107" t="s">
         <v>99</v>
@@ -8361,22 +8329,22 @@
       <c r="F138" s="108">
         <v>1</v>
       </c>
-      <c r="G138" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H138" s="128" t="s">
+      <c r="G138" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H138" s="127" t="s">
         <v>37</v>
       </c>
       <c r="I138" s="47" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="J138" s="48" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K138" s="49" t="s">
-        <v>523</v>
-      </c>
-      <c r="L138" s="132">
+        <v>513</v>
+      </c>
+      <c r="L138" s="131">
         <v>0</v>
       </c>
     </row>
@@ -8388,29 +8356,29 @@
         <v>507</v>
       </c>
       <c r="C139" s="107" t="s">
-        <v>518</v>
+        <v>112</v>
       </c>
       <c r="D139" s="107" t="s">
         <v>99</v>
       </c>
       <c r="E139" s="108"/>
       <c r="F139" s="108"/>
-      <c r="G139" s="46" t="s">
-        <v>548</v>
-      </c>
-      <c r="H139" s="128" t="s">
+      <c r="G139" s="138" t="s">
+        <v>538</v>
+      </c>
+      <c r="H139" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I139" s="47" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="J139" s="48" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="K139" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="L139" s="132">
+        <v>531</v>
+      </c>
+      <c r="L139" s="131">
         <v>0</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubi\HungryDragon\HD_Client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7CCF4F-E799-49F0-864D-9840A959F6A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="541">
   <si>
     <t>[sku]</t>
   </si>
@@ -1645,12 +1644,15 @@
   </si>
   <si>
     <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_speed_boost_disguise_lower_damage_poison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1804,7 +1806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2015,11 +2017,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2423,6 +2493,67 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3042,29 +3173,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L139" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L140" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L140"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3332,14 +3463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3483,7 @@
     <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8348,84 +8479,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="106" t="s">
+    <row r="139" spans="1:12" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="152" t="s">
         <v>507</v>
       </c>
-      <c r="C139" s="107" t="s">
+      <c r="C139" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="D139" s="107" t="s">
+      <c r="D139" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="E139" s="108"/>
-      <c r="F139" s="108"/>
-      <c r="G139" s="138" t="s">
+      <c r="E139" s="154"/>
+      <c r="F139" s="154"/>
+      <c r="G139" s="155" t="s">
         <v>538</v>
       </c>
-      <c r="H139" s="127" t="s">
+      <c r="H139" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="I139" s="47" t="s">
+      <c r="I139" s="157" t="s">
         <v>529</v>
       </c>
-      <c r="J139" s="48" t="s">
+      <c r="J139" s="158" t="s">
         <v>530</v>
       </c>
-      <c r="K139" s="49" t="s">
+      <c r="K139" s="159" t="s">
         <v>531</v>
       </c>
-      <c r="L139" s="131">
+      <c r="L139" s="160">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="147" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="142" t="s">
+        <v>150</v>
+      </c>
+      <c r="F140" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="G140" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H140" s="149" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" s="144" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_NAME</v>
+      </c>
+      <c r="J140" s="145" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC</v>
+      </c>
+      <c r="K140" s="146" t="str">
+        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC_SHORT</v>
+      </c>
+      <c r="L140" s="150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-    </row>
-    <row r="143" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="144" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C143" s="50" t="s">
+      <c r="C144" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D144" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E143" s="51" t="s">
+      <c r="E144" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="4" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C145" s="3">
         <v>11</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D145" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E145" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="21675" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="powerups" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="554">
   <si>
     <t>[sku]</t>
   </si>
@@ -518,9 +518,6 @@
     <t>EnemyTier0;EnemyTier1;EnemyTier2;EnemyTier3;EnemyTier4;EnemyTier5</t>
   </si>
   <si>
-    <t>Archer01;Archer02;BakerWoman;Catapulter;DrunkenMan;RichMan;ShieldMan;Soldier;Villager01;Villager02</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_01_NAME</t>
   </si>
   <si>
@@ -1647,13 +1644,55 @@
   </si>
   <si>
     <t>disguise_speed_boost_disguise_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_disguise_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_LOW</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_LOW_disguise_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>Archer01;Archer02;BakerWoman;Catapulter;DrunkenMan;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04</t>
+  </si>
+  <si>
+    <t>disguise_prey_hp_boost_humans_boost</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_40_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_40_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_40_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_41_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_41_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_41_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_42_NAME</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_LOW_prey_hp_boost_humans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1770,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1806,7 +1852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2085,11 +2131,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2502,15 +2563,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2554,6 +2606,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3173,8 +3298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L140" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L146" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L146"/>
   <tableColumns count="12">
     <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
@@ -3467,10 +3592,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3631,7 @@
         <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
@@ -3544,7 +3669,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3571,13 +3696,13 @@
         <v>31</v>
       </c>
       <c r="I4" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="L4" s="18">
         <v>0</v>
@@ -3588,7 +3713,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
@@ -3607,13 +3732,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>313</v>
       </c>
       <c r="L5" s="18">
         <v>0</v>
@@ -3643,13 +3768,13 @@
         <v>44</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>316</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -3679,13 +3804,13 @@
         <v>42</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
@@ -3715,13 +3840,13 @@
         <v>42</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -3751,13 +3876,13 @@
         <v>42</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>323</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -3787,13 +3912,13 @@
         <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="L10" s="18">
         <v>0</v>
@@ -3825,13 +3950,13 @@
         <v>27</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="L11" s="18">
         <v>0</v>
@@ -3863,13 +3988,13 @@
         <v>27</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -3901,13 +4026,13 @@
         <v>27</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -3937,13 +4062,13 @@
         <v>4</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>334</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>335</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -3973,13 +4098,13 @@
         <v>27</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>338</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
@@ -3990,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>55</v>
@@ -4009,13 +4134,13 @@
         <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="K16" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>341</v>
       </c>
       <c r="L16" s="18">
         <v>0</v>
@@ -4045,13 +4170,13 @@
         <v>4</v>
       </c>
       <c r="I17" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="L17" s="18">
         <v>0</v>
@@ -4081,13 +4206,13 @@
         <v>31</v>
       </c>
       <c r="I18" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="L18" s="18">
         <v>0</v>
@@ -4107,7 +4232,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>164</v>
+        <v>544</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
@@ -4119,13 +4244,13 @@
         <v>37</v>
       </c>
       <c r="I19" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>348</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>349</v>
       </c>
       <c r="L19" s="41">
         <v>0</v>
@@ -4157,13 +4282,13 @@
         <v>37</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="K20" s="29" t="s">
         <v>351</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>352</v>
       </c>
       <c r="L20" s="18">
         <v>0</v>
@@ -4195,13 +4320,13 @@
         <v>37</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="K21" s="29" t="s">
         <v>354</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>355</v>
       </c>
       <c r="L21" s="18">
         <v>0</v>
@@ -4233,13 +4358,13 @@
         <v>37</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="29" t="s">
         <v>357</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>358</v>
       </c>
       <c r="L22" s="18">
         <v>0</v>
@@ -4269,13 +4394,13 @@
         <v>31</v>
       </c>
       <c r="I23" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="J23" s="20" t="s">
+      <c r="K23" s="29" t="s">
         <v>360</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>361</v>
       </c>
       <c r="L23" s="28">
         <v>0</v>
@@ -4307,13 +4432,13 @@
         <v>27</v>
       </c>
       <c r="I24" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="29" t="s">
         <v>363</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
@@ -4343,13 +4468,13 @@
         <v>37</v>
       </c>
       <c r="I25" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="J25" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="K25" s="33" t="s">
         <v>366</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>367</v>
       </c>
       <c r="L25" s="78">
         <v>0</v>
@@ -4379,13 +4504,13 @@
         <v>37</v>
       </c>
       <c r="I26" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="J26" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="K26" s="33" t="s">
         <v>369</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>370</v>
       </c>
       <c r="L26" s="78">
         <v>0</v>
@@ -4417,13 +4542,13 @@
         <v>27</v>
       </c>
       <c r="I27" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="J27" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="K27" s="33" t="s">
         <v>372</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>373</v>
       </c>
       <c r="L27" s="78">
         <v>0</v>
@@ -4455,13 +4580,13 @@
         <v>33</v>
       </c>
       <c r="I28" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="K28" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>376</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -4493,13 +4618,13 @@
         <v>27</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="K29" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>379</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
@@ -4531,13 +4656,13 @@
         <v>27</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="K30" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="L30" s="18">
         <v>0</v>
@@ -4548,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>5</v>
@@ -4565,13 +4690,13 @@
         <v>33</v>
       </c>
       <c r="I31" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>384</v>
       </c>
       <c r="L31" s="18">
         <v>0</v>
@@ -4601,13 +4726,13 @@
         <v>33</v>
       </c>
       <c r="I32" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="J32" s="20" t="s">
+      <c r="K32" s="20" t="s">
         <v>386</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>387</v>
       </c>
       <c r="L32" s="18">
         <v>0</v>
@@ -4637,13 +4762,13 @@
         <v>37</v>
       </c>
       <c r="I33" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="K33" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="K33" s="20" t="s">
-        <v>390</v>
       </c>
       <c r="L33" s="18">
         <v>0</v>
@@ -4673,13 +4798,13 @@
         <v>37</v>
       </c>
       <c r="I34" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="K34" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>393</v>
       </c>
       <c r="L34" s="18">
         <v>0</v>
@@ -4711,13 +4836,13 @@
         <v>37</v>
       </c>
       <c r="I35" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="K35" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>396</v>
       </c>
       <c r="L35" s="18">
         <v>0</v>
@@ -4747,13 +4872,13 @@
         <v>27</v>
       </c>
       <c r="I36" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>399</v>
       </c>
       <c r="L36" s="18">
         <v>0</v>
@@ -4783,13 +4908,13 @@
         <v>42</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="K37" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="K37" s="20" t="s">
-        <v>402</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -4819,13 +4944,13 @@
         <v>33</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="K38" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="L38" s="18">
         <v>0</v>
@@ -4855,13 +4980,13 @@
         <v>33</v>
       </c>
       <c r="I39" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="K39" s="29" t="s">
         <v>407</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>408</v>
       </c>
       <c r="L39" s="28">
         <v>0</v>
@@ -4891,13 +5016,13 @@
         <v>33</v>
       </c>
       <c r="I40" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="J40" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="K40" s="33" t="s">
         <v>410</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>411</v>
       </c>
       <c r="L40" s="28">
         <v>0</v>
@@ -4908,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>54</v>
@@ -4927,13 +5052,13 @@
         <v>33</v>
       </c>
       <c r="I41" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="J41" s="20" t="s">
+      <c r="K41" s="20" t="s">
         <v>413</v>
-      </c>
-      <c r="K41" s="20" t="s">
-        <v>414</v>
       </c>
       <c r="L41" s="18">
         <v>0</v>
@@ -4963,13 +5088,13 @@
         <v>37</v>
       </c>
       <c r="I42" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="J42" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="K42" s="33" t="s">
         <v>416</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>417</v>
       </c>
       <c r="L42" s="28">
         <v>0</v>
@@ -4999,13 +5124,13 @@
         <v>33</v>
       </c>
       <c r="I43" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="K43" s="33" t="s">
         <v>419</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>420</v>
       </c>
       <c r="L43" s="28">
         <v>0</v>
@@ -5035,13 +5160,13 @@
         <v>33</v>
       </c>
       <c r="I44" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="K44" s="29" t="s">
         <v>422</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>423</v>
       </c>
       <c r="L44" s="18">
         <v>0</v>
@@ -5071,13 +5196,13 @@
         <v>27</v>
       </c>
       <c r="I45" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="K45" s="29" t="s">
         <v>425</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>426</v>
       </c>
       <c r="L45" s="18">
         <v>0</v>
@@ -5105,13 +5230,13 @@
         <v>27</v>
       </c>
       <c r="I46" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="K46" s="29" t="s">
         <v>428</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>429</v>
       </c>
       <c r="L46" s="18">
         <v>0</v>
@@ -5139,13 +5264,13 @@
         <v>27</v>
       </c>
       <c r="I47" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="J47" s="20" t="s">
+      <c r="K47" s="29" t="s">
         <v>431</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>432</v>
       </c>
       <c r="L47" s="18">
         <v>0</v>
@@ -5173,13 +5298,13 @@
         <v>33</v>
       </c>
       <c r="I48" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="J48" s="20" t="s">
+      <c r="K48" s="29" t="s">
         <v>434</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>435</v>
       </c>
       <c r="L48" s="28">
         <v>0</v>
@@ -5207,13 +5332,13 @@
         <v>31</v>
       </c>
       <c r="I49" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="J49" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J49" s="48" t="s">
+      <c r="K49" s="49" t="s">
         <v>437</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>438</v>
       </c>
       <c r="L49" s="46">
         <v>0</v>
@@ -5241,13 +5366,13 @@
         <v>33</v>
       </c>
       <c r="I50" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" s="48" t="s">
         <v>439</v>
       </c>
-      <c r="J50" s="48" t="s">
+      <c r="K50" s="49" t="s">
         <v>440</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>441</v>
       </c>
       <c r="L50" s="46">
         <v>0</v>
@@ -5275,13 +5400,13 @@
         <v>33</v>
       </c>
       <c r="I51" s="47" t="s">
+        <v>441</v>
+      </c>
+      <c r="J51" s="48" t="s">
         <v>442</v>
       </c>
-      <c r="J51" s="48" t="s">
+      <c r="K51" s="49" t="s">
         <v>443</v>
-      </c>
-      <c r="K51" s="49" t="s">
-        <v>444</v>
       </c>
       <c r="L51" s="46">
         <v>0</v>
@@ -5309,13 +5434,13 @@
         <v>33</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="K52" s="29" t="s">
         <v>446</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>447</v>
       </c>
       <c r="L52" s="28">
         <v>0</v>
@@ -5360,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>84</v>
@@ -5381,13 +5506,13 @@
         <v>37</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="K54" s="29" t="s">
         <v>449</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>450</v>
       </c>
       <c r="L54" s="28">
         <v>0</v>
@@ -5419,13 +5544,13 @@
         <v>37</v>
       </c>
       <c r="I55" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="K55" s="29" t="s">
         <v>452</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>453</v>
       </c>
       <c r="L55" s="28">
         <v>0</v>
@@ -5439,7 +5564,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>99</v>
@@ -5455,13 +5580,13 @@
         <v>33</v>
       </c>
       <c r="I56" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="J56" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="K56" s="33" t="s">
         <v>455</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>456</v>
       </c>
       <c r="L56" s="78">
         <v>0</v>
@@ -5693,13 +5818,13 @@
         <v>33</v>
       </c>
       <c r="I63" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" s="32" t="s">
         <v>457</v>
       </c>
-      <c r="J63" s="32" t="s">
+      <c r="K63" s="33" t="s">
         <v>458</v>
-      </c>
-      <c r="K63" s="33" t="s">
-        <v>459</v>
       </c>
       <c r="L63" s="59">
         <v>0</v>
@@ -5727,13 +5852,13 @@
         <v>33</v>
       </c>
       <c r="I64" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="J64" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="J64" s="83" t="s">
+      <c r="K64" s="84" t="s">
         <v>461</v>
-      </c>
-      <c r="K64" s="84" t="s">
-        <v>462</v>
       </c>
       <c r="L64" s="59">
         <v>0</v>
@@ -5780,10 +5905,10 @@
         <v>3</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>464</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>465</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>99</v>
@@ -5799,13 +5924,13 @@
         <v>4</v>
       </c>
       <c r="I66" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="J66" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="J66" s="60" t="s">
+      <c r="K66" s="60" t="s">
         <v>467</v>
-      </c>
-      <c r="K66" s="60" t="s">
-        <v>468</v>
       </c>
       <c r="L66" s="76">
         <v>0</v>
@@ -5835,13 +5960,13 @@
         <v>42</v>
       </c>
       <c r="I67" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="J67" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="J67" s="93" t="s">
-        <v>166</v>
-      </c>
       <c r="K67" s="93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L67" s="91">
         <v>1</v>
@@ -5852,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68" s="89" t="s">
         <v>48</v>
@@ -5871,13 +5996,13 @@
         <v>42</v>
       </c>
       <c r="I68" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="J68" s="93" t="s">
-        <v>166</v>
-      </c>
       <c r="K68" s="93" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L68" s="91">
         <v>1</v>
@@ -5907,13 +6032,13 @@
         <v>42</v>
       </c>
       <c r="I69" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="J69" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="J69" s="93" t="s">
-        <v>169</v>
-      </c>
       <c r="K69" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L69" s="91">
         <v>1</v>
@@ -5924,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="89" t="s">
         <v>14</v>
@@ -5943,13 +6068,13 @@
         <v>42</v>
       </c>
       <c r="I70" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="J70" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="J70" s="93" t="s">
-        <v>169</v>
-      </c>
       <c r="K70" s="93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L70" s="91">
         <v>1</v>
@@ -5979,13 +6104,13 @@
         <v>31</v>
       </c>
       <c r="I71" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="J71" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="93" t="s">
-        <v>172</v>
-      </c>
       <c r="K71" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L71" s="91">
         <v>1</v>
@@ -5996,7 +6121,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" s="89" t="s">
         <v>56</v>
@@ -6015,13 +6140,13 @@
         <v>31</v>
       </c>
       <c r="I72" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="J72" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="J72" s="93" t="s">
-        <v>172</v>
-      </c>
       <c r="K72" s="93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L72" s="91">
         <v>1</v>
@@ -6032,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C73" s="89" t="s">
         <v>5</v>
@@ -6049,13 +6174,13 @@
         <v>31</v>
       </c>
       <c r="I73" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="J73" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="J73" s="93" t="s">
-        <v>176</v>
-      </c>
       <c r="K73" s="93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L73" s="91">
         <v>1</v>
@@ -6085,13 +6210,13 @@
         <v>31</v>
       </c>
       <c r="I74" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="J74" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="J74" s="93" t="s">
-        <v>178</v>
-      </c>
       <c r="K74" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L74" s="91">
         <v>1</v>
@@ -6102,7 +6227,7 @@
         <v>3</v>
       </c>
       <c r="B75" s="94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C75" s="89" t="s">
         <v>30</v>
@@ -6121,13 +6246,13 @@
         <v>31</v>
       </c>
       <c r="I75" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="J75" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="J75" s="93" t="s">
-        <v>178</v>
-      </c>
       <c r="K75" s="93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L75" s="91">
         <v>1</v>
@@ -6159,13 +6284,13 @@
         <v>27</v>
       </c>
       <c r="I76" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="J76" s="93" t="s">
+      <c r="K76" s="93" t="s">
         <v>181</v>
-      </c>
-      <c r="K76" s="93" t="s">
-        <v>182</v>
       </c>
       <c r="L76" s="91">
         <v>1</v>
@@ -6197,13 +6322,13 @@
         <v>27</v>
       </c>
       <c r="I77" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="J77" s="93" t="s">
-        <v>184</v>
-      </c>
       <c r="K77" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L77" s="91">
         <v>1</v>
@@ -6214,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C78" s="89" t="s">
         <v>51</v>
@@ -6235,13 +6360,13 @@
         <v>27</v>
       </c>
       <c r="I78" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="J78" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="J78" s="93" t="s">
-        <v>184</v>
-      </c>
       <c r="K78" s="93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L78" s="91">
         <v>1</v>
@@ -6271,13 +6396,13 @@
         <v>4</v>
       </c>
       <c r="I79" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="J79" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="J79" s="93" t="s">
-        <v>187</v>
-      </c>
       <c r="K79" s="93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L79" s="91">
         <v>1</v>
@@ -6307,13 +6432,13 @@
         <v>44</v>
       </c>
       <c r="I80" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="J80" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="J80" s="93" t="s">
-        <v>189</v>
-      </c>
       <c r="K80" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L80" s="91">
         <v>1</v>
@@ -6324,7 +6449,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C81" s="89" t="s">
         <v>49</v>
@@ -6343,13 +6468,13 @@
         <v>44</v>
       </c>
       <c r="I81" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="J81" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="J81" s="93" t="s">
-        <v>189</v>
-      </c>
       <c r="K81" s="93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L81" s="91">
         <v>1</v>
@@ -6379,13 +6504,13 @@
         <v>4</v>
       </c>
       <c r="I82" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="J82" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="J82" s="93" t="s">
-        <v>192</v>
-      </c>
       <c r="K82" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L82" s="102">
         <v>1</v>
@@ -6396,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="70" t="s">
         <v>95</v>
@@ -6417,13 +6542,13 @@
         <v>33</v>
       </c>
       <c r="I83" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="J83" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="J83" s="32" t="s">
+      <c r="K83" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="K83" s="32" t="s">
-        <v>196</v>
       </c>
       <c r="L83" s="72">
         <v>2</v>
@@ -6434,7 +6559,7 @@
         <v>3</v>
       </c>
       <c r="B84" s="80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" s="70" t="s">
         <v>95</v>
@@ -6443,10 +6568,10 @@
         <v>98</v>
       </c>
       <c r="E84" s="71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F84" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G84" s="72" t="s">
         <v>141</v>
@@ -6455,13 +6580,13 @@
         <v>33</v>
       </c>
       <c r="I84" s="82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J84" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K84" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="K84" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="L84" s="72">
         <v>2</v>
@@ -6472,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="70" t="s">
         <v>95</v>
@@ -6481,7 +6606,7 @@
         <v>98</v>
       </c>
       <c r="E85" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F85" s="71" t="s">
         <v>144</v>
@@ -6493,13 +6618,13 @@
         <v>33</v>
       </c>
       <c r="I85" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="J85" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="J85" s="32" t="s">
+      <c r="K85" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="K85" s="32" t="s">
-        <v>203</v>
       </c>
       <c r="L85" s="72">
         <v>2</v>
@@ -6519,7 +6644,7 @@
         <v>98</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F86" s="71" t="s">
         <v>142</v>
@@ -6531,13 +6656,13 @@
         <v>33</v>
       </c>
       <c r="I86" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="J86" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J86" s="32" t="s">
+      <c r="K86" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="K86" s="32" t="s">
-        <v>206</v>
       </c>
       <c r="L86" s="72">
         <v>2</v>
@@ -6548,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="B87" s="80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="70" t="s">
         <v>95</v>
@@ -6569,13 +6694,13 @@
         <v>33</v>
       </c>
       <c r="I87" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="J87" s="32" t="s">
+      <c r="K87" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="K87" s="32" t="s">
-        <v>210</v>
       </c>
       <c r="L87" s="72">
         <v>2</v>
@@ -6607,13 +6732,13 @@
         <v>33</v>
       </c>
       <c r="I88" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="J88" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="J88" s="32" t="s">
+      <c r="K88" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="K88" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="L88" s="72">
         <v>2</v>
@@ -6624,7 +6749,7 @@
         <v>3</v>
       </c>
       <c r="B89" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C89" s="70" t="s">
         <v>95</v>
@@ -6645,13 +6770,13 @@
         <v>33</v>
       </c>
       <c r="I89" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="J89" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="J89" s="32" t="s">
+      <c r="K89" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="K89" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="L89" s="72">
         <v>2</v>
@@ -6683,13 +6808,13 @@
         <v>33</v>
       </c>
       <c r="I90" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="J90" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="J90" s="32" t="s">
+      <c r="K90" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="K90" s="32" t="s">
-        <v>220</v>
       </c>
       <c r="L90" s="72">
         <v>2</v>
@@ -6721,13 +6846,13 @@
         <v>33</v>
       </c>
       <c r="I91" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="J91" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="J91" s="32" t="s">
+      <c r="K91" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="K91" s="32" t="s">
-        <v>223</v>
       </c>
       <c r="L91" s="72">
         <v>2</v>
@@ -6738,7 +6863,7 @@
         <v>3</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C92" s="70" t="s">
         <v>95</v>
@@ -6747,7 +6872,7 @@
         <v>98</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="71" t="s">
         <v>143</v>
@@ -6759,13 +6884,13 @@
         <v>33</v>
       </c>
       <c r="I92" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="J92" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="J92" s="32" t="s">
+      <c r="K92" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="K92" s="32" t="s">
-        <v>223</v>
       </c>
       <c r="L92" s="72">
         <v>2</v>
@@ -6797,13 +6922,13 @@
         <v>33</v>
       </c>
       <c r="I93" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="J93" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="J93" s="32" t="s">
+      <c r="K93" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="K93" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="L93" s="72">
         <v>2</v>
@@ -6814,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="B94" s="80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C94" s="70" t="s">
         <v>95</v>
@@ -6835,13 +6960,13 @@
         <v>33</v>
       </c>
       <c r="I94" s="82" t="s">
+        <v>227</v>
+      </c>
+      <c r="J94" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="J94" s="32" t="s">
+      <c r="K94" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="K94" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="L94" s="72">
         <v>2</v>
@@ -6852,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="70" t="s">
         <v>95</v>
@@ -6864,7 +6989,7 @@
         <v>146</v>
       </c>
       <c r="F95" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G95" s="72" t="s">
         <v>141</v>
@@ -6873,13 +6998,13 @@
         <v>33</v>
       </c>
       <c r="I95" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J95" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K95" s="32" t="s">
         <v>232</v>
-      </c>
-      <c r="K95" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="L95" s="72">
         <v>2</v>
@@ -6890,7 +7015,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C96" s="70" t="s">
         <v>95</v>
@@ -6911,13 +7036,13 @@
         <v>33</v>
       </c>
       <c r="I96" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="J96" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="J96" s="32" t="s">
+      <c r="K96" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="K96" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="L96" s="72">
         <v>2</v>
@@ -6928,7 +7053,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C97" s="70" t="s">
         <v>95</v>
@@ -6937,7 +7062,7 @@
         <v>98</v>
       </c>
       <c r="E97" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F97" s="71" t="s">
         <v>157</v>
@@ -6949,13 +7074,13 @@
         <v>33</v>
       </c>
       <c r="I97" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J97" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K97" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="K97" s="32" t="s">
-        <v>240</v>
       </c>
       <c r="L97" s="72">
         <v>2</v>
@@ -6966,7 +7091,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C98" s="70" t="s">
         <v>95</v>
@@ -6987,13 +7112,13 @@
         <v>33</v>
       </c>
       <c r="I98" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="J98" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="J98" s="32" t="s">
+      <c r="K98" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="K98" s="32" t="s">
-        <v>244</v>
       </c>
       <c r="L98" s="72">
         <v>2</v>
@@ -7004,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C99" s="70" t="s">
         <v>95</v>
@@ -7013,10 +7138,10 @@
         <v>98</v>
       </c>
       <c r="E99" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F99" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G99" s="72" t="s">
         <v>141</v>
@@ -7025,13 +7150,13 @@
         <v>33</v>
       </c>
       <c r="I99" s="82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J99" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K99" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="K99" s="32" t="s">
-        <v>247</v>
       </c>
       <c r="L99" s="72">
         <v>2</v>
@@ -7042,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="B100" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" s="70" t="s">
         <v>95</v>
@@ -7063,13 +7188,13 @@
         <v>33</v>
       </c>
       <c r="I100" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="J100" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="J100" s="32" t="s">
+      <c r="K100" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="K100" s="32" t="s">
-        <v>251</v>
       </c>
       <c r="L100" s="72">
         <v>2</v>
@@ -7080,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="B101" s="80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C101" s="70" t="s">
         <v>95</v>
@@ -7089,10 +7214,10 @@
         <v>98</v>
       </c>
       <c r="E101" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F101" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G101" s="72" t="s">
         <v>141</v>
@@ -7101,13 +7226,13 @@
         <v>33</v>
       </c>
       <c r="I101" s="82" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J101" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="K101" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="K101" s="32" t="s">
-        <v>254</v>
       </c>
       <c r="L101" s="72">
         <v>2</v>
@@ -7118,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C102" s="70" t="s">
         <v>95</v>
@@ -7139,13 +7264,13 @@
         <v>33</v>
       </c>
       <c r="I102" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="J102" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="J102" s="32" t="s">
+      <c r="K102" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="K102" s="32" t="s">
-        <v>258</v>
       </c>
       <c r="L102" s="72">
         <v>2</v>
@@ -7156,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="B103" s="80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C103" s="70" t="s">
         <v>95</v>
@@ -7168,7 +7293,7 @@
         <v>146</v>
       </c>
       <c r="F103" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G103" s="72" t="s">
         <v>141</v>
@@ -7177,13 +7302,13 @@
         <v>33</v>
       </c>
       <c r="I103" s="82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J103" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K103" s="32" t="s">
         <v>260</v>
-      </c>
-      <c r="K103" s="32" t="s">
-        <v>261</v>
       </c>
       <c r="L103" s="72">
         <v>2</v>
@@ -7194,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="B104" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104" s="70" t="s">
         <v>95</v>
@@ -7215,13 +7340,13 @@
         <v>33</v>
       </c>
       <c r="I104" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J104" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K104" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="K104" s="20" t="s">
-        <v>308</v>
       </c>
       <c r="L104" s="72">
         <v>2</v>
@@ -7232,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C105" s="70" t="s">
         <v>95</v>
@@ -7241,7 +7366,7 @@
         <v>98</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F105" s="71" t="s">
         <v>152</v>
@@ -7253,13 +7378,13 @@
         <v>33</v>
       </c>
       <c r="I105" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J105" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K105" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="K105" s="20" t="s">
-        <v>308</v>
       </c>
       <c r="L105" s="72">
         <v>2</v>
@@ -7279,7 +7404,7 @@
         <v>98</v>
       </c>
       <c r="E106" s="101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F106" s="101" t="s">
         <v>144</v>
@@ -7291,13 +7416,13 @@
         <v>33</v>
       </c>
       <c r="I106" s="104" t="s">
+        <v>261</v>
+      </c>
+      <c r="J106" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="J106" s="93" t="s">
+      <c r="K106" s="93" t="s">
         <v>263</v>
-      </c>
-      <c r="K106" s="93" t="s">
-        <v>264</v>
       </c>
       <c r="L106" s="102">
         <v>3</v>
@@ -7317,7 +7442,7 @@
         <v>98</v>
       </c>
       <c r="E107" s="101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F107" s="101" t="s">
         <v>157</v>
@@ -7329,13 +7454,13 @@
         <v>33</v>
       </c>
       <c r="I107" s="104" t="s">
+        <v>264</v>
+      </c>
+      <c r="J107" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="J107" s="93" t="s">
+      <c r="K107" s="93" t="s">
         <v>266</v>
-      </c>
-      <c r="K107" s="93" t="s">
-        <v>267</v>
       </c>
       <c r="L107" s="102">
         <v>3</v>
@@ -7355,10 +7480,10 @@
         <v>98</v>
       </c>
       <c r="E108" s="101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F108" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G108" s="102" t="s">
         <v>141</v>
@@ -7367,13 +7492,13 @@
         <v>33</v>
       </c>
       <c r="I108" s="104" t="s">
+        <v>267</v>
+      </c>
+      <c r="J108" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="J108" s="93" t="s">
+      <c r="K108" s="93" t="s">
         <v>269</v>
-      </c>
-      <c r="K108" s="93" t="s">
-        <v>270</v>
       </c>
       <c r="L108" s="102">
         <v>3</v>
@@ -7393,7 +7518,7 @@
         <v>98</v>
       </c>
       <c r="E109" s="101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F109" s="101" t="s">
         <v>157</v>
@@ -7405,13 +7530,13 @@
         <v>33</v>
       </c>
       <c r="I109" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="J109" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="J109" s="93" t="s">
+      <c r="K109" s="93" t="s">
         <v>272</v>
-      </c>
-      <c r="K109" s="93" t="s">
-        <v>273</v>
       </c>
       <c r="L109" s="102">
         <v>3</v>
@@ -7431,10 +7556,10 @@
         <v>98</v>
       </c>
       <c r="E110" s="101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F110" s="101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G110" s="102" t="s">
         <v>141</v>
@@ -7443,13 +7568,13 @@
         <v>33</v>
       </c>
       <c r="I110" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="J110" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="J110" s="93" t="s">
+      <c r="K110" s="93" t="s">
         <v>275</v>
-      </c>
-      <c r="K110" s="93" t="s">
-        <v>276</v>
       </c>
       <c r="L110" s="102">
         <v>3</v>
@@ -7469,10 +7594,10 @@
         <v>98</v>
       </c>
       <c r="E111" s="101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F111" s="101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G111" s="102" t="s">
         <v>141</v>
@@ -7481,13 +7606,13 @@
         <v>33</v>
       </c>
       <c r="I111" s="104" t="s">
+        <v>276</v>
+      </c>
+      <c r="J111" s="105" t="s">
         <v>277</v>
       </c>
-      <c r="J111" s="105" t="s">
+      <c r="K111" s="105" t="s">
         <v>278</v>
-      </c>
-      <c r="K111" s="105" t="s">
-        <v>279</v>
       </c>
       <c r="L111" s="102">
         <v>3</v>
@@ -7507,7 +7632,7 @@
         <v>98</v>
       </c>
       <c r="E112" s="67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" s="67" t="s">
         <v>144</v>
@@ -7519,13 +7644,13 @@
         <v>33</v>
       </c>
       <c r="I112" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="J112" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="J112" s="69" t="s">
+      <c r="K112" s="69" t="s">
         <v>281</v>
-      </c>
-      <c r="K112" s="69" t="s">
-        <v>282</v>
       </c>
       <c r="L112" s="102">
         <v>3</v>
@@ -7536,7 +7661,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="103" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C113" s="100" t="s">
         <v>95</v>
@@ -7545,7 +7670,7 @@
         <v>98</v>
       </c>
       <c r="E113" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F113" s="101" t="s">
         <v>155</v>
@@ -7557,13 +7682,13 @@
         <v>33</v>
       </c>
       <c r="I113" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="J113" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="J113" s="93" t="s">
+      <c r="K113" s="93" t="s">
         <v>297</v>
-      </c>
-      <c r="K113" s="93" t="s">
-        <v>298</v>
       </c>
       <c r="L113" s="102">
         <v>3</v>
@@ -7574,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B114" s="103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C114" s="100" t="s">
         <v>95</v>
@@ -7595,13 +7720,13 @@
         <v>33</v>
       </c>
       <c r="I114" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="J114" s="105" t="s">
         <v>300</v>
       </c>
-      <c r="J114" s="105" t="s">
+      <c r="K114" s="105" t="s">
         <v>301</v>
-      </c>
-      <c r="K114" s="105" t="s">
-        <v>302</v>
       </c>
       <c r="L114" s="102">
         <v>3</v>
@@ -7612,7 +7737,7 @@
         <v>3</v>
       </c>
       <c r="B115" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115" s="97" t="s">
         <v>95</v>
@@ -7633,13 +7758,13 @@
         <v>33</v>
       </c>
       <c r="I115" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="J115" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="J115" s="75" t="s">
+      <c r="K115" s="75" t="s">
         <v>305</v>
-      </c>
-      <c r="K115" s="75" t="s">
-        <v>306</v>
       </c>
       <c r="L115" s="91">
         <v>3</v>
@@ -7650,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="B116" s="73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C116" s="97" t="s">
         <v>95</v>
@@ -7659,7 +7784,7 @@
         <v>98</v>
       </c>
       <c r="E116" s="74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F116" s="74" t="s">
         <v>45</v>
@@ -7674,10 +7799,10 @@
         <v>126</v>
       </c>
       <c r="J116" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="K116" s="75" t="s">
         <v>476</v>
-      </c>
-      <c r="K116" s="75" t="s">
-        <v>477</v>
       </c>
       <c r="L116" s="91">
         <v>3</v>
@@ -7688,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C117" s="107" t="s">
         <v>95</v>
@@ -7709,13 +7834,13 @@
         <v>33</v>
       </c>
       <c r="I117" s="110" t="s">
+        <v>478</v>
+      </c>
+      <c r="J117" s="112" t="s">
         <v>479</v>
       </c>
-      <c r="J117" s="112" t="s">
+      <c r="K117" s="113" t="s">
         <v>480</v>
-      </c>
-      <c r="K117" s="113" t="s">
-        <v>481</v>
       </c>
       <c r="L117" s="91">
         <v>3</v>
@@ -7726,10 +7851,10 @@
         <v>3</v>
       </c>
       <c r="B118" s="115" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C118" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D118" s="116" t="s">
         <v>99</v>
@@ -7745,13 +7870,13 @@
         <v>33</v>
       </c>
       <c r="I118" s="110" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J118" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="K118" s="33" t="s">
         <v>455</v>
-      </c>
-      <c r="K118" s="33" t="s">
-        <v>456</v>
       </c>
       <c r="L118" s="91">
         <v>3</v>
@@ -7762,7 +7887,7 @@
         <v>3</v>
       </c>
       <c r="B119" s="106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C119" s="107" t="s">
         <v>95</v>
@@ -7783,13 +7908,13 @@
         <v>33</v>
       </c>
       <c r="I119" s="110" t="s">
+        <v>485</v>
+      </c>
+      <c r="J119" s="48" t="s">
         <v>486</v>
       </c>
-      <c r="J119" s="48" t="s">
+      <c r="K119" s="49" t="s">
         <v>487</v>
-      </c>
-      <c r="K119" s="49" t="s">
-        <v>488</v>
       </c>
       <c r="L119" s="91">
         <v>3</v>
@@ -7800,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="B120" s="106" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C120" s="107" t="s">
         <v>95</v>
@@ -7812,7 +7937,7 @@
         <v>153</v>
       </c>
       <c r="F120" s="108" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G120" s="109" t="s">
         <v>141</v>
@@ -7821,13 +7946,13 @@
         <v>33</v>
       </c>
       <c r="I120" s="110" t="s">
+        <v>485</v>
+      </c>
+      <c r="J120" s="112" t="s">
         <v>486</v>
       </c>
-      <c r="J120" s="112" t="s">
+      <c r="K120" s="113" t="s">
         <v>487</v>
-      </c>
-      <c r="K120" s="113" t="s">
-        <v>488</v>
       </c>
       <c r="L120" s="102">
         <v>3</v>
@@ -7838,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="B121" s="137" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C121" s="120" t="s">
         <v>14</v>
@@ -7857,13 +7982,13 @@
         <v>42</v>
       </c>
       <c r="I121" s="123" t="s">
+        <v>316</v>
+      </c>
+      <c r="J121" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="K121" s="125" t="s">
         <v>317</v>
-      </c>
-      <c r="J121" s="124" t="s">
-        <v>169</v>
-      </c>
-      <c r="K121" s="125" t="s">
-        <v>318</v>
       </c>
       <c r="L121" s="126">
         <v>0</v>
@@ -7874,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="B122" s="106" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C122" s="107" t="s">
         <v>80</v>
@@ -7895,13 +8020,13 @@
         <v>27</v>
       </c>
       <c r="I122" s="128" t="s">
+        <v>361</v>
+      </c>
+      <c r="J122" s="129" t="s">
         <v>362</v>
       </c>
-      <c r="J122" s="129" t="s">
+      <c r="K122" s="130" t="s">
         <v>363</v>
-      </c>
-      <c r="K122" s="130" t="s">
-        <v>364</v>
       </c>
       <c r="L122" s="131">
         <v>0</v>
@@ -7912,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="B123" s="106" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C123" s="107" t="s">
         <v>63</v>
@@ -7921,7 +8046,7 @@
         <v>98</v>
       </c>
       <c r="E123" s="108" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F123" s="108">
         <v>30</v>
@@ -7933,13 +8058,13 @@
         <v>37</v>
       </c>
       <c r="I123" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="J123" s="129" t="s">
         <v>347</v>
       </c>
-      <c r="J123" s="129" t="s">
+      <c r="K123" s="130" t="s">
         <v>348</v>
-      </c>
-      <c r="K123" s="130" t="s">
-        <v>349</v>
       </c>
       <c r="L123" s="131">
         <v>0</v>
@@ -7950,7 +8075,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C124" s="22" t="s">
         <v>56</v>
@@ -7969,13 +8094,13 @@
         <v>31</v>
       </c>
       <c r="I124" s="133" t="s">
+        <v>344</v>
+      </c>
+      <c r="J124" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="K124" s="134" t="s">
         <v>345</v>
-      </c>
-      <c r="J124" s="134" t="s">
-        <v>172</v>
-      </c>
-      <c r="K124" s="134" t="s">
-        <v>346</v>
       </c>
       <c r="L124" s="131">
         <v>0</v>
@@ -7986,7 +8111,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>63</v>
@@ -8007,13 +8132,13 @@
         <v>37</v>
       </c>
       <c r="I125" s="133" t="s">
+        <v>349</v>
+      </c>
+      <c r="J125" s="134" t="s">
         <v>350</v>
       </c>
-      <c r="J125" s="134" t="s">
+      <c r="K125" s="136" t="s">
         <v>351</v>
-      </c>
-      <c r="K125" s="136" t="s">
-        <v>352</v>
       </c>
       <c r="L125" s="131">
         <v>0</v>
@@ -8024,7 +8149,7 @@
         <v>3</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>43</v>
@@ -8043,13 +8168,13 @@
         <v>44</v>
       </c>
       <c r="I126" s="133" t="s">
+        <v>313</v>
+      </c>
+      <c r="J126" s="134" t="s">
         <v>314</v>
       </c>
-      <c r="J126" s="134" t="s">
+      <c r="K126" s="134" t="s">
         <v>315</v>
-      </c>
-      <c r="K126" s="134" t="s">
-        <v>316</v>
       </c>
       <c r="L126" s="131">
         <v>0</v>
@@ -8060,7 +8185,7 @@
         <v>3</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>10</v>
@@ -8079,13 +8204,13 @@
         <v>4</v>
       </c>
       <c r="I127" s="133" t="s">
+        <v>333</v>
+      </c>
+      <c r="J127" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="K127" s="136" t="s">
         <v>334</v>
-      </c>
-      <c r="J127" s="134" t="s">
-        <v>187</v>
-      </c>
-      <c r="K127" s="136" t="s">
-        <v>335</v>
       </c>
       <c r="L127" s="131">
         <v>0</v>
@@ -8096,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>30</v>
@@ -8115,13 +8240,13 @@
         <v>31</v>
       </c>
       <c r="I128" s="133" t="s">
+        <v>309</v>
+      </c>
+      <c r="J128" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="K128" s="134" t="s">
         <v>310</v>
-      </c>
-      <c r="J128" s="134" t="s">
-        <v>178</v>
-      </c>
-      <c r="K128" s="134" t="s">
-        <v>311</v>
       </c>
       <c r="L128" s="131">
         <v>0</v>
@@ -8132,7 +8257,7 @@
         <v>3</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>55</v>
@@ -8151,13 +8276,13 @@
         <v>4</v>
       </c>
       <c r="I129" s="133" t="s">
+        <v>338</v>
+      </c>
+      <c r="J129" s="134" t="s">
         <v>339</v>
       </c>
-      <c r="J129" s="134" t="s">
+      <c r="K129" s="134" t="s">
         <v>340</v>
-      </c>
-      <c r="K129" s="134" t="s">
-        <v>341</v>
       </c>
       <c r="L129" s="131">
         <v>0</v>
@@ -8168,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C130" s="107" t="s">
         <v>102</v>
@@ -8179,19 +8304,19 @@
       <c r="E130" s="108"/>
       <c r="F130" s="108"/>
       <c r="G130" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H130" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I130" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="J130" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="J130" s="48" t="s">
-        <v>510</v>
-      </c>
       <c r="K130" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L130" s="131">
         <v>0</v>
@@ -8202,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="B131" s="106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C131" s="107" t="s">
         <v>54</v>
@@ -8215,19 +8340,19 @@
       </c>
       <c r="F131" s="108"/>
       <c r="G131" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H131" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I131" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="J131" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="J131" s="48" t="s">
+      <c r="K131" s="49" t="s">
         <v>515</v>
-      </c>
-      <c r="K131" s="49" t="s">
-        <v>516</v>
       </c>
       <c r="L131" s="131">
         <v>0</v>
@@ -8238,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="B132" s="106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C132" s="107" t="s">
         <v>119</v>
@@ -8249,19 +8374,19 @@
       <c r="E132" s="108"/>
       <c r="F132" s="108"/>
       <c r="G132" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H132" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I132" s="47" t="s">
+        <v>534</v>
+      </c>
+      <c r="J132" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="J132" s="48" t="s">
+      <c r="K132" s="49" t="s">
         <v>536</v>
-      </c>
-      <c r="K132" s="49" t="s">
-        <v>537</v>
       </c>
       <c r="L132" s="131">
         <v>0</v>
@@ -8272,7 +8397,7 @@
         <v>3</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>74</v>
@@ -8283,19 +8408,19 @@
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H133" s="127" t="s">
         <v>31</v>
       </c>
       <c r="I133" s="47" t="s">
+        <v>519</v>
+      </c>
+      <c r="J133" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="J133" s="48" t="s">
+      <c r="K133" s="49" t="s">
         <v>521</v>
-      </c>
-      <c r="K133" s="49" t="s">
-        <v>522</v>
       </c>
       <c r="L133" s="131">
         <v>0</v>
@@ -8306,7 +8431,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>53</v>
@@ -8319,19 +8444,19 @@
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H134" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I134" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="J134" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="J134" s="48" t="s">
+      <c r="K134" s="49" t="s">
         <v>524</v>
-      </c>
-      <c r="K134" s="49" t="s">
-        <v>525</v>
       </c>
       <c r="L134" s="131">
         <v>0</v>
@@ -8342,7 +8467,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C135" s="22" t="s">
         <v>72</v>
@@ -8353,19 +8478,19 @@
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H135" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I135" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="J135" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="J135" s="48" t="s">
+      <c r="K135" s="49" t="s">
         <v>533</v>
-      </c>
-      <c r="K135" s="49" t="s">
-        <v>534</v>
       </c>
       <c r="L135" s="131">
         <v>0</v>
@@ -8376,7 +8501,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>41</v>
@@ -8389,19 +8514,19 @@
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H136" s="127" t="s">
         <v>42</v>
       </c>
       <c r="I136" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="J136" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="J136" s="48" t="s">
+      <c r="K136" s="49" t="s">
         <v>527</v>
-      </c>
-      <c r="K136" s="49" t="s">
-        <v>528</v>
       </c>
       <c r="L136" s="131">
         <v>0</v>
@@ -8412,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="B137" s="106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C137" s="107" t="s">
         <v>100</v>
@@ -8423,19 +8548,19 @@
       <c r="E137" s="108"/>
       <c r="F137" s="108"/>
       <c r="G137" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H137" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I137" s="47" t="s">
+        <v>516</v>
+      </c>
+      <c r="J137" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="J137" s="48" t="s">
+      <c r="K137" s="49" t="s">
         <v>518</v>
-      </c>
-      <c r="K137" s="49" t="s">
-        <v>519</v>
       </c>
       <c r="L137" s="131">
         <v>0</v>
@@ -8446,7 +8571,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="106" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C138" s="107" t="s">
         <v>85</v>
@@ -8461,143 +8586,389 @@
         <v>1</v>
       </c>
       <c r="G138" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H138" s="127" t="s">
         <v>37</v>
       </c>
       <c r="I138" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="J138" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="J138" s="48" t="s">
+      <c r="K138" s="49" t="s">
         <v>512</v>
-      </c>
-      <c r="K138" s="49" t="s">
-        <v>513</v>
       </c>
       <c r="L138" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="161" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="152" t="s">
-        <v>507</v>
-      </c>
-      <c r="C139" s="153" t="s">
+    <row r="139" spans="1:12" s="158" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="149" t="s">
+        <v>506</v>
+      </c>
+      <c r="C139" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="D139" s="153" t="s">
+      <c r="D139" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="E139" s="154"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="155" t="s">
-        <v>538</v>
-      </c>
-      <c r="H139" s="156" t="s">
+      <c r="E139" s="151"/>
+      <c r="F139" s="151"/>
+      <c r="G139" s="152" t="s">
+        <v>537</v>
+      </c>
+      <c r="H139" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="I139" s="157" t="s">
+      <c r="I139" s="154" t="s">
+        <v>528</v>
+      </c>
+      <c r="J139" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="J139" s="158" t="s">
+      <c r="K139" s="156" t="s">
         <v>530</v>
       </c>
-      <c r="K139" s="159" t="s">
-        <v>531</v>
-      </c>
-      <c r="L139" s="160">
+      <c r="L139" s="157">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="147" t="s">
-        <v>540</v>
-      </c>
-      <c r="C140" s="148" t="s">
+    <row r="140" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="175" t="s">
+        <v>539</v>
+      </c>
+      <c r="C140" s="176" t="s">
         <v>95</v>
       </c>
-      <c r="D140" s="148" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" s="142" t="s">
+      <c r="D140" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="177" t="s">
         <v>150</v>
       </c>
-      <c r="F140" s="142" t="s">
+      <c r="F140" s="177" t="s">
         <v>146</v>
       </c>
-      <c r="G140" s="143" t="s">
+      <c r="G140" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="149" t="s">
+      <c r="H140" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="I140" s="144" t="str">
+      <c r="I140" s="179" t="str">
         <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_NAME</v>
       </c>
-      <c r="J140" s="145" t="str">
+      <c r="J140" s="180" t="str">
         <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC</v>
       </c>
-      <c r="K140" s="146" t="str">
+      <c r="K140" s="181" t="str">
         <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC_SHORT</v>
       </c>
-      <c r="L140" s="150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
+      <c r="L140" s="147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="173" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="166" t="s">
+        <v>540</v>
+      </c>
+      <c r="C141" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141" s="168" t="s">
+        <v>172</v>
+      </c>
+      <c r="F141" s="168" t="s">
+        <v>143</v>
+      </c>
+      <c r="G141" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="H141" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I141" s="169" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_NAME</v>
+      </c>
+      <c r="J141" s="170" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DESC</v>
+      </c>
+      <c r="K141" s="171" t="str">
+        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DESC_SHORT</v>
+      </c>
+      <c r="L141" s="172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="144" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D142" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="E142" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" s="142" t="s">
+        <v>178</v>
+      </c>
+      <c r="G142" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H142" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I142" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="J142" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K142" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L142" s="147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="175" t="s">
+        <v>541</v>
+      </c>
+      <c r="C143" s="176" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="176" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="177" t="s">
+        <v>540</v>
+      </c>
+      <c r="F143" s="177" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="179" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_NAME</v>
+      </c>
+      <c r="J143" s="180" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC</v>
+      </c>
+      <c r="K143" s="181" t="str">
+        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC_SHORT</v>
+      </c>
+      <c r="L143" s="147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="144" t="s">
+        <v>543</v>
+      </c>
+      <c r="C144" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="182" t="s">
+        <v>542</v>
+      </c>
+      <c r="F144" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="G144" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="J144" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="K144" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="L144" s="147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="C145" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="J145" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="K145" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="L145" s="131"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G146" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H146" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J146" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="K146" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L146" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="160"/>
+      <c r="B147" s="159"/>
+      <c r="C147" s="161"/>
+      <c r="D147" s="161"/>
+      <c r="E147" s="162"/>
+      <c r="F147" s="162"/>
+      <c r="G147" s="163"/>
+      <c r="H147" s="163"/>
+      <c r="I147" s="183"/>
+      <c r="J147" s="183"/>
+      <c r="K147" s="183"/>
+      <c r="L147" s="164"/>
+    </row>
+    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-    </row>
-    <row r="144" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="151" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C151" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D144" s="51" t="s">
+      <c r="D151" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E144" s="51" t="s">
+      <c r="E151" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="4" t="s">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C152" s="3">
         <v>11</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D152" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E152" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="561">
   <si>
     <t>[sku]</t>
   </si>
@@ -1643,27 +1643,12 @@
     <t>TID_POWERUP_BABY_TRANSFORM_VEGETABLES_DESC_SHORT</t>
   </si>
   <si>
-    <t>disguise_speed_boost_disguise_lower_damage_poison</t>
-  </si>
-  <si>
-    <t>disguise_speed_LOW_boost</t>
-  </si>
-  <si>
-    <t>disguise_speed_LOW_boost_disguise_lower_damage_poison</t>
-  </si>
-  <si>
     <t>disguise_speed_LOW_boost_LOW</t>
   </si>
   <si>
-    <t>disguise_speed_LOW_boost_LOW_disguise_lower_damage_poison</t>
-  </si>
-  <si>
     <t>Archer01;Archer02;BakerWoman;Catapulter;DrunkenMan;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04</t>
   </si>
   <si>
-    <t>disguise_prey_hp_boost_humans_boost</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_40_NAME</t>
   </si>
   <si>
@@ -1685,14 +1670,50 @@
     <t>TID_POWERUP_DISGUISE_42_NAME</t>
   </si>
   <si>
-    <t>disguise_speed_LOW_boost_LOW_prey_hp_boost_humans</t>
+    <t>disguise_speed_LOW_boost_LOW_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_42_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_42_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_43_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_43_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_43_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>Archer01;Archer02;BakerWoman;Catapulter;BadFarmer;RichMan;ShieldMan;Soldier;Villager01;Villager02;Villager03;Villager04</t>
+  </si>
+  <si>
+    <t>disguise_prey_hp_boost_humans</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_LOW_hp</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_44_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_44_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_44_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_hp_LOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,13 +1791,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1852,7 +1866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2064,15 +2078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2131,26 +2136,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2554,146 +2544,73 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2719,7 +2636,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -3252,10 +3169,27 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3275,13 +3209,6 @@
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -3298,29 +3225,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L146" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L144" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L144"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="[type]" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="11" name="[category]" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="4" name="[param1]" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="5" name="[param2]" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="6" name="[icon]" dataDxfId="10" totalsRowDxfId="11">
       <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="10" name="[miniIcon]" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="6" totalsRowDxfId="7">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" name="[tidDesc]" dataDxfId="4" totalsRowDxfId="5">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="9" name="[tidDescShort]" dataDxfId="2" totalsRowDxfId="3">
       <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="12" name="[level]" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3592,10 +3519,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="H107" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4159,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F19" s="39">
         <v>30</v>
@@ -6226,7 +6153,7 @@
       <c r="A75" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="94" t="s">
+      <c r="B75" s="63" t="s">
         <v>178</v>
       </c>
       <c r="C75" s="89" t="s">
@@ -8604,371 +8531,274 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="158" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="148" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" s="149" t="s">
+    <row r="139" spans="1:12" s="156" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="147" t="s">
         <v>506</v>
       </c>
-      <c r="C139" s="150" t="s">
+      <c r="C139" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D139" s="150" t="s">
+      <c r="D139" s="148" t="s">
         <v>99</v>
       </c>
-      <c r="E139" s="151"/>
-      <c r="F139" s="151"/>
-      <c r="G139" s="152" t="s">
+      <c r="E139" s="149"/>
+      <c r="F139" s="149"/>
+      <c r="G139" s="150" t="s">
         <v>537</v>
       </c>
-      <c r="H139" s="153" t="s">
+      <c r="H139" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="I139" s="154" t="s">
+      <c r="I139" s="152" t="s">
         <v>528</v>
       </c>
-      <c r="J139" s="155" t="s">
+      <c r="J139" s="153" t="s">
         <v>529</v>
       </c>
-      <c r="K139" s="156" t="s">
+      <c r="K139" s="154" t="s">
         <v>530</v>
       </c>
-      <c r="L139" s="157">
+      <c r="L139" s="155">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="B140" s="175" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C140" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G140" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H140" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I140" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="J140" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="K140" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="L140" s="145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="C141" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E141" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F141" s="108">
+        <v>30</v>
+      </c>
+      <c r="G141" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="H141" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="I141" s="47" t="s">
+        <v>544</v>
+      </c>
+      <c r="J141" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="K141" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="L141" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="143" t="s">
         <v>539</v>
       </c>
-      <c r="C140" s="176" t="s">
+      <c r="C142" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D140" s="176" t="s">
+      <c r="D142" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="E140" s="177" t="s">
-        <v>150</v>
-      </c>
-      <c r="F140" s="177" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" s="178" t="s">
-        <v>141</v>
-      </c>
-      <c r="H140" s="178" t="s">
-        <v>33</v>
-      </c>
-      <c r="I140" s="179" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_NAME</v>
-      </c>
-      <c r="J140" s="180" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC</v>
-      </c>
-      <c r="K140" s="181" t="str">
-        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC_SHORT</v>
-      </c>
-      <c r="L140" s="147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" s="173" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="B141" s="166" t="s">
-        <v>540</v>
-      </c>
-      <c r="C141" s="167" t="s">
-        <v>95</v>
-      </c>
-      <c r="D141" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="E141" s="168" t="s">
-        <v>172</v>
-      </c>
-      <c r="F141" s="168" t="s">
-        <v>143</v>
-      </c>
-      <c r="G141" s="146" t="s">
-        <v>141</v>
-      </c>
-      <c r="H141" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="I141" s="169" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_NAME</v>
-      </c>
-      <c r="J141" s="170" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DESC</v>
-      </c>
-      <c r="K141" s="171" t="str">
-        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DESC_SHORT</v>
-      </c>
-      <c r="L141" s="172">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B142" s="144" t="s">
-        <v>542</v>
-      </c>
-      <c r="C142" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="E142" s="142" t="s">
+      <c r="E142" s="157" t="s">
         <v>172</v>
       </c>
       <c r="F142" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="G142" s="143" t="s">
+      <c r="G142" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H142" s="146" t="s">
+      <c r="H142" s="102" t="s">
         <v>33</v>
       </c>
       <c r="I142" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="J142" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="K142" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="L142" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="159" t="s">
+        <v>548</v>
+      </c>
+      <c r="C143" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="160" t="s">
+        <v>539</v>
+      </c>
+      <c r="F143" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="J143" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="J142" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="K142" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="L142" s="147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="175" t="s">
-        <v>541</v>
-      </c>
-      <c r="C143" s="176" t="s">
+      <c r="K143" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="L143" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="143" t="s">
+        <v>556</v>
+      </c>
+      <c r="C144" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D143" s="176" t="s">
+      <c r="D144" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="E143" s="177" t="s">
-        <v>540</v>
-      </c>
-      <c r="F143" s="177" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" s="178" t="s">
+      <c r="E144" s="160" t="s">
+        <v>539</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G144" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H143" s="178" t="s">
+      <c r="H144" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I143" s="179" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_NAME</v>
-      </c>
-      <c r="J143" s="180" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC</v>
-      </c>
-      <c r="K143" s="181" t="str">
-        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_DISGUISE_LOWER_DAMAGE_POISON_DESC_SHORT</v>
-      </c>
-      <c r="L143" s="147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="144" t="s">
-        <v>543</v>
-      </c>
-      <c r="C144" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="182" t="s">
-        <v>542</v>
-      </c>
-      <c r="F144" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" s="146" t="s">
-        <v>33</v>
-      </c>
       <c r="I144" s="47" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="J144" s="47" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="K144" s="47" t="s">
-        <v>548</v>
-      </c>
-      <c r="L144" s="147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="141" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="C145" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="E145" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="F145" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" s="143" t="s">
-        <v>141</v>
-      </c>
-      <c r="H145" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="I145" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="J145" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="K145" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="L145" s="131"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G146" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="H146" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I146" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="J146" s="43" t="s">
-        <v>347</v>
-      </c>
-      <c r="K146" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="L146" s="131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="160"/>
-      <c r="B147" s="159"/>
-      <c r="C147" s="161"/>
-      <c r="D147" s="161"/>
-      <c r="E147" s="162"/>
-      <c r="F147" s="162"/>
-      <c r="G147" s="163"/>
-      <c r="H147" s="163"/>
-      <c r="I147" s="183"/>
-      <c r="J147" s="183"/>
-      <c r="K147" s="183"/>
-      <c r="L147" s="164"/>
-    </row>
-    <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A149" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="L144" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-    </row>
-    <row r="151" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="148" spans="1:8" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="50" t="s">
+      <c r="C148" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D151" s="51" t="s">
+      <c r="D148" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E151" s="51" t="s">
+      <c r="E148" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B152" s="4" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C149" s="3">
         <v>11</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D149" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E149" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="569">
   <si>
     <t>[sku]</t>
   </si>
@@ -1652,18 +1652,12 @@
     <t>TID_POWERUP_DISGUISE_40_NAME</t>
   </si>
   <si>
-    <t>TID_POWERUP_DISGUISE_40_DESC</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_40_DESC_SHORT</t>
   </si>
   <si>
     <t>TID_POWERUP_DISGUISE_41_NAME</t>
   </si>
   <si>
-    <t>TID_POWERUP_DISGUISE_41_DESC</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_41_DESC_SHORT</t>
   </si>
   <si>
@@ -1707,13 +1701,43 @@
   </si>
   <si>
     <t>disguise_speed_LOW_hp_LOW</t>
+  </si>
+  <si>
+    <t>disguise_fury_duration_LOW_1</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_45_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_45_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_45_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_fury_duration_LOW_1_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_boost_LOW_fury_duration_LOW_1_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_boost_LOW_furyDuration_LOW_1</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_46_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_46_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_46_NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1791,8 +1815,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1862,6 +1900,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,7 +2184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,24 +2637,111 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -2636,7 +2767,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -3169,27 +3300,10 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3209,6 +3323,13 @@
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -3225,29 +3346,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L144" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L148" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L148"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="3" name="[type]" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="11" name="[category]" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="4" name="[param1]" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="[param2]" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="6" name="[icon]" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" name="[type]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="11" name="[category]" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="[param1]" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" name="[param2]" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="[icon]" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>CONCATENATE("icon_",powerUpsDefinitions2[[#This Row],['[sku']]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="[miniIcon]" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="[tidName]" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="10" name="[miniIcon]" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="[tidName]" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="[tidDesc]" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="8" name="[tidDesc]" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="[tidDescShort]" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="9" name="[tidDescShort]" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="[level]" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="12" name="[level]" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3519,22 +3640,22 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H107" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
@@ -8569,35 +8690,33 @@
       <c r="A140" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B140" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="C140" s="144" t="s">
-        <v>95</v>
-      </c>
-      <c r="D140" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="E140" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="G140" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="H140" s="102" t="s">
-        <v>33</v>
+      <c r="B140" s="165" t="s">
+        <v>559</v>
+      </c>
+      <c r="C140" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="90">
+        <v>75</v>
+      </c>
+      <c r="F140" s="90"/>
+      <c r="G140" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H140" s="91" t="s">
+        <v>42</v>
       </c>
       <c r="I140" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="J140" s="47" t="s">
+      <c r="J140" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="K140" s="47" t="s">
         <v>542</v>
-      </c>
-      <c r="K140" s="47" t="s">
-        <v>543</v>
       </c>
       <c r="L140" s="145">
         <v>3</v>
@@ -8608,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C141" s="107" t="s">
         <v>63</v>
@@ -8617,7 +8736,7 @@
         <v>98</v>
       </c>
       <c r="E141" s="23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F141" s="108">
         <v>30</v>
@@ -8629,13 +8748,13 @@
         <v>37</v>
       </c>
       <c r="I141" s="47" t="s">
+        <v>543</v>
+      </c>
+      <c r="J141" s="129" t="s">
+        <v>347</v>
+      </c>
+      <c r="K141" s="47" t="s">
         <v>544</v>
-      </c>
-      <c r="J141" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="K141" s="47" t="s">
-        <v>546</v>
       </c>
       <c r="L141" s="131">
         <v>3</v>
@@ -8667,138 +8786,292 @@
         <v>33</v>
       </c>
       <c r="I142" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="J142" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="J142" s="47" t="s">
+      <c r="K142" s="47" t="s">
+        <v>548</v>
+      </c>
+      <c r="L142" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="167" t="s">
+        <v>546</v>
+      </c>
+      <c r="C143" s="168" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="167" t="s">
+        <v>539</v>
+      </c>
+      <c r="F143" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="172" t="s">
+        <v>555</v>
+      </c>
+      <c r="J143" s="172" t="s">
+        <v>556</v>
+      </c>
+      <c r="K143" s="172" t="s">
+        <v>557</v>
+      </c>
+      <c r="L143" s="173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="167" t="s">
+        <v>564</v>
+      </c>
+      <c r="C144" s="168" t="s">
+        <v>95</v>
+      </c>
+      <c r="D144" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="F144" s="176" t="s">
+        <v>565</v>
+      </c>
+      <c r="G144" s="170" t="s">
+        <v>141</v>
+      </c>
+      <c r="H144" s="171" t="s">
+        <v>33</v>
+      </c>
+      <c r="I144" s="172" t="s">
         <v>549</v>
       </c>
-      <c r="K142" s="47" t="s">
+      <c r="J144" s="172" t="s">
         <v>550</v>
       </c>
-      <c r="L142" s="131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="158" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="159" t="s">
-        <v>548</v>
-      </c>
-      <c r="C143" s="144" t="s">
+      <c r="K144" s="172" t="s">
+        <v>551</v>
+      </c>
+      <c r="L144" s="173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" s="180" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="176" t="s">
+        <v>565</v>
+      </c>
+      <c r="C145" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="D143" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143" s="160" t="s">
+      <c r="D145" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="177" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" s="178" t="s">
+        <v>559</v>
+      </c>
+      <c r="G145" s="179" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="179" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="182" t="s">
+        <v>561</v>
+      </c>
+      <c r="J145" s="181" t="s">
+        <v>560</v>
+      </c>
+      <c r="K145" s="181" t="s">
+        <v>562</v>
+      </c>
+      <c r="L145" s="179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" s="189" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="183" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" s="184" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="169" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="G146" s="186" t="s">
+        <v>141</v>
+      </c>
+      <c r="H146" s="187" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="182" t="s">
+        <v>568</v>
+      </c>
+      <c r="J146" s="181" t="s">
+        <v>567</v>
+      </c>
+      <c r="K146" s="181" t="s">
+        <v>566</v>
+      </c>
+      <c r="L146" s="188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="45"/>
+      <c r="B147" s="143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C147" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E147" s="158" t="s">
         <v>539</v>
       </c>
-      <c r="F143" s="161" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" s="64" t="s">
+      <c r="F147" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G147" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H143" s="91" t="s">
+      <c r="H147" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I143" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="J143" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="K143" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="L143" s="131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="143" t="s">
-        <v>556</v>
-      </c>
-      <c r="C144" s="144" t="s">
+      <c r="I147" s="110" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_NAME</v>
+      </c>
+      <c r="J147" s="160" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_DESC</v>
+      </c>
+      <c r="K147" s="161" t="str">
+        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_DESC_SHORT</v>
+      </c>
+      <c r="L147" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="45"/>
+      <c r="B148" s="115" t="s">
+        <v>558</v>
+      </c>
+      <c r="C148" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D144" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="160" t="s">
-        <v>539</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G144" s="66" t="s">
+      <c r="D148" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="F148" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="G148" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="H144" s="102" t="s">
+      <c r="H148" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="I144" s="47" t="s">
-        <v>557</v>
-      </c>
-      <c r="J144" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="K144" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="L144" s="131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
+      <c r="I148" s="110" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_NAME</v>
+      </c>
+      <c r="J148" s="160" t="str">
+        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_DESC</v>
+      </c>
+      <c r="K148" s="161" t="str">
+        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
+        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_DESC_SHORT</v>
+      </c>
+      <c r="L148" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="148" spans="1:8" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="152" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C148" s="50" t="s">
+      <c r="C152" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D148" s="51" t="s">
+      <c r="D152" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E148" s="51" t="s">
+      <c r="E152" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B149" s="4" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C153" s="3">
         <v>11</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D153" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E153" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="573">
   <si>
     <t>[sku]</t>
   </si>
@@ -1703,9 +1703,6 @@
     <t>disguise_speed_LOW_hp_LOW</t>
   </si>
   <si>
-    <t>disguise_fury_duration_LOW_1</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_45_DESC</t>
   </si>
   <si>
@@ -1715,15 +1712,9 @@
     <t>TID_POWERUP_DISGUISE_45_DESC_SHORT</t>
   </si>
   <si>
-    <t>disguise_speed_LOW_fury_duration_LOW_1_lower_damage_poison</t>
-  </si>
-  <si>
     <t>disguise_boost_LOW_fury_duration_LOW_1_lower_damage_poison</t>
   </si>
   <si>
-    <t>disguise_boost_LOW_furyDuration_LOW_1</t>
-  </si>
-  <si>
     <t>TID_POWERUP_DISGUISE_46_DESC_SHORT</t>
   </si>
   <si>
@@ -1731,13 +1722,34 @@
   </si>
   <si>
     <t>TID_POWERUP_DISGUISE_46_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_50_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_50_DESC</t>
+  </si>
+  <si>
+    <t>disguise_speed_fury_duration_LOW_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_speed_boost_LOW</t>
+  </si>
+  <si>
+    <t>disguise_speed_fury_duration_lower_damage_poison</t>
+  </si>
+  <si>
+    <t>disguise_fury_duration_LOW_Steam</t>
+  </si>
+  <si>
+    <t>disguise_boost_LOW_fury_duration_LOW_Steam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1817,20 +1829,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1900,12 +1905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2658,75 +2657,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3346,8 +3279,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L148" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L150" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L150">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="baby_speed"/>
+        <filter val="disguise_furyDuration_lowerDamageMine_speed"/>
+        <filter val="disguise_furySize_boost_speed"/>
+        <filter val="disguise_speed"/>
+        <filter val="disguise_speed_boost"/>
+        <filter val="disguise_speed_boost_LOW"/>
+        <filter val="disguise_speed_fury_duration_LOW_lower_damage_poison"/>
+        <filter val="disguise_speed_fury_duration_lower_damage_poison"/>
+        <filter val="disguise_speed_furyDuration"/>
+        <filter val="disguise_speed_furyDuration_LOW"/>
+        <filter val="disguise_speed_hp"/>
+        <filter val="disguise_speed_hp_disguise_lower_damage_mine"/>
+        <filter val="disguise_speed_LOW"/>
+        <filter val="disguise_speed_LOW_boost_LOW"/>
+        <filter val="disguise_speed_LOW_boost_LOW_hp"/>
+        <filter val="disguise_speed_LOW_boost_LOW_lower_damage_poison"/>
+        <filter val="disguise_speed_LOW_hp"/>
+        <filter val="disguise_speed_LOW_hp_free_revive"/>
+        <filter val="disguise_speed_LOW_hp_LOW"/>
+        <filter val="disguise_speed_moreXp"/>
+        <filter val="speed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
@@ -3640,10 +3599,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3641,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="113.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3720,7 +3679,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -3828,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -3864,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3936,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3972,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -4010,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -4048,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -4086,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -4266,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
@@ -4304,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
@@ -4380,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
@@ -4418,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
@@ -4454,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
@@ -4492,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4528,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -4602,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -4640,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -4786,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4822,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
@@ -4858,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>3</v>
       </c>
@@ -4896,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
@@ -4932,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4968,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
@@ -5004,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -5040,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
@@ -5076,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
@@ -5148,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
@@ -5184,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
@@ -5220,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>3</v>
       </c>
@@ -5256,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -5290,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -5324,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>3</v>
       </c>
@@ -5358,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>3</v>
       </c>
@@ -5392,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>3</v>
       </c>
@@ -5460,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
@@ -5494,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5528,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
@@ -5604,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>3</v>
       </c>
@@ -5640,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>3</v>
       </c>
@@ -5674,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
@@ -5708,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -5742,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>3</v>
       </c>
@@ -5776,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>3</v>
       </c>
@@ -5810,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>3</v>
       </c>
@@ -5844,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>3</v>
       </c>
@@ -5878,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>3</v>
       </c>
@@ -5912,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>3</v>
       </c>
@@ -5948,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>3</v>
       </c>
@@ -5984,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="88" t="s">
         <v>3</v>
       </c>
@@ -6020,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>3</v>
       </c>
@@ -6056,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="88" t="s">
         <v>3</v>
       </c>
@@ -6092,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
         <v>3</v>
       </c>
@@ -6200,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
         <v>3</v>
       </c>
@@ -6234,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
         <v>3</v>
       </c>
@@ -6270,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
         <v>3</v>
       </c>
@@ -6344,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="88" t="s">
         <v>3</v>
       </c>
@@ -6382,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="88" t="s">
         <v>3</v>
       </c>
@@ -6420,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="95" t="s">
         <v>3</v>
       </c>
@@ -6456,7 +6415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="88" t="s">
         <v>3</v>
       </c>
@@ -6492,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="88" t="s">
         <v>3</v>
       </c>
@@ -6528,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>3</v>
       </c>
@@ -6640,7 +6599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>3</v>
       </c>
@@ -6678,7 +6637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
         <v>3</v>
       </c>
@@ -6754,7 +6713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
         <v>3</v>
       </c>
@@ -6792,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>3</v>
       </c>
@@ -6830,7 +6789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
@@ -6868,7 +6827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>3</v>
       </c>
@@ -6906,7 +6865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>3</v>
       </c>
@@ -6982,7 +6941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>3</v>
       </c>
@@ -7020,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>3</v>
       </c>
@@ -7058,7 +7017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>3</v>
       </c>
@@ -7096,7 +7055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -7134,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>3</v>
       </c>
@@ -7172,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>3</v>
       </c>
@@ -7210,7 +7169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>3</v>
       </c>
@@ -7248,7 +7207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>3</v>
       </c>
@@ -7286,7 +7245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45" t="s">
         <v>3</v>
       </c>
@@ -7324,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
         <v>3</v>
       </c>
@@ -7438,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="99" t="s">
         <v>3</v>
       </c>
@@ -7476,7 +7435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="99" t="s">
         <v>3</v>
       </c>
@@ -7552,7 +7511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="99" t="s">
         <v>3</v>
       </c>
@@ -7590,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="99" t="s">
         <v>3</v>
       </c>
@@ -7628,7 +7587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>3</v>
       </c>
@@ -7666,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="99" t="s">
         <v>3</v>
       </c>
@@ -7780,7 +7739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="77" t="s">
         <v>3</v>
       </c>
@@ -7856,7 +7815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="111" t="s">
         <v>3</v>
       </c>
@@ -7894,7 +7853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="114" t="s">
         <v>3</v>
       </c>
@@ -7930,7 +7889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="111" t="s">
         <v>3</v>
       </c>
@@ -7968,7 +7927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
@@ -8006,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A121" s="119" t="s">
         <v>3</v>
       </c>
@@ -8042,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="111" t="s">
         <v>3</v>
       </c>
@@ -8080,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="111" t="s">
         <v>3</v>
       </c>
@@ -8154,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>3</v>
       </c>
@@ -8192,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>3</v>
       </c>
@@ -8228,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>3</v>
       </c>
@@ -8264,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>3</v>
       </c>
@@ -8300,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>3</v>
       </c>
@@ -8336,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="111" t="s">
         <v>3</v>
       </c>
@@ -8370,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="111" t="s">
         <v>3</v>
       </c>
@@ -8406,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="111" t="s">
         <v>3</v>
       </c>
@@ -8440,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
         <v>3</v>
       </c>
@@ -8474,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45" t="s">
         <v>3</v>
       </c>
@@ -8510,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
         <v>3</v>
       </c>
@@ -8544,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45" t="s">
         <v>3</v>
       </c>
@@ -8580,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="111" t="s">
         <v>3</v>
       </c>
@@ -8614,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="111" t="s">
         <v>3</v>
       </c>
@@ -8652,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="156" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="156" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="146" t="s">
         <v>3</v>
       </c>
@@ -8686,12 +8645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="165" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C140" s="107" t="s">
         <v>14</v>
@@ -8722,7 +8681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="141" t="s">
         <v>3</v>
       </c>
@@ -8760,7 +8719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45" t="s">
         <v>3</v>
       </c>
@@ -8798,162 +8757,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="B143" s="167" t="s">
+    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="143" t="s">
+        <v>562</v>
+      </c>
+      <c r="C143" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D143" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E143" s="157" t="s">
+        <v>572</v>
+      </c>
+      <c r="F143" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="G143" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H143" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I143" s="47" t="s">
+        <v>549</v>
+      </c>
+      <c r="J143" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="K143" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="L143" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" s="143" t="s">
         <v>546</v>
       </c>
-      <c r="C143" s="168" t="s">
+      <c r="C144" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D143" s="168" t="s">
-        <v>98</v>
-      </c>
-      <c r="E143" s="167" t="s">
+      <c r="D144" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="157" t="s">
         <v>539</v>
       </c>
-      <c r="F143" s="169" t="s">
+      <c r="F144" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="G143" s="170" t="s">
+      <c r="G144" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H143" s="171" t="s">
+      <c r="H144" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I143" s="172" t="s">
+      <c r="I144" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="J143" s="172" t="s">
+      <c r="J144" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="K143" s="172" t="s">
+      <c r="K144" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="L143" s="173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" s="174" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="166" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="167" t="s">
+      <c r="L144" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="143" t="s">
+        <v>572</v>
+      </c>
+      <c r="C145" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E145" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="F145" s="142" t="s">
+        <v>571</v>
+      </c>
+      <c r="G145" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H145" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I145" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="J145" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="K145" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="L145" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="143" t="s">
+        <v>568</v>
+      </c>
+      <c r="C146" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E146" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="F146" s="142" t="s">
+        <v>146</v>
+      </c>
+      <c r="G146" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H146" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="J146" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="C144" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="168" t="s">
-        <v>98</v>
-      </c>
-      <c r="E144" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="F144" s="176" t="s">
-        <v>565</v>
-      </c>
-      <c r="G144" s="170" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="I144" s="172" t="s">
-        <v>549</v>
-      </c>
-      <c r="J144" s="172" t="s">
-        <v>550</v>
-      </c>
-      <c r="K144" s="172" t="s">
-        <v>551</v>
-      </c>
-      <c r="L144" s="173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" s="180" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="B145" s="176" t="s">
-        <v>565</v>
-      </c>
-      <c r="C145" s="177" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="E145" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="F145" s="178" t="s">
-        <v>559</v>
-      </c>
-      <c r="G145" s="179" t="s">
-        <v>141</v>
-      </c>
-      <c r="H145" s="179" t="s">
-        <v>33</v>
-      </c>
-      <c r="I145" s="182" t="s">
-        <v>561</v>
-      </c>
-      <c r="J145" s="181" t="s">
-        <v>560</v>
-      </c>
-      <c r="K145" s="181" t="s">
-        <v>562</v>
-      </c>
-      <c r="L145" s="179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" s="189" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="175" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="183" t="s">
+      <c r="K146" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="C146" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="184" t="s">
-        <v>98</v>
-      </c>
-      <c r="E146" s="169" t="s">
-        <v>146</v>
-      </c>
-      <c r="F146" s="185" t="s">
-        <v>196</v>
-      </c>
-      <c r="G146" s="186" t="s">
-        <v>141</v>
-      </c>
-      <c r="H146" s="187" t="s">
-        <v>33</v>
-      </c>
-      <c r="I146" s="182" t="s">
-        <v>568</v>
-      </c>
-      <c r="J146" s="181" t="s">
-        <v>567</v>
-      </c>
-      <c r="K146" s="181" t="s">
-        <v>566</v>
-      </c>
-      <c r="L146" s="188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
+      <c r="L146" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="B147" s="143" t="s">
-        <v>554</v>
+        <v>570</v>
       </c>
       <c r="C147" s="144" t="s">
         <v>95</v>
@@ -8961,11 +8922,11 @@
       <c r="D147" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="E147" s="158" t="s">
-        <v>539</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>152</v>
+      <c r="E147" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" s="142" t="s">
+        <v>146</v>
       </c>
       <c r="G147" s="66" t="s">
         <v>141</v>
@@ -8973,105 +8934,178 @@
       <c r="H147" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I147" s="110" t="str">
+      <c r="I147" s="47" t="s">
+        <v>566</v>
+      </c>
+      <c r="J147" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="K147" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="L147" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C148" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E148" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G148" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I148" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="J148" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K148" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L148" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="45"/>
+      <c r="B149" s="143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C149" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="D149" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="E149" s="158" t="s">
+        <v>539</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G149" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H149" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I149" s="110" t="str">
         <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_NAME</v>
       </c>
-      <c r="J147" s="160" t="str">
+      <c r="J149" s="160" t="str">
         <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_DESC</v>
       </c>
-      <c r="K147" s="161" t="str">
+      <c r="K149" s="161" t="str">
         <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
         <v>TID_POWERUP_DISGUISE_SPEED_LOW_BOOST_LOW_HP_DESC_SHORT</v>
       </c>
-      <c r="L147" s="131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="45"/>
-      <c r="B148" s="115" t="s">
+      <c r="L149" s="131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="115" t="s">
         <v>558</v>
       </c>
-      <c r="C148" s="162" t="s">
+      <c r="C150" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D148" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="E148" s="117" t="s">
+      <c r="D150" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="E150" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="F148" s="117" t="s">
+      <c r="F150" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="G148" s="163" t="s">
+      <c r="G150" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="H148" s="163" t="s">
+      <c r="H150" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="110" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_NAME")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_NAME</v>
-      </c>
-      <c r="J148" s="160" t="str">
-        <f>CONCATENATE("TID_POWERUP_",UPPER(powerUpsDefinitions2[[#This Row],['[sku']]]),"_DESC")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_DESC</v>
-      </c>
-      <c r="K148" s="161" t="str">
-        <f>CONCATENATE(powerUpsDefinitions2[[#This Row],['[tidDesc']]],"_SHORT")</f>
-        <v>TID_POWERUP_DISGUISE_SPEED_LOW_HP_LOW_DESC_SHORT</v>
-      </c>
-      <c r="L148" s="164">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
+      <c r="I150" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="J150" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="K150" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="L150" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-    </row>
-    <row r="152" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="154" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="50" t="s">
+      <c r="C154" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D152" s="51" t="s">
+      <c r="D154" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E154" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B153" s="4" t="s">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C155" s="3">
         <v>11</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D155" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E155" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="573">
   <si>
     <t>[sku]</t>
   </si>
@@ -3280,33 +3280,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L150" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L150">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="baby_speed"/>
-        <filter val="disguise_furyDuration_lowerDamageMine_speed"/>
-        <filter val="disguise_furySize_boost_speed"/>
-        <filter val="disguise_speed"/>
-        <filter val="disguise_speed_boost"/>
-        <filter val="disguise_speed_boost_LOW"/>
-        <filter val="disguise_speed_fury_duration_LOW_lower_damage_poison"/>
-        <filter val="disguise_speed_fury_duration_lower_damage_poison"/>
-        <filter val="disguise_speed_furyDuration"/>
-        <filter val="disguise_speed_furyDuration_LOW"/>
-        <filter val="disguise_speed_hp"/>
-        <filter val="disguise_speed_hp_disguise_lower_damage_mine"/>
-        <filter val="disguise_speed_LOW"/>
-        <filter val="disguise_speed_LOW_boost_LOW"/>
-        <filter val="disguise_speed_LOW_boost_LOW_hp"/>
-        <filter val="disguise_speed_LOW_boost_LOW_lower_damage_poison"/>
-        <filter val="disguise_speed_LOW_hp"/>
-        <filter val="disguise_speed_LOW_hp_free_revive"/>
-        <filter val="disguise_speed_LOW_hp_LOW"/>
-        <filter val="disguise_speed_moreXp"/>
-        <filter val="speed"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:L150"/>
   <tableColumns count="12">
     <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
@@ -3601,8 +3575,8 @@
   </sheetPr>
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,7 +3615,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="113.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3679,7 +3653,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -3751,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -3787,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
@@ -3823,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -3859,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -3931,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
@@ -4007,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
@@ -4045,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
@@ -4081,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>3</v>
       </c>
@@ -4117,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>3</v>
       </c>
@@ -4153,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
@@ -4263,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
@@ -4339,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
@@ -4377,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>3</v>
       </c>
@@ -4413,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
@@ -4451,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>3</v>
       </c>
@@ -4487,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>3</v>
       </c>
@@ -4523,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -4561,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>3</v>
       </c>
@@ -4599,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
@@ -4637,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>3</v>
       </c>
@@ -4675,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>3</v>
       </c>
@@ -4709,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>3</v>
       </c>
@@ -4745,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
@@ -4781,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
@@ -4817,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
@@ -4891,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>3</v>
       </c>
@@ -4927,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
@@ -4963,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
@@ -4999,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
@@ -5071,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
@@ -5143,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>3</v>
       </c>
@@ -5179,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>3</v>
       </c>
@@ -5215,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -5283,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>3</v>
       </c>
@@ -5351,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>3</v>
       </c>
@@ -5385,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>3</v>
       </c>
@@ -5419,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
@@ -5453,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
@@ -5487,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
@@ -5525,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
@@ -5563,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>3</v>
       </c>
@@ -5599,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>3</v>
       </c>
@@ -5633,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
@@ -5667,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="85" t="s">
         <v>3</v>
       </c>
@@ -5735,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56" t="s">
         <v>3</v>
       </c>
@@ -5769,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56" t="s">
         <v>3</v>
       </c>
@@ -5803,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56" t="s">
         <v>3</v>
       </c>
@@ -5837,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>3</v>
       </c>
@@ -5871,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>3</v>
       </c>
@@ -5907,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56" t="s">
         <v>3</v>
       </c>
@@ -5943,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="88" t="s">
         <v>3</v>
       </c>
@@ -5979,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>3</v>
       </c>
@@ -6015,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="88" t="s">
         <v>3</v>
       </c>
@@ -6051,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="88" t="s">
         <v>3</v>
       </c>
@@ -6159,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="88" t="s">
         <v>3</v>
       </c>
@@ -6193,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="88" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="88" t="s">
         <v>3</v>
       </c>
@@ -6265,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="88" t="s">
         <v>3</v>
       </c>
@@ -6303,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="88" t="s">
         <v>3</v>
       </c>
@@ -6341,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="88" t="s">
         <v>3</v>
       </c>
@@ -6379,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="95" t="s">
         <v>3</v>
       </c>
@@ -6415,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="88" t="s">
         <v>3</v>
       </c>
@@ -6451,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="88" t="s">
         <v>3</v>
       </c>
@@ -6487,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="99" t="s">
         <v>3</v>
       </c>
@@ -6599,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
         <v>3</v>
       </c>
@@ -6637,7 +6611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="45" t="s">
         <v>3</v>
       </c>
@@ -6713,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
         <v>3</v>
       </c>
@@ -6751,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>3</v>
       </c>
@@ -6789,7 +6763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
@@ -6827,7 +6801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>3</v>
       </c>
@@ -6865,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>3</v>
       </c>
@@ -6941,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>3</v>
       </c>
@@ -6979,7 +6953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>3</v>
       </c>
@@ -7017,7 +6991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>3</v>
       </c>
@@ -7055,7 +7029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
@@ -7093,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>3</v>
       </c>
@@ -7131,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>3</v>
       </c>
@@ -7169,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>3</v>
       </c>
@@ -7207,7 +7181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>3</v>
       </c>
@@ -7245,7 +7219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="45" t="s">
         <v>3</v>
       </c>
@@ -7283,7 +7257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="45" t="s">
         <v>3</v>
       </c>
@@ -7397,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="99" t="s">
         <v>3</v>
       </c>
@@ -7435,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="99" t="s">
         <v>3</v>
       </c>
@@ -7511,7 +7485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="99" t="s">
         <v>3</v>
       </c>
@@ -7549,7 +7523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="99" t="s">
         <v>3</v>
       </c>
@@ -7587,7 +7561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="99" t="s">
         <v>3</v>
       </c>
@@ -7625,7 +7599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="99" t="s">
         <v>3</v>
       </c>
@@ -7739,7 +7713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="77" t="s">
         <v>3</v>
       </c>
@@ -7815,7 +7789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="111" t="s">
         <v>3</v>
       </c>
@@ -7853,7 +7827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="114" t="s">
         <v>3</v>
       </c>
@@ -7889,7 +7863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="111" t="s">
         <v>3</v>
       </c>
@@ -7927,7 +7901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
@@ -7965,7 +7939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A121" s="119" t="s">
         <v>3</v>
       </c>
@@ -8001,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="111" t="s">
         <v>3</v>
       </c>
@@ -8039,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="111" t="s">
         <v>3</v>
       </c>
@@ -8113,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>3</v>
       </c>
@@ -8151,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>3</v>
       </c>
@@ -8187,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>3</v>
       </c>
@@ -8223,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>3</v>
       </c>
@@ -8259,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>3</v>
       </c>
@@ -8295,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="111" t="s">
         <v>3</v>
       </c>
@@ -8329,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="111" t="s">
         <v>3</v>
       </c>
@@ -8365,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="111" t="s">
         <v>3</v>
       </c>
@@ -8399,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="45" t="s">
         <v>3</v>
       </c>
@@ -8433,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="45" t="s">
         <v>3</v>
       </c>
@@ -8469,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
         <v>3</v>
       </c>
@@ -8503,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="45" t="s">
         <v>3</v>
       </c>
@@ -8539,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="111" t="s">
         <v>3</v>
       </c>
@@ -8573,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="111" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="156" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" s="156" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="146" t="s">
         <v>3</v>
       </c>
@@ -8645,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="141" t="s">
         <v>3</v>
       </c>
@@ -8681,7 +8655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="141" t="s">
         <v>3</v>
       </c>
@@ -8757,7 +8731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
         <v>3</v>
       </c>
@@ -8833,7 +8807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45" t="s">
         <v>3</v>
       </c>
@@ -8981,8 +8955,8 @@
       <c r="K148" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="L148" s="72">
-        <v>2</v>
+      <c r="L148" s="131">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -9025,9 +8999,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="45" t="s">
-        <v>3</v>
-      </c>
+      <c r="A150" s="45"/>
       <c r="B150" s="115" t="s">
         <v>558</v>
       </c>
@@ -9056,7 +9028,7 @@
         <v>306</v>
       </c>
       <c r="K150" s="20" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="L150" s="164">
         <v>3</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="575">
   <si>
     <t>[sku]</t>
   </si>
@@ -1743,6 +1743,12 @@
   </si>
   <si>
     <t>disguise_boost_LOW_fury_duration_LOW_Steam</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_PREY_HP_BOOST_HUMANOIDS_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_PREY_HP_BOOST_HUMANOIDS_DESC_SHORT</t>
   </si>
 </sst>
 </file>
@@ -3575,8 +3581,8 @@
   </sheetPr>
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="F109" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8039,13 +8045,13 @@
         <v>37</v>
       </c>
       <c r="I123" s="128" t="s">
-        <v>346</v>
+        <v>573</v>
       </c>
       <c r="J123" s="129" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="K123" s="130" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="L123" s="131">
         <v>0</v>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="600">
   <si>
     <t>[sku]</t>
   </si>
@@ -1749,6 +1749,81 @@
   </si>
   <si>
     <t>TID_POWERUP_PREY_HP_BOOST_HUMANOIDS_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_reduce_life_drain</t>
+  </si>
+  <si>
+    <t>disguise_prey_hp_boost_humanoids</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_PREY_HP_BOOST_HUMANOIDS_DESC</t>
+  </si>
+  <si>
+    <t>disguise_faster_boost</t>
+  </si>
+  <si>
+    <t>disguise_faster_boost_speed_LOWx2</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOWx2</t>
+  </si>
+  <si>
+    <t>disguise_fury_duration_LOW_boost_LOW_dive</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2_boost</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2,5</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2,5_boost</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_47_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_47_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_47_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_50_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_49_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_48_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_48_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_48_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_49_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_49_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2,5_boost_revive</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2,5_boost_life_drain</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2_damage_arrows</t>
+  </si>
+  <si>
+    <t>disguise_transform_gold_LOWx2,5_boost_fury_duration_LOW</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1916,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1911,6 +1986,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,6 +2745,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3285,8 +3375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L150" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L164" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L164"/>
   <tableColumns count="12">
     <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
@@ -3579,10 +3669,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F109" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9006,7 +9096,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
-      <c r="B150" s="115" t="s">
+      <c r="B150" s="143" t="s">
         <v>558</v>
       </c>
       <c r="C150" s="162" t="s">
@@ -9040,50 +9130,566 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E151" s="23">
+        <v>-30</v>
+      </c>
+      <c r="F151" s="23"/>
+      <c r="G151" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H151" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J151" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="K151" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="L151" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="F152" s="17">
+        <v>20</v>
+      </c>
+      <c r="G152" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="H152" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="I152" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="J152" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="K152" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="L152" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E153" s="17">
+        <v>100</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H153" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="J153" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="K153" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="L153" s="164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="167" t="s">
+        <v>579</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="G154" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H154" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I154" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="J154" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="K154" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="L154" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E155" s="17">
+        <v>15</v>
+      </c>
+      <c r="F155" s="17"/>
+      <c r="G155" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="H155" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="J155" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="K155" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="L155" s="102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" s="167" t="s">
+        <v>581</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="F156" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G156" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H156" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I156" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="J156" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="K156" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="L156" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="167" t="s">
+        <v>582</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E157" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F157" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G157" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H157" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I157" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="J157" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="K157" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="L157" s="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E158" s="17">
+        <v>10</v>
+      </c>
+      <c r="F158" s="17"/>
+      <c r="G158" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H158" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="J158" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="K158" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="L158" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" s="167" t="s">
+        <v>599</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F159" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G159" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H159" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I159" s="47" t="s">
+        <v>566</v>
+      </c>
+      <c r="J159" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="L159" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" s="168" t="s">
+        <v>585</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G160" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H160" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I160" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="J160" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="K160" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="L160" s="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E161" s="23">
+        <v>15</v>
+      </c>
+      <c r="F161" s="23"/>
+      <c r="G161" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H161" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I161" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="J161" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="K161" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="L161" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="45"/>
+      <c r="B162" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G162" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H162" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="J162" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="K162" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="L162" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="45"/>
+      <c r="B163" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F163" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G163" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="H163" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="J163" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="K163" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="L163" s="164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="45"/>
+      <c r="B164" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E164" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H164" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J164" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K164" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="L164" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-    </row>
-    <row r="154" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+    </row>
+    <row r="168" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="50" t="s">
+      <c r="C168" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="51" t="s">
+      <c r="D168" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E154" s="51" t="s">
+      <c r="E168" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B155" s="4" t="s">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C169" s="3">
         <v>11</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D169" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E169" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\dragon\client\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\client_lfs\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="612">
   <si>
     <t>[sku]</t>
   </si>
@@ -1824,6 +1824,42 @@
   </si>
   <si>
     <t>disguise_transform_gold_LOWx2,5_boost_fury_duration_LOW</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_51_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_51_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_51_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_52_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_53_NAME</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_52_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_53_DESC</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_52_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>TID_POWERUP_DISGUISE_53_DESC_SHORT</t>
+  </si>
+  <si>
+    <t>disguise_boost_LOW_faster_boost</t>
+  </si>
+  <si>
+    <t>disguise_speed_LOW_boost_LOW_free_revive</t>
+  </si>
+  <si>
+    <t>disguise_speed_fury_duration_LOW</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,6 +2792,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3375,8 +3412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L164" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A3:L164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="powerUpsDefinitions2" displayName="powerUpsDefinitions2" ref="A3:L167" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A3:L167"/>
   <tableColumns count="12">
     <tableColumn id="1" name="{powerUpsDefinitions}" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" name="[sku]" dataDxfId="21" totalsRowDxfId="20"/>
@@ -3669,10 +3706,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,7 +6900,7 @@
       <c r="A90" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C90" s="70" t="s">
@@ -7997,7 +8034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
@@ -9646,50 +9683,164 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="166" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="G165" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H165" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="J165" s="48" t="s">
+        <v>601</v>
+      </c>
+      <c r="K165" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="L165" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G166" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H166" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I166" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="J166" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="K166" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="L166" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="169" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E167" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="F167" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H167" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="K167" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="L167" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-    </row>
-    <row r="168" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+    </row>
+    <row r="172" spans="1:12" ht="136.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C168" s="50" t="s">
+      <c r="C172" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D168" s="51" t="s">
+      <c r="D172" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E168" s="51" t="s">
+      <c r="E172" s="51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A169" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B169" s="4" t="s">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C173" s="3">
         <v>11</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D173" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E173" s="5">
         <v>0.25</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Powerups.xlsx
+++ b/Docs/Content/HungryDragonContent_Powerups.xlsx
@@ -3708,7 +3708,7 @@
   </sheetPr>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
@@ -8034,7 +8034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="111" t="s">
         <v>3</v>
       </c>
